--- a/CreateDB_NC/InputData/ExcelUserData/UserDataPart1.xlsx
+++ b/CreateDB_NC/InputData/ExcelUserData/UserDataPart1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateDB_NC\InputData\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B9576F-3076-4646-AED2-531379ECE18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7ADAA97-310E-43F6-B440-F7C538606254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="935" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="935" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="technologies" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2943" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2943" uniqueCount="406">
   <si>
     <t>tech</t>
   </si>
@@ -1277,6 +1277,9 @@
   <si>
     <t>USED ATB 22- Could use (State Energy Data System (SEDS): 2022 + Wood and biomass waste + Price and Expenditures + WWEID https://www.eia.gov/state/seds/seds-data-fuel-prev.php 2.5M$/PJ)</t>
   </si>
+  <si>
+    <t>Temporary modification original value was 33</t>
+  </si>
 </sst>
 </file>
 
@@ -2374,6 +2377,9 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2381,9 +2387,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4369,18 +4372,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
@@ -6046,9 +6049,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C008AD2-9FC6-4B50-8E5B-D9A0AF2799B1}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6081,7 +6084,7 @@
         <v>290</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>20</v>
@@ -6115,7 +6118,7 @@
         <v>289</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -6132,7 +6135,7 @@
         <v>292</v>
       </c>
       <c r="B5">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -6166,7 +6169,7 @@
         <v>294</v>
       </c>
       <c r="B7">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -6183,7 +6186,7 @@
         <v>295</v>
       </c>
       <c r="B8">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>20</v>
@@ -6200,7 +6203,7 @@
         <v>296</v>
       </c>
       <c r="B9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -6285,7 +6288,7 @@
         <v>299</v>
       </c>
       <c r="B14">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C14">
         <v>20</v>
@@ -6319,7 +6322,7 @@
         <v>301</v>
       </c>
       <c r="B16">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>20</v>
@@ -6387,7 +6390,7 @@
         <v>305</v>
       </c>
       <c r="B20">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>20</v>
@@ -6413,7 +6416,7 @@
         <v>359</v>
       </c>
       <c r="E21" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -7005,8 +7008,8 @@
   <dimension ref="A1:L124"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -11796,13 +11799,13 @@
       <c r="N1" t="s">
         <v>400</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="21" t="s">
         <v>401</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="21" t="s">
         <v>402</v>
       </c>
     </row>
@@ -11852,14 +11855,14 @@
         <f>J2*C2</f>
         <v>11022</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="Q2" s="24">
+      <c r="Q2" s="21">
         <f>SUMIF($M$2:$M$125, P2, $C$2:$C$125)</f>
         <v>9294</v>
       </c>
-      <c r="R2" s="24">
+      <c r="R2" s="21">
         <f>SUMIF($M$2:$M$125, P2, $N$2:$N$125)/Q2</f>
         <v>55.796858188078332</v>
       </c>
@@ -11910,14 +11913,14 @@
         <f t="shared" ref="N3:N66" si="2">J3*C3</f>
         <v>16058</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="P3" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="Q3" s="24">
+      <c r="Q3" s="21">
         <f t="shared" ref="Q3:Q8" si="3">SUMIF($M$2:$M$125, P3, $C$2:$C$125)</f>
         <v>5184</v>
       </c>
-      <c r="R3" s="24">
+      <c r="R3" s="21">
         <f t="shared" ref="R3:R8" si="4">SUMIF($M$2:$M$125, P3, $N$2:$N$125)/Q3</f>
         <v>41.582754629629626</v>
       </c>
@@ -11968,14 +11971,14 @@
         <f t="shared" si="2"/>
         <v>7400</v>
       </c>
-      <c r="P4" s="24" t="s">
+      <c r="P4" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="Q4" s="24">
+      <c r="Q4" s="21">
         <f t="shared" si="3"/>
         <v>1876</v>
       </c>
-      <c r="R4" s="24">
+      <c r="R4" s="21">
         <f t="shared" si="4"/>
         <v>37.380597014925371</v>
       </c>
@@ -12026,14 +12029,14 @@
         <f t="shared" si="2"/>
         <v>7400</v>
       </c>
-      <c r="P5" s="24" t="s">
+      <c r="P5" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="Q5" s="24">
+      <c r="Q5" s="21">
         <f t="shared" si="3"/>
         <v>838.3</v>
       </c>
-      <c r="R5" s="24">
+      <c r="R5" s="21">
         <f t="shared" si="4"/>
         <v>108.87677442443039</v>
       </c>
@@ -12084,14 +12087,14 @@
         <f t="shared" si="2"/>
         <v>7600</v>
       </c>
-      <c r="P6" s="24" t="s">
+      <c r="P6" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="Q6" s="24">
+      <c r="Q6" s="21">
         <f t="shared" si="3"/>
         <v>232</v>
       </c>
-      <c r="R6" s="24">
+      <c r="R6" s="21">
         <f t="shared" si="4"/>
         <v>68.706896551724142</v>
       </c>
@@ -12142,14 +12145,14 @@
         <f t="shared" si="2"/>
         <v>3600</v>
       </c>
-      <c r="P7" s="24" t="s">
+      <c r="P7" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="Q7" s="24">
+      <c r="Q7" s="21">
         <f t="shared" si="3"/>
         <v>2937</v>
       </c>
-      <c r="R7" s="24">
+      <c r="R7" s="21">
         <f t="shared" si="4"/>
         <v>59.343547837929862</v>
       </c>
@@ -12200,14 +12203,14 @@
         <f t="shared" si="2"/>
         <v>7410</v>
       </c>
-      <c r="P8" s="24" t="s">
+      <c r="P8" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="Q8" s="24">
+      <c r="Q8" s="21">
         <f t="shared" si="3"/>
         <v>2763</v>
       </c>
-      <c r="R8" s="24">
+      <c r="R8" s="21">
         <f t="shared" si="4"/>
         <v>37.155266015200866</v>
       </c>
@@ -35684,7 +35687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F64963-0CDD-4BE6-B0AC-E6FD0D7CCBEC}">
   <dimension ref="A1:AI94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>

--- a/CreateDB_NC/InputData/ExcelUserData/UserDataPart1.xlsx
+++ b/CreateDB_NC/InputData/ExcelUserData/UserDataPart1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateDB_NC\InputData\ExcelUserData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\OceanTech\TemoaHurricane_V2\CreateDB_NC\InputData\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7ADAA97-310E-43F6-B440-F7C538606254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EE18A5-249A-434E-A5EF-E580C88C0557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="935" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="935" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="technologies" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2943" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2961" uniqueCount="409">
   <si>
     <t>tech</t>
   </si>
@@ -1279,6 +1279,15 @@
   </si>
   <si>
     <t>Temporary modification original value was 33</t>
+  </si>
+  <si>
+    <t>Ocean Current Turbines</t>
+  </si>
+  <si>
+    <t>Ocean paper https://ars.els-cdn.com/content/image/1-s2.0-S0306261922012697-mmc1.pdf</t>
+  </si>
+  <si>
+    <t>OCEAN_CURRENT_NEW</t>
   </si>
 </sst>
 </file>
@@ -3041,11 +3050,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D56"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3875,6 +3884,20 @@
       </c>
       <c r="D56" t="s">
         <v>369</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>408</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" t="s">
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -5382,7 +5405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F425B7AA-21D1-411D-A9AF-54EA873F398D}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -5528,11 +5551,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32AD897-F683-4767-9F8A-BBAC538730FF}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6039,6 +6062,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>408</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6047,11 +6084,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C008AD2-9FC6-4B50-8E5B-D9A0AF2799B1}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6996,6 +7033,17 @@
         <v>270</v>
       </c>
     </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>408</v>
+      </c>
+      <c r="B57">
+        <v>30</v>
+      </c>
+      <c r="C57">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7008,7 +7056,7 @@
   <dimension ref="A1:L124"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
@@ -17728,8 +17776,8 @@
   <dimension ref="A1:AI74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D67" sqref="D67"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -25553,38 +25601,112 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="74" spans="1:35">
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
-      <c r="L74" s="12"/>
-      <c r="M74" s="12"/>
-      <c r="N74" s="12"/>
-      <c r="O74" s="12"/>
-      <c r="P74" s="12"/>
-      <c r="Q74" s="12"/>
-      <c r="R74" s="12"/>
-      <c r="S74" s="12"/>
-      <c r="T74" s="12"/>
-      <c r="U74" s="12"/>
-      <c r="V74" s="12"/>
-      <c r="W74" s="12"/>
-      <c r="X74" s="12"/>
-      <c r="Y74" s="12"/>
-      <c r="Z74" s="12"/>
-      <c r="AA74" s="12"/>
-      <c r="AB74" s="12"/>
-      <c r="AC74" s="12"/>
-      <c r="AD74" s="12"/>
-      <c r="AE74" s="12"/>
-      <c r="AF74" s="12"/>
-      <c r="AG74" s="12"/>
-      <c r="AH74" s="12"/>
-      <c r="AI74" s="12"/>
+    <row r="74" spans="1:35" ht="15">
+      <c r="A74" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B74" t="s">
+        <v>408</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="E74" s="12">
+        <v>8012</v>
+      </c>
+      <c r="F74" s="12">
+        <v>8012</v>
+      </c>
+      <c r="G74" s="12">
+        <v>8012</v>
+      </c>
+      <c r="H74" s="12">
+        <v>8012</v>
+      </c>
+      <c r="I74" s="12">
+        <v>8012</v>
+      </c>
+      <c r="J74" s="12">
+        <v>8012</v>
+      </c>
+      <c r="K74" s="12">
+        <v>8012</v>
+      </c>
+      <c r="L74" s="12">
+        <v>8012</v>
+      </c>
+      <c r="M74" s="12">
+        <v>8012</v>
+      </c>
+      <c r="N74" s="12">
+        <v>8012</v>
+      </c>
+      <c r="O74" s="12">
+        <v>8012</v>
+      </c>
+      <c r="P74" s="12">
+        <v>8012</v>
+      </c>
+      <c r="Q74" s="12">
+        <v>8012</v>
+      </c>
+      <c r="R74" s="12">
+        <v>8012</v>
+      </c>
+      <c r="S74" s="12">
+        <v>8012</v>
+      </c>
+      <c r="T74" s="12">
+        <v>8012</v>
+      </c>
+      <c r="U74" s="12">
+        <v>8012</v>
+      </c>
+      <c r="V74" s="12">
+        <v>8012</v>
+      </c>
+      <c r="W74" s="12">
+        <v>8012</v>
+      </c>
+      <c r="X74" s="12">
+        <v>8012</v>
+      </c>
+      <c r="Y74" s="12">
+        <v>8012</v>
+      </c>
+      <c r="Z74" s="12">
+        <v>8012</v>
+      </c>
+      <c r="AA74" s="12">
+        <v>8012</v>
+      </c>
+      <c r="AB74" s="12">
+        <v>8012</v>
+      </c>
+      <c r="AC74" s="12">
+        <v>8012</v>
+      </c>
+      <c r="AD74" s="12">
+        <v>8012</v>
+      </c>
+      <c r="AE74" s="12">
+        <v>8012</v>
+      </c>
+      <c r="AF74" s="12">
+        <v>8012</v>
+      </c>
+      <c r="AG74" s="12">
+        <v>8012</v>
+      </c>
+      <c r="AH74" s="12">
+        <v>8012</v>
+      </c>
+      <c r="AI74" s="12">
+        <v>8012</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AI73">
@@ -25598,11 +25720,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD5D24F-D6D8-45F0-9B18-7F7BBE5186DB}">
-  <dimension ref="A1:AI94"/>
+  <dimension ref="A1:AI95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="B37:D40"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -35673,6 +35795,113 @@
         <v>43</v>
       </c>
     </row>
+    <row r="95" spans="1:35" ht="15">
+      <c r="A95" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B95" t="s">
+        <v>408</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="E95" s="14">
+        <v>183</v>
+      </c>
+      <c r="F95" s="14">
+        <v>183</v>
+      </c>
+      <c r="G95" s="14">
+        <v>183</v>
+      </c>
+      <c r="H95" s="14">
+        <v>183</v>
+      </c>
+      <c r="I95" s="14">
+        <v>183</v>
+      </c>
+      <c r="J95" s="14">
+        <v>183</v>
+      </c>
+      <c r="K95" s="14">
+        <v>183</v>
+      </c>
+      <c r="L95" s="14">
+        <v>183</v>
+      </c>
+      <c r="M95" s="14">
+        <v>183</v>
+      </c>
+      <c r="N95" s="14">
+        <v>183</v>
+      </c>
+      <c r="O95" s="14">
+        <v>183</v>
+      </c>
+      <c r="P95" s="14">
+        <v>183</v>
+      </c>
+      <c r="Q95" s="14">
+        <v>183</v>
+      </c>
+      <c r="R95" s="14">
+        <v>183</v>
+      </c>
+      <c r="S95" s="14">
+        <v>183</v>
+      </c>
+      <c r="T95" s="14">
+        <v>183</v>
+      </c>
+      <c r="U95" s="14">
+        <v>183</v>
+      </c>
+      <c r="V95" s="14">
+        <v>183</v>
+      </c>
+      <c r="W95" s="14">
+        <v>183</v>
+      </c>
+      <c r="X95" s="14">
+        <v>183</v>
+      </c>
+      <c r="Y95" s="14">
+        <v>183</v>
+      </c>
+      <c r="Z95" s="14">
+        <v>183</v>
+      </c>
+      <c r="AA95" s="14">
+        <v>183</v>
+      </c>
+      <c r="AB95" s="14">
+        <v>183</v>
+      </c>
+      <c r="AC95" s="14">
+        <v>183</v>
+      </c>
+      <c r="AD95" s="14">
+        <v>183</v>
+      </c>
+      <c r="AE95" s="14">
+        <v>183</v>
+      </c>
+      <c r="AF95" s="14">
+        <v>183</v>
+      </c>
+      <c r="AG95" s="14">
+        <v>183</v>
+      </c>
+      <c r="AH95" s="14">
+        <v>183</v>
+      </c>
+      <c r="AI95" s="14">
+        <v>183</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AI94">
     <sortCondition ref="B2:B94"/>
@@ -35685,11 +35914,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F64963-0CDD-4BE6-B0AC-E6FD0D7CCBEC}">
-  <dimension ref="A1:AI94"/>
+  <dimension ref="A1:AI95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -45850,6 +46079,113 @@
         <v>0</v>
       </c>
       <c r="AI94" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:35" ht="15">
+      <c r="A95" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B95" t="s">
+        <v>408</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="E95" s="12">
+        <v>0</v>
+      </c>
+      <c r="F95" s="12">
+        <v>0</v>
+      </c>
+      <c r="G95" s="12">
+        <v>0</v>
+      </c>
+      <c r="H95" s="12">
+        <v>0</v>
+      </c>
+      <c r="I95" s="12">
+        <v>0</v>
+      </c>
+      <c r="J95" s="12">
+        <v>0</v>
+      </c>
+      <c r="K95" s="12">
+        <v>0</v>
+      </c>
+      <c r="L95" s="12">
+        <v>0</v>
+      </c>
+      <c r="M95" s="12">
+        <v>0</v>
+      </c>
+      <c r="N95" s="12">
+        <v>0</v>
+      </c>
+      <c r="O95" s="12">
+        <v>0</v>
+      </c>
+      <c r="P95" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="12">
+        <v>0</v>
+      </c>
+      <c r="R95" s="12">
+        <v>0</v>
+      </c>
+      <c r="S95" s="12">
+        <v>0</v>
+      </c>
+      <c r="T95" s="12">
+        <v>0</v>
+      </c>
+      <c r="U95" s="12">
+        <v>0</v>
+      </c>
+      <c r="V95" s="12">
+        <v>0</v>
+      </c>
+      <c r="W95" s="12">
+        <v>0</v>
+      </c>
+      <c r="X95" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y95" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z95" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA95" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB95" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC95" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD95" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE95" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF95" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG95" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH95" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI95" s="12">
         <v>0</v>
       </c>
     </row>

--- a/CreateDB_NC/InputData/ExcelUserData/UserDataPart1.xlsx
+++ b/CreateDB_NC/InputData/ExcelUserData/UserDataPart1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\OceanTech\TemoaHurricane_V2\CreateDB_NC\InputData\ExcelUserData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaduraes\Desktop\victor\TemoaHurricane_V2\CreateDB_NC\InputData\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EE18A5-249A-434E-A5EF-E580C88C0557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="935" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="935" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="technologies" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <sheet name="DemandCalculations" sheetId="3" r:id="rId12"/>
     <sheet name="TransmissionCalculations" sheetId="18" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2961" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2961" uniqueCount="411">
   <si>
     <t>tech</t>
   </si>
@@ -1289,11 +1288,17 @@
   <si>
     <t>OCEAN_CURRENT_NEW</t>
   </si>
+  <si>
+    <t>Ocean paper https://ars.els-cdn.com/content/image/1-s2.0-S0306261922012697-mmc1.pdf      8012</t>
+  </si>
+  <si>
+    <t>Ocean paper https://ars.els-cdn.com/content/image/1-s2.0-S0306261922012697-mmc1.pdf   183</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -2401,77 +2406,77 @@
   </cellXfs>
   <cellStyles count="345">
     <cellStyle name="20% - Accent1" xfId="322" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent1 2" xfId="3" xr:uid="{B827B25B-815F-4399-9C27-07E6646644D6}"/>
-    <cellStyle name="20% - Accent1 2 2" xfId="4" xr:uid="{3AD8C6A0-724E-44C7-A743-3F3460E9CEF4}"/>
-    <cellStyle name="20% - Accent1 2 2 2" xfId="138" xr:uid="{A5BAFA77-0991-467A-B05B-3780C1227EAF}"/>
-    <cellStyle name="20% - Accent1 2 2 2 2" xfId="160" xr:uid="{8DA8A6B8-918A-4FEB-8DD6-D3BA0BF0A42E}"/>
-    <cellStyle name="20% - Accent1 2 2 2 2 2" xfId="204" xr:uid="{77E2CB6B-6C25-4531-AED8-C0FFD30E878C}"/>
-    <cellStyle name="20% - Accent1 2 2 2 2 2 2" xfId="292" xr:uid="{53B7FD11-219E-400B-91CE-4C698CABECEA}"/>
-    <cellStyle name="20% - Accent1 2 2 2 2 3" xfId="248" xr:uid="{0A2B591D-091A-46C8-8BB6-C1C1BDDA0279}"/>
-    <cellStyle name="20% - Accent1 2 2 2 3" xfId="182" xr:uid="{9729AC61-350F-47FE-9B66-4470C3FD5B00}"/>
-    <cellStyle name="20% - Accent1 2 2 2 3 2" xfId="270" xr:uid="{869BEFB3-8DDA-4864-8137-22F3306ECCEA}"/>
-    <cellStyle name="20% - Accent1 2 2 2 4" xfId="226" xr:uid="{67059528-0683-4835-9FEE-6CABF184C7E3}"/>
-    <cellStyle name="20% - Accent1 2 2 3" xfId="149" xr:uid="{EAB0FCD7-5019-4484-A547-774D0927448F}"/>
-    <cellStyle name="20% - Accent1 2 2 3 2" xfId="193" xr:uid="{FDECA9C2-6D6C-4EFA-8235-34390DED835E}"/>
-    <cellStyle name="20% - Accent1 2 2 3 2 2" xfId="281" xr:uid="{821948CF-343F-4399-8692-40A1C1CF687D}"/>
-    <cellStyle name="20% - Accent1 2 2 3 3" xfId="237" xr:uid="{FE295685-0751-4311-8C29-05AF0F04C6C9}"/>
-    <cellStyle name="20% - Accent1 2 2 4" xfId="171" xr:uid="{666F1DE3-6EEE-48F4-8641-E64C7DC728CF}"/>
-    <cellStyle name="20% - Accent1 2 2 4 2" xfId="259" xr:uid="{8B4C4DE3-9FB1-4B02-8F05-E052556A4A6F}"/>
-    <cellStyle name="20% - Accent1 2 2 5" xfId="215" xr:uid="{4B3841E2-1277-4816-B405-34C06438C2BF}"/>
+    <cellStyle name="20% - Accent1 2" xfId="3"/>
+    <cellStyle name="20% - Accent1 2 2" xfId="4"/>
+    <cellStyle name="20% - Accent1 2 2 2" xfId="138"/>
+    <cellStyle name="20% - Accent1 2 2 2 2" xfId="160"/>
+    <cellStyle name="20% - Accent1 2 2 2 2 2" xfId="204"/>
+    <cellStyle name="20% - Accent1 2 2 2 2 2 2" xfId="292"/>
+    <cellStyle name="20% - Accent1 2 2 2 2 3" xfId="248"/>
+    <cellStyle name="20% - Accent1 2 2 2 3" xfId="182"/>
+    <cellStyle name="20% - Accent1 2 2 2 3 2" xfId="270"/>
+    <cellStyle name="20% - Accent1 2 2 2 4" xfId="226"/>
+    <cellStyle name="20% - Accent1 2 2 3" xfId="149"/>
+    <cellStyle name="20% - Accent1 2 2 3 2" xfId="193"/>
+    <cellStyle name="20% - Accent1 2 2 3 2 2" xfId="281"/>
+    <cellStyle name="20% - Accent1 2 2 3 3" xfId="237"/>
+    <cellStyle name="20% - Accent1 2 2 4" xfId="171"/>
+    <cellStyle name="20% - Accent1 2 2 4 2" xfId="259"/>
+    <cellStyle name="20% - Accent1 2 2 5" xfId="215"/>
     <cellStyle name="20% - Accent2" xfId="326" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2 2" xfId="5" xr:uid="{24E5B2AF-472F-4EF5-B531-C370F7040836}"/>
-    <cellStyle name="20% - Accent2 2 2" xfId="6" xr:uid="{9BAE4DCA-5983-4F62-ACE0-82DE92E8C686}"/>
-    <cellStyle name="20% - Accent2 2 2 2" xfId="139" xr:uid="{63D2858A-EA14-4A80-84AA-38D1FBFFADF1}"/>
-    <cellStyle name="20% - Accent2 2 2 2 2" xfId="161" xr:uid="{22E68BE6-0B26-4739-8E86-6DD8049BA4E1}"/>
-    <cellStyle name="20% - Accent2 2 2 2 2 2" xfId="205" xr:uid="{3803820C-8301-4D33-95A6-AFBC85375D93}"/>
-    <cellStyle name="20% - Accent2 2 2 2 2 2 2" xfId="293" xr:uid="{15E4C12F-52D9-4F0F-B675-993F3479E399}"/>
-    <cellStyle name="20% - Accent2 2 2 2 2 3" xfId="249" xr:uid="{0911BBEE-63CD-47AD-9E3A-9AEE2547E92C}"/>
-    <cellStyle name="20% - Accent2 2 2 2 3" xfId="183" xr:uid="{002856B2-01A7-41C8-9B63-2F05D3093468}"/>
-    <cellStyle name="20% - Accent2 2 2 2 3 2" xfId="271" xr:uid="{00CD7597-A0C3-4B1A-8C7C-F620563540EE}"/>
-    <cellStyle name="20% - Accent2 2 2 2 4" xfId="227" xr:uid="{CA68CBE6-421B-4607-8394-46E77C4FA5FC}"/>
-    <cellStyle name="20% - Accent2 2 2 3" xfId="150" xr:uid="{0F224DD9-655A-483D-AD44-3A0B6585D93B}"/>
-    <cellStyle name="20% - Accent2 2 2 3 2" xfId="194" xr:uid="{C17B250C-2C85-4DD1-80D9-3F76D66B20A2}"/>
-    <cellStyle name="20% - Accent2 2 2 3 2 2" xfId="282" xr:uid="{EB73985F-7339-4D89-99B1-F66F7E037FFE}"/>
-    <cellStyle name="20% - Accent2 2 2 3 3" xfId="238" xr:uid="{8D511E49-DC19-4472-9EC4-0C4BCD7825AA}"/>
-    <cellStyle name="20% - Accent2 2 2 4" xfId="172" xr:uid="{75340050-9E7D-4740-9292-C5580F85AB37}"/>
-    <cellStyle name="20% - Accent2 2 2 4 2" xfId="260" xr:uid="{C82FEB7F-BE45-4F31-989A-39456F706E95}"/>
-    <cellStyle name="20% - Accent2 2 2 5" xfId="216" xr:uid="{B8D44434-B637-4FEC-9A07-D3713A75D8ED}"/>
+    <cellStyle name="20% - Accent2 2" xfId="5"/>
+    <cellStyle name="20% - Accent2 2 2" xfId="6"/>
+    <cellStyle name="20% - Accent2 2 2 2" xfId="139"/>
+    <cellStyle name="20% - Accent2 2 2 2 2" xfId="161"/>
+    <cellStyle name="20% - Accent2 2 2 2 2 2" xfId="205"/>
+    <cellStyle name="20% - Accent2 2 2 2 2 2 2" xfId="293"/>
+    <cellStyle name="20% - Accent2 2 2 2 2 3" xfId="249"/>
+    <cellStyle name="20% - Accent2 2 2 2 3" xfId="183"/>
+    <cellStyle name="20% - Accent2 2 2 2 3 2" xfId="271"/>
+    <cellStyle name="20% - Accent2 2 2 2 4" xfId="227"/>
+    <cellStyle name="20% - Accent2 2 2 3" xfId="150"/>
+    <cellStyle name="20% - Accent2 2 2 3 2" xfId="194"/>
+    <cellStyle name="20% - Accent2 2 2 3 2 2" xfId="282"/>
+    <cellStyle name="20% - Accent2 2 2 3 3" xfId="238"/>
+    <cellStyle name="20% - Accent2 2 2 4" xfId="172"/>
+    <cellStyle name="20% - Accent2 2 2 4 2" xfId="260"/>
+    <cellStyle name="20% - Accent2 2 2 5" xfId="216"/>
     <cellStyle name="20% - Accent3" xfId="330" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3 2" xfId="7" xr:uid="{4FB549A3-506B-4B22-8E33-6BA6050E0012}"/>
-    <cellStyle name="20% - Accent3 2 2" xfId="8" xr:uid="{BE06D39D-890D-40F4-A39B-74A1CEEA6FC6}"/>
-    <cellStyle name="20% - Accent3 2 2 2" xfId="140" xr:uid="{46C20136-9241-4E93-8028-8D63BEFAE446}"/>
-    <cellStyle name="20% - Accent3 2 2 2 2" xfId="162" xr:uid="{1323682D-074B-4E2F-8B47-1B45AE00932A}"/>
-    <cellStyle name="20% - Accent3 2 2 2 2 2" xfId="206" xr:uid="{18F2239B-5ED6-4AFA-8765-779F3D4B5464}"/>
-    <cellStyle name="20% - Accent3 2 2 2 2 2 2" xfId="294" xr:uid="{D4F4B95E-56DC-4C3C-AFCC-75F359248BD3}"/>
-    <cellStyle name="20% - Accent3 2 2 2 2 3" xfId="250" xr:uid="{5926BA7F-AC85-41E0-B663-DB276B7ABA0C}"/>
-    <cellStyle name="20% - Accent3 2 2 2 3" xfId="184" xr:uid="{51108660-67DD-49A5-A3EE-A09007C57867}"/>
-    <cellStyle name="20% - Accent3 2 2 2 3 2" xfId="272" xr:uid="{056448CB-18FA-4A44-969D-74903A692C41}"/>
-    <cellStyle name="20% - Accent3 2 2 2 4" xfId="228" xr:uid="{500147C4-BE59-4A29-923F-78302A0D4BE7}"/>
-    <cellStyle name="20% - Accent3 2 2 3" xfId="151" xr:uid="{38AE67A4-F90E-4273-B634-90B76BFD99AB}"/>
-    <cellStyle name="20% - Accent3 2 2 3 2" xfId="195" xr:uid="{AA6B4ABA-42F9-4E30-B314-D9783EAA013A}"/>
-    <cellStyle name="20% - Accent3 2 2 3 2 2" xfId="283" xr:uid="{7EDFCDE0-7E59-42A4-BA74-0507AC4C831B}"/>
-    <cellStyle name="20% - Accent3 2 2 3 3" xfId="239" xr:uid="{16FC1BB9-64D9-4469-B28F-3BA74C44BB33}"/>
-    <cellStyle name="20% - Accent3 2 2 4" xfId="173" xr:uid="{F07E7F55-E328-47FF-AA73-53C33ADAAF24}"/>
-    <cellStyle name="20% - Accent3 2 2 4 2" xfId="261" xr:uid="{28F79E1D-3402-42E4-BFA2-91FC80B10DED}"/>
-    <cellStyle name="20% - Accent3 2 2 5" xfId="217" xr:uid="{2B47A0F7-4F63-4CAE-B0E9-4E6267F4ACD0}"/>
+    <cellStyle name="20% - Accent3 2" xfId="7"/>
+    <cellStyle name="20% - Accent3 2 2" xfId="8"/>
+    <cellStyle name="20% - Accent3 2 2 2" xfId="140"/>
+    <cellStyle name="20% - Accent3 2 2 2 2" xfId="162"/>
+    <cellStyle name="20% - Accent3 2 2 2 2 2" xfId="206"/>
+    <cellStyle name="20% - Accent3 2 2 2 2 2 2" xfId="294"/>
+    <cellStyle name="20% - Accent3 2 2 2 2 3" xfId="250"/>
+    <cellStyle name="20% - Accent3 2 2 2 3" xfId="184"/>
+    <cellStyle name="20% - Accent3 2 2 2 3 2" xfId="272"/>
+    <cellStyle name="20% - Accent3 2 2 2 4" xfId="228"/>
+    <cellStyle name="20% - Accent3 2 2 3" xfId="151"/>
+    <cellStyle name="20% - Accent3 2 2 3 2" xfId="195"/>
+    <cellStyle name="20% - Accent3 2 2 3 2 2" xfId="283"/>
+    <cellStyle name="20% - Accent3 2 2 3 3" xfId="239"/>
+    <cellStyle name="20% - Accent3 2 2 4" xfId="173"/>
+    <cellStyle name="20% - Accent3 2 2 4 2" xfId="261"/>
+    <cellStyle name="20% - Accent3 2 2 5" xfId="217"/>
     <cellStyle name="20% - Accent4" xfId="334" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4 2" xfId="9" xr:uid="{6918705A-0795-425E-BC0A-9C30888C9664}"/>
-    <cellStyle name="20% - Accent4 2 2" xfId="10" xr:uid="{9705AAE5-D390-487C-AFDD-375D8AE8BDB1}"/>
-    <cellStyle name="20% - Accent4 2 2 2" xfId="141" xr:uid="{CE4D8A78-97FA-4964-86C6-576DD36F4A95}"/>
-    <cellStyle name="20% - Accent4 2 2 2 2" xfId="163" xr:uid="{4A10C3F1-589F-4430-A299-6C8481F95137}"/>
-    <cellStyle name="20% - Accent4 2 2 2 2 2" xfId="207" xr:uid="{D7372014-A7E3-4461-AF08-E1B57EE7E91A}"/>
-    <cellStyle name="20% - Accent4 2 2 2 2 2 2" xfId="295" xr:uid="{2245CCA2-E827-4820-898A-4507B28D0E3D}"/>
-    <cellStyle name="20% - Accent4 2 2 2 2 3" xfId="251" xr:uid="{AE09F486-02DA-4CAD-AC0F-0EF87CF6233A}"/>
-    <cellStyle name="20% - Accent4 2 2 2 3" xfId="185" xr:uid="{4C44E271-7AE3-4B7B-841D-7E2A47DC71A8}"/>
-    <cellStyle name="20% - Accent4 2 2 2 3 2" xfId="273" xr:uid="{93F2A68E-1415-4EA3-A1A9-82E2D4486420}"/>
-    <cellStyle name="20% - Accent4 2 2 2 4" xfId="229" xr:uid="{1AFB41CD-0199-4D0E-95A5-01FB2C6622D8}"/>
-    <cellStyle name="20% - Accent4 2 2 3" xfId="152" xr:uid="{B287E922-7CEA-4213-8A75-FDED236C29E8}"/>
-    <cellStyle name="20% - Accent4 2 2 3 2" xfId="196" xr:uid="{13AC7BB3-2922-4F19-AE05-B543D8DA4AAE}"/>
-    <cellStyle name="20% - Accent4 2 2 3 2 2" xfId="284" xr:uid="{89F2B1B4-7DC7-455F-9136-F3B48E6A7E9B}"/>
-    <cellStyle name="20% - Accent4 2 2 3 3" xfId="240" xr:uid="{CB0A9FB7-90EB-4AF8-A783-D41066BFB117}"/>
-    <cellStyle name="20% - Accent4 2 2 4" xfId="174" xr:uid="{70D27DB2-8F17-46CC-89B8-E4159034E563}"/>
-    <cellStyle name="20% - Accent4 2 2 4 2" xfId="262" xr:uid="{9D862B67-075B-4E63-A3DF-C3BF4829A2A4}"/>
-    <cellStyle name="20% - Accent4 2 2 5" xfId="218" xr:uid="{51032EDC-4172-4671-92AD-5890CC35FA90}"/>
+    <cellStyle name="20% - Accent4 2" xfId="9"/>
+    <cellStyle name="20% - Accent4 2 2" xfId="10"/>
+    <cellStyle name="20% - Accent4 2 2 2" xfId="141"/>
+    <cellStyle name="20% - Accent4 2 2 2 2" xfId="163"/>
+    <cellStyle name="20% - Accent4 2 2 2 2 2" xfId="207"/>
+    <cellStyle name="20% - Accent4 2 2 2 2 2 2" xfId="295"/>
+    <cellStyle name="20% - Accent4 2 2 2 2 3" xfId="251"/>
+    <cellStyle name="20% - Accent4 2 2 2 3" xfId="185"/>
+    <cellStyle name="20% - Accent4 2 2 2 3 2" xfId="273"/>
+    <cellStyle name="20% - Accent4 2 2 2 4" xfId="229"/>
+    <cellStyle name="20% - Accent4 2 2 3" xfId="152"/>
+    <cellStyle name="20% - Accent4 2 2 3 2" xfId="196"/>
+    <cellStyle name="20% - Accent4 2 2 3 2 2" xfId="284"/>
+    <cellStyle name="20% - Accent4 2 2 3 3" xfId="240"/>
+    <cellStyle name="20% - Accent4 2 2 4" xfId="174"/>
+    <cellStyle name="20% - Accent4 2 2 4 2" xfId="262"/>
+    <cellStyle name="20% - Accent4 2 2 5" xfId="218"/>
     <cellStyle name="20% - Accent5" xfId="338" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% - Accent6" xfId="342" builtinId="50" customBuiltin="1"/>
     <cellStyle name="40% - Accent1" xfId="323" builtinId="31" customBuiltin="1"/>
@@ -2493,257 +2498,257 @@
     <cellStyle name="Accent5" xfId="337" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="341" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Bad" xfId="310" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculated" xfId="11" xr:uid="{2818518C-9D84-49E8-B7FF-13B4A4213EB3}"/>
+    <cellStyle name="Calculated" xfId="11"/>
     <cellStyle name="Calculation" xfId="314" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="316" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Comma 10" xfId="12" xr:uid="{E9743C97-457C-4C86-BBBE-B0341E66BAB8}"/>
-    <cellStyle name="Comma 10 2" xfId="142" xr:uid="{C7733FE5-B14B-4EDF-AA04-D7028E4EB624}"/>
-    <cellStyle name="Comma 10 2 2" xfId="164" xr:uid="{0BB71DA4-04D8-4B8A-B1F4-68EDF22C0F87}"/>
-    <cellStyle name="Comma 10 2 2 2" xfId="208" xr:uid="{D499445A-0313-42B0-BB0B-56707E375364}"/>
-    <cellStyle name="Comma 10 2 2 2 2" xfId="296" xr:uid="{8E19336A-68A3-4B43-A7C5-8DBCE4D387A6}"/>
-    <cellStyle name="Comma 10 2 2 3" xfId="252" xr:uid="{CF5E44AE-13EA-471F-99B6-3837D0A5E938}"/>
-    <cellStyle name="Comma 10 2 3" xfId="186" xr:uid="{BEB4FD91-1CA1-49AD-8CE7-5EE66E8274C8}"/>
-    <cellStyle name="Comma 10 2 3 2" xfId="274" xr:uid="{20BE496A-E982-44FB-95B8-97480CF2E51E}"/>
-    <cellStyle name="Comma 10 2 4" xfId="230" xr:uid="{8828957F-7248-419A-A9D4-6DF04D90E51C}"/>
-    <cellStyle name="Comma 10 3" xfId="153" xr:uid="{9AD8245A-2BFF-4613-9EDE-4F984AA34093}"/>
-    <cellStyle name="Comma 10 3 2" xfId="197" xr:uid="{A9187AFD-A025-42FF-9778-62C83C8780D3}"/>
-    <cellStyle name="Comma 10 3 2 2" xfId="285" xr:uid="{B8D314E5-4AA6-42DB-984F-8330C434840F}"/>
-    <cellStyle name="Comma 10 3 3" xfId="241" xr:uid="{6D509048-4A22-491B-B09A-71428D59ECE2}"/>
-    <cellStyle name="Comma 10 4" xfId="175" xr:uid="{493D406E-C07F-4C34-A04D-5F36512A688F}"/>
-    <cellStyle name="Comma 10 4 2" xfId="263" xr:uid="{39E620AB-BAB4-481E-9487-A2E9AF675B8F}"/>
-    <cellStyle name="Comma 10 5" xfId="219" xr:uid="{ABC2033F-3EAE-463D-9006-0AE506A5FC9A}"/>
-    <cellStyle name="Comma 11" xfId="13" xr:uid="{2B05C098-3415-4D4F-B7FC-E6B966D9A5C9}"/>
-    <cellStyle name="Comma 2" xfId="14" xr:uid="{2C34EDA4-8D4E-4467-BE1D-DCFE57881B70}"/>
-    <cellStyle name="Comma 2 2" xfId="15" xr:uid="{CD66560B-033C-4343-A041-C3C41B8D8FC7}"/>
-    <cellStyle name="Comma 2 2 2" xfId="143" xr:uid="{293459D9-9309-4D38-9A58-6501BE5E1598}"/>
-    <cellStyle name="Comma 2 2 2 2" xfId="165" xr:uid="{8F6ABBDC-EBFB-4B06-BB1E-E0B88FBB79E6}"/>
-    <cellStyle name="Comma 2 2 2 2 2" xfId="209" xr:uid="{9F77FA97-1ACF-4B04-A52A-00CE54A5AFC0}"/>
-    <cellStyle name="Comma 2 2 2 2 2 2" xfId="297" xr:uid="{9E6EA78B-0535-4C33-AEF7-609FDD67BA73}"/>
-    <cellStyle name="Comma 2 2 2 2 3" xfId="253" xr:uid="{AAF3CB3C-A86E-45E2-A059-EC8212089506}"/>
-    <cellStyle name="Comma 2 2 2 3" xfId="187" xr:uid="{147900BB-E5B7-4AE5-8126-E40157D62189}"/>
-    <cellStyle name="Comma 2 2 2 3 2" xfId="275" xr:uid="{E32FD0D9-8BF0-4C14-A737-C431146B1FDB}"/>
-    <cellStyle name="Comma 2 2 2 4" xfId="231" xr:uid="{8EA1BC5E-8C70-477D-91C9-6D17AA4BC328}"/>
-    <cellStyle name="Comma 2 2 3" xfId="154" xr:uid="{8EAB8556-F40C-4ACD-9ED9-ED2E59EC2259}"/>
-    <cellStyle name="Comma 2 2 3 2" xfId="198" xr:uid="{1C28A2AC-CB5F-46C7-9413-4F1CB4B54780}"/>
-    <cellStyle name="Comma 2 2 3 2 2" xfId="286" xr:uid="{562C84C8-1FC4-44A0-BB56-FDA3A2C42E73}"/>
-    <cellStyle name="Comma 2 2 3 3" xfId="242" xr:uid="{ECE4D560-6CCF-431F-82FA-C4BDB5149317}"/>
-    <cellStyle name="Comma 2 2 4" xfId="176" xr:uid="{38FDC886-E463-448B-866A-E6167EC8D9A7}"/>
-    <cellStyle name="Comma 2 2 4 2" xfId="264" xr:uid="{7B1E38DB-387B-4226-A3AC-6A8F7AF8BC49}"/>
-    <cellStyle name="Comma 2 2 5" xfId="220" xr:uid="{C6BE999E-8564-413A-AF88-5BFB8BB9E7AE}"/>
-    <cellStyle name="Comma 3" xfId="16" xr:uid="{563E7483-536E-467C-A54E-DC7BE3B48101}"/>
-    <cellStyle name="Comma 3 2" xfId="17" xr:uid="{5714E2AE-DD89-4A3B-ADD1-63A44A8F6DCC}"/>
-    <cellStyle name="Comma 3 2 2" xfId="144" xr:uid="{1F0C17AC-D988-46C3-A4C1-8FB0404EB4C1}"/>
-    <cellStyle name="Comma 3 2 2 2" xfId="166" xr:uid="{FDACE20A-0DCE-480C-A2E2-D440768B4E5E}"/>
-    <cellStyle name="Comma 3 2 2 2 2" xfId="210" xr:uid="{35039E6F-CD57-489A-8B4C-878D80D51EC8}"/>
-    <cellStyle name="Comma 3 2 2 2 2 2" xfId="298" xr:uid="{0DA1E9BA-CB22-4C55-B041-18E0047085AF}"/>
-    <cellStyle name="Comma 3 2 2 2 3" xfId="254" xr:uid="{BD3ED13A-CA98-4F2D-B25C-A7A0F3FAD153}"/>
-    <cellStyle name="Comma 3 2 2 3" xfId="188" xr:uid="{9981F148-4A2B-4DAE-AC81-D35915B9216A}"/>
-    <cellStyle name="Comma 3 2 2 3 2" xfId="276" xr:uid="{F66195B8-4475-473B-AC0C-18055248DF16}"/>
-    <cellStyle name="Comma 3 2 2 4" xfId="232" xr:uid="{252DCB02-0E9A-4E9A-8DA9-AC15441F0FDC}"/>
-    <cellStyle name="Comma 3 2 3" xfId="155" xr:uid="{16873905-3670-48F1-97F7-B0BD047E3C16}"/>
-    <cellStyle name="Comma 3 2 3 2" xfId="199" xr:uid="{5A0B1262-89A2-4075-AD1E-B4757F932461}"/>
-    <cellStyle name="Comma 3 2 3 2 2" xfId="287" xr:uid="{F9B52D82-E9F8-4675-944C-68D57537344B}"/>
-    <cellStyle name="Comma 3 2 3 3" xfId="243" xr:uid="{EF70EACE-00E4-4DBE-984D-DEE3A88C6392}"/>
-    <cellStyle name="Comma 3 2 4" xfId="177" xr:uid="{741E2776-3DAD-4C27-A0D0-6120BFD76187}"/>
-    <cellStyle name="Comma 3 2 4 2" xfId="265" xr:uid="{0990838B-72F7-419E-BB6F-B38E683085CF}"/>
-    <cellStyle name="Comma 3 2 5" xfId="221" xr:uid="{C760067A-6BB5-438E-A3F0-5BB4F88C0599}"/>
-    <cellStyle name="Comma 4" xfId="18" xr:uid="{71F7378F-35CB-4026-9EC5-D6F13B11E9E5}"/>
-    <cellStyle name="Comma 5" xfId="19" xr:uid="{866A96B2-1A4A-4CA6-A3E9-CE4C08995FD5}"/>
-    <cellStyle name="Comma 6" xfId="20" xr:uid="{7B2C7BE8-F990-49B6-92AC-B1039D6B5ACB}"/>
-    <cellStyle name="Comma 7" xfId="21" xr:uid="{5D64D5E8-FDF0-4D1E-A91C-D14926E3D7BB}"/>
-    <cellStyle name="Comma 8" xfId="22" xr:uid="{E337EE1F-D195-41B4-994D-3C1D8CF4AF29}"/>
-    <cellStyle name="Comma 9" xfId="23" xr:uid="{E9AA4FEB-C87B-4D76-8069-532DE496E5CA}"/>
-    <cellStyle name="Currency 2" xfId="24" xr:uid="{57D6441D-03FC-429E-85E0-C0C1524334E8}"/>
-    <cellStyle name="Currency 3" xfId="25" xr:uid="{36D6FC92-CC6F-4190-953A-EA98C12D5D28}"/>
-    <cellStyle name="Currency 4" xfId="26" xr:uid="{8C12C9C2-87E3-436E-8A76-B844CF9F7C64}"/>
-    <cellStyle name="Currency 5" xfId="27" xr:uid="{0400B320-0EA9-4226-9D8D-748CF48CD0B9}"/>
-    <cellStyle name="Currency 6" xfId="28" xr:uid="{3CDA9777-D254-42FE-8EB0-3C0377ED948D}"/>
-    <cellStyle name="Currency 7" xfId="29" xr:uid="{74FE853B-F11B-4642-83D4-0DBEBB800F60}"/>
-    <cellStyle name="Currency 8" xfId="30" xr:uid="{36549087-7894-40B2-80FC-55943D2F605A}"/>
-    <cellStyle name="Currency 8 2" xfId="145" xr:uid="{D1803AE9-682A-4D4E-BF91-312C8AFA4E96}"/>
-    <cellStyle name="Currency 8 2 2" xfId="167" xr:uid="{CF50D9C3-88BC-475A-ABBA-C39D2C0A1EE3}"/>
-    <cellStyle name="Currency 8 2 2 2" xfId="211" xr:uid="{816538CD-1B96-423A-9C76-0C3346386E54}"/>
-    <cellStyle name="Currency 8 2 2 2 2" xfId="299" xr:uid="{4BCAB70A-3A0C-436B-AF21-1D0DFBC34AA0}"/>
-    <cellStyle name="Currency 8 2 2 3" xfId="255" xr:uid="{0ECB93BE-9EA0-4330-8123-639D664DF118}"/>
-    <cellStyle name="Currency 8 2 3" xfId="189" xr:uid="{465D6E84-881C-4F95-8E66-60AC65FFDFC9}"/>
-    <cellStyle name="Currency 8 2 3 2" xfId="277" xr:uid="{71E4C555-2C24-4039-9E19-6A13107C1170}"/>
-    <cellStyle name="Currency 8 2 4" xfId="233" xr:uid="{3349AE5A-0A80-48B2-8BB6-415D9A2599EB}"/>
-    <cellStyle name="Currency 8 3" xfId="156" xr:uid="{36BB55E0-2172-4FA9-AE4E-55514BC388A2}"/>
-    <cellStyle name="Currency 8 3 2" xfId="200" xr:uid="{C807BC10-59D7-4A58-BED3-FE8DA2B1CAF8}"/>
-    <cellStyle name="Currency 8 3 2 2" xfId="288" xr:uid="{E3220723-9296-4AA5-B0BD-5798B373307F}"/>
-    <cellStyle name="Currency 8 3 3" xfId="244" xr:uid="{E44C05E7-CC73-436A-AAC7-B00FF915053D}"/>
-    <cellStyle name="Currency 8 4" xfId="178" xr:uid="{97525CB3-D6D9-4A8A-8931-1C8AF4E782E9}"/>
-    <cellStyle name="Currency 8 4 2" xfId="266" xr:uid="{D315365D-3112-45C8-BC1A-69A046C6E72C}"/>
-    <cellStyle name="Currency 8 5" xfId="222" xr:uid="{414313C9-31FD-4B44-8122-8D260E717383}"/>
+    <cellStyle name="Comma 10" xfId="12"/>
+    <cellStyle name="Comma 10 2" xfId="142"/>
+    <cellStyle name="Comma 10 2 2" xfId="164"/>
+    <cellStyle name="Comma 10 2 2 2" xfId="208"/>
+    <cellStyle name="Comma 10 2 2 2 2" xfId="296"/>
+    <cellStyle name="Comma 10 2 2 3" xfId="252"/>
+    <cellStyle name="Comma 10 2 3" xfId="186"/>
+    <cellStyle name="Comma 10 2 3 2" xfId="274"/>
+    <cellStyle name="Comma 10 2 4" xfId="230"/>
+    <cellStyle name="Comma 10 3" xfId="153"/>
+    <cellStyle name="Comma 10 3 2" xfId="197"/>
+    <cellStyle name="Comma 10 3 2 2" xfId="285"/>
+    <cellStyle name="Comma 10 3 3" xfId="241"/>
+    <cellStyle name="Comma 10 4" xfId="175"/>
+    <cellStyle name="Comma 10 4 2" xfId="263"/>
+    <cellStyle name="Comma 10 5" xfId="219"/>
+    <cellStyle name="Comma 11" xfId="13"/>
+    <cellStyle name="Comma 2" xfId="14"/>
+    <cellStyle name="Comma 2 2" xfId="15"/>
+    <cellStyle name="Comma 2 2 2" xfId="143"/>
+    <cellStyle name="Comma 2 2 2 2" xfId="165"/>
+    <cellStyle name="Comma 2 2 2 2 2" xfId="209"/>
+    <cellStyle name="Comma 2 2 2 2 2 2" xfId="297"/>
+    <cellStyle name="Comma 2 2 2 2 3" xfId="253"/>
+    <cellStyle name="Comma 2 2 2 3" xfId="187"/>
+    <cellStyle name="Comma 2 2 2 3 2" xfId="275"/>
+    <cellStyle name="Comma 2 2 2 4" xfId="231"/>
+    <cellStyle name="Comma 2 2 3" xfId="154"/>
+    <cellStyle name="Comma 2 2 3 2" xfId="198"/>
+    <cellStyle name="Comma 2 2 3 2 2" xfId="286"/>
+    <cellStyle name="Comma 2 2 3 3" xfId="242"/>
+    <cellStyle name="Comma 2 2 4" xfId="176"/>
+    <cellStyle name="Comma 2 2 4 2" xfId="264"/>
+    <cellStyle name="Comma 2 2 5" xfId="220"/>
+    <cellStyle name="Comma 3" xfId="16"/>
+    <cellStyle name="Comma 3 2" xfId="17"/>
+    <cellStyle name="Comma 3 2 2" xfId="144"/>
+    <cellStyle name="Comma 3 2 2 2" xfId="166"/>
+    <cellStyle name="Comma 3 2 2 2 2" xfId="210"/>
+    <cellStyle name="Comma 3 2 2 2 2 2" xfId="298"/>
+    <cellStyle name="Comma 3 2 2 2 3" xfId="254"/>
+    <cellStyle name="Comma 3 2 2 3" xfId="188"/>
+    <cellStyle name="Comma 3 2 2 3 2" xfId="276"/>
+    <cellStyle name="Comma 3 2 2 4" xfId="232"/>
+    <cellStyle name="Comma 3 2 3" xfId="155"/>
+    <cellStyle name="Comma 3 2 3 2" xfId="199"/>
+    <cellStyle name="Comma 3 2 3 2 2" xfId="287"/>
+    <cellStyle name="Comma 3 2 3 3" xfId="243"/>
+    <cellStyle name="Comma 3 2 4" xfId="177"/>
+    <cellStyle name="Comma 3 2 4 2" xfId="265"/>
+    <cellStyle name="Comma 3 2 5" xfId="221"/>
+    <cellStyle name="Comma 4" xfId="18"/>
+    <cellStyle name="Comma 5" xfId="19"/>
+    <cellStyle name="Comma 6" xfId="20"/>
+    <cellStyle name="Comma 7" xfId="21"/>
+    <cellStyle name="Comma 8" xfId="22"/>
+    <cellStyle name="Comma 9" xfId="23"/>
+    <cellStyle name="Currency 2" xfId="24"/>
+    <cellStyle name="Currency 3" xfId="25"/>
+    <cellStyle name="Currency 4" xfId="26"/>
+    <cellStyle name="Currency 5" xfId="27"/>
+    <cellStyle name="Currency 6" xfId="28"/>
+    <cellStyle name="Currency 7" xfId="29"/>
+    <cellStyle name="Currency 8" xfId="30"/>
+    <cellStyle name="Currency 8 2" xfId="145"/>
+    <cellStyle name="Currency 8 2 2" xfId="167"/>
+    <cellStyle name="Currency 8 2 2 2" xfId="211"/>
+    <cellStyle name="Currency 8 2 2 2 2" xfId="299"/>
+    <cellStyle name="Currency 8 2 2 3" xfId="255"/>
+    <cellStyle name="Currency 8 2 3" xfId="189"/>
+    <cellStyle name="Currency 8 2 3 2" xfId="277"/>
+    <cellStyle name="Currency 8 2 4" xfId="233"/>
+    <cellStyle name="Currency 8 3" xfId="156"/>
+    <cellStyle name="Currency 8 3 2" xfId="200"/>
+    <cellStyle name="Currency 8 3 2 2" xfId="288"/>
+    <cellStyle name="Currency 8 3 3" xfId="244"/>
+    <cellStyle name="Currency 8 4" xfId="178"/>
+    <cellStyle name="Currency 8 4 2" xfId="266"/>
+    <cellStyle name="Currency 8 5" xfId="222"/>
     <cellStyle name="Explanatory Text" xfId="319" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="309" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading" xfId="31" xr:uid="{DA840818-6439-48BF-BAB0-4EB5AB430799}"/>
+    <cellStyle name="Heading" xfId="31"/>
     <cellStyle name="Heading 1" xfId="305" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="306" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 2 2" xfId="32" xr:uid="{EF1803F5-7C1F-4219-B989-02F3E341F23C}"/>
+    <cellStyle name="Heading 2 2" xfId="32"/>
     <cellStyle name="Heading 3" xfId="307" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="308" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Heading2" xfId="33" xr:uid="{CE15E611-FA02-4A57-A872-51574B3A68FB}"/>
+    <cellStyle name="Heading2" xfId="33"/>
     <cellStyle name="Hyperlink" xfId="303" builtinId="8"/>
-    <cellStyle name="Hyperlink 10" xfId="34" xr:uid="{534EB74C-AB36-4006-9E76-B648D34CFE32}"/>
-    <cellStyle name="Hyperlink 10 2" xfId="35" xr:uid="{3BFAF3CB-F547-4611-8290-BD2B8C8A40E3}"/>
-    <cellStyle name="Hyperlink 10 3" xfId="36" xr:uid="{26567FF9-1755-4591-A9CF-6B4C5BD7D4D3}"/>
-    <cellStyle name="Hyperlink 11" xfId="37" xr:uid="{0154C547-C7E7-467A-9651-61DCF4BAE1E3}"/>
-    <cellStyle name="Hyperlink 11 2" xfId="38" xr:uid="{D6CF91FC-0130-4F1E-A754-34AA535943B9}"/>
-    <cellStyle name="Hyperlink 11 3" xfId="39" xr:uid="{9945FE0E-00AA-4A1E-8067-957D94FD8E37}"/>
-    <cellStyle name="Hyperlink 12" xfId="40" xr:uid="{02DF4833-62B7-4D92-B2ED-EE9E77673398}"/>
-    <cellStyle name="Hyperlink 12 2" xfId="41" xr:uid="{693D7D6E-D11D-45D0-A2FF-BD00E1E794C7}"/>
-    <cellStyle name="Hyperlink 12 3" xfId="42" xr:uid="{BC453B19-6DA6-4D97-8485-E67D9D332073}"/>
-    <cellStyle name="Hyperlink 13" xfId="43" xr:uid="{1F66498B-B1C7-4CE8-B565-BA438000C5A6}"/>
-    <cellStyle name="Hyperlink 13 2" xfId="44" xr:uid="{24EB3377-6925-4037-A63F-238BE0CC0D2E}"/>
-    <cellStyle name="Hyperlink 13 3" xfId="45" xr:uid="{8C25F02D-1A4A-4636-B293-1573B4E50622}"/>
-    <cellStyle name="Hyperlink 14" xfId="46" xr:uid="{E5353BDE-F3A8-4E5D-A89A-0DB06BB64CA8}"/>
-    <cellStyle name="Hyperlink 14 2" xfId="47" xr:uid="{35CA301D-77DA-4644-BCEF-41CD195DE7EE}"/>
-    <cellStyle name="Hyperlink 14 3" xfId="48" xr:uid="{F79F672A-73E2-442E-B18C-02BD9F519277}"/>
-    <cellStyle name="Hyperlink 15" xfId="49" xr:uid="{7178B4BF-8FA4-499E-A082-4E79A1595DF7}"/>
-    <cellStyle name="Hyperlink 15 2" xfId="50" xr:uid="{69CBC165-6438-4D22-940B-452A7286058E}"/>
-    <cellStyle name="Hyperlink 15 3" xfId="51" xr:uid="{A312BE90-F9D2-45BB-B4CD-2D66C5F4E9FC}"/>
-    <cellStyle name="Hyperlink 16" xfId="52" xr:uid="{BDF42B7A-0818-4C66-82F6-783EFDB9ADDE}"/>
-    <cellStyle name="Hyperlink 16 2" xfId="53" xr:uid="{4DCE7685-8332-416C-8A1F-B5D7A3EF2B15}"/>
-    <cellStyle name="Hyperlink 16 3" xfId="54" xr:uid="{708BE543-0353-45ED-BD6F-F4F2068CA068}"/>
-    <cellStyle name="Hyperlink 17" xfId="55" xr:uid="{01A0BFE3-C4AC-4B13-944E-7AE401936C99}"/>
-    <cellStyle name="Hyperlink 17 2" xfId="56" xr:uid="{13A98FFE-596C-4C25-A0E0-F28EEE5EC5A9}"/>
-    <cellStyle name="Hyperlink 17 3" xfId="57" xr:uid="{EC155AC5-FEDB-459A-B3E4-4ACD2D0C96CD}"/>
-    <cellStyle name="Hyperlink 18" xfId="58" xr:uid="{8B494772-CA79-4385-B6F6-2F142F48514E}"/>
-    <cellStyle name="Hyperlink 18 2" xfId="59" xr:uid="{7BB01DA9-CF2A-4D11-B037-1AF1B25E6274}"/>
-    <cellStyle name="Hyperlink 18 3" xfId="60" xr:uid="{74392C1B-19A4-4213-B8FC-832FFC91BABB}"/>
-    <cellStyle name="Hyperlink 19" xfId="61" xr:uid="{A6C1D792-6409-4E53-BAAC-9F5BE5866BAF}"/>
-    <cellStyle name="Hyperlink 19 2" xfId="62" xr:uid="{CA33414B-9358-4612-8E97-050D0EC878DC}"/>
-    <cellStyle name="Hyperlink 19 3" xfId="63" xr:uid="{7D9B428E-43D3-41C0-9DD1-47C48F3175FE}"/>
-    <cellStyle name="Hyperlink 2" xfId="64" xr:uid="{ABA7BD1A-7006-4E66-8839-2859DB0D2984}"/>
-    <cellStyle name="Hyperlink 2 2" xfId="65" xr:uid="{743CBA16-407D-4B55-8EFF-78BE35F9BA07}"/>
-    <cellStyle name="Hyperlink 2 3" xfId="66" xr:uid="{E3CD5A2A-7DB3-4725-A62E-36E6DACB8091}"/>
-    <cellStyle name="Hyperlink 20" xfId="67" xr:uid="{A108F16D-10EE-48B5-9732-3659EE1A0B27}"/>
-    <cellStyle name="Hyperlink 20 2" xfId="68" xr:uid="{EF0A217A-3881-4424-9E8C-8CD01A733E01}"/>
-    <cellStyle name="Hyperlink 20 3" xfId="69" xr:uid="{51D5A9E0-5CA1-4936-A195-176FCC8F224C}"/>
-    <cellStyle name="Hyperlink 21" xfId="70" xr:uid="{FB215185-4FD1-494F-BD80-327C4E6AB90C}"/>
-    <cellStyle name="Hyperlink 21 2" xfId="71" xr:uid="{8D77E91A-ED36-4AE3-8058-E22ABC198F9F}"/>
-    <cellStyle name="Hyperlink 21 3" xfId="72" xr:uid="{22B45FFA-4FA8-448F-9004-F56D293108B8}"/>
-    <cellStyle name="Hyperlink 22" xfId="73" xr:uid="{10C74CA9-5C8A-4947-8E38-AC5538E79F08}"/>
-    <cellStyle name="Hyperlink 22 2" xfId="74" xr:uid="{8C643111-3418-4DD7-81DD-A59BEF6325A8}"/>
-    <cellStyle name="Hyperlink 22 3" xfId="75" xr:uid="{00789CBF-FFA5-4C42-8328-4A230B4D7CB9}"/>
-    <cellStyle name="Hyperlink 23" xfId="76" xr:uid="{805316A9-4E99-4EBE-8124-CDD537F95B0C}"/>
-    <cellStyle name="Hyperlink 23 2" xfId="77" xr:uid="{EB15349F-2731-450A-BB71-F35ED88B7237}"/>
-    <cellStyle name="Hyperlink 23 3" xfId="78" xr:uid="{BBC0EC20-A135-4BE1-B29C-1319CF9B789B}"/>
-    <cellStyle name="Hyperlink 24" xfId="79" xr:uid="{415A28DD-C050-423E-A32E-80C9BBCDF051}"/>
-    <cellStyle name="Hyperlink 25" xfId="80" xr:uid="{517E7A51-2C12-4D7F-B06C-399167D09F26}"/>
-    <cellStyle name="Hyperlink 26" xfId="81" xr:uid="{D1D4066E-A49D-40F4-AC5B-3BD943C3E4F0}"/>
-    <cellStyle name="Hyperlink 27" xfId="82" xr:uid="{D5D97F6C-6917-41C8-B63E-72AC7C07BB3D}"/>
-    <cellStyle name="Hyperlink 28" xfId="83" xr:uid="{926DF5CC-FC53-47FC-92D2-4AFDBC121CB9}"/>
-    <cellStyle name="Hyperlink 29" xfId="84" xr:uid="{93748341-2D8C-4243-B478-6A5E69EC202A}"/>
-    <cellStyle name="Hyperlink 3" xfId="85" xr:uid="{1696811E-50EB-4DBA-8BEC-08061932DCAB}"/>
-    <cellStyle name="Hyperlink 3 2" xfId="86" xr:uid="{882BA5B4-AD1E-4D18-A819-A781232D7BB6}"/>
-    <cellStyle name="Hyperlink 3 3" xfId="87" xr:uid="{1C71D831-36AD-46A3-AC01-9FF6B0CB895B}"/>
-    <cellStyle name="Hyperlink 30" xfId="88" xr:uid="{AB4E7620-684C-4EA0-BE38-3A26FF05A64C}"/>
-    <cellStyle name="Hyperlink 31" xfId="89" xr:uid="{A969A702-E347-49F6-86AA-EE557353AB95}"/>
-    <cellStyle name="Hyperlink 32" xfId="90" xr:uid="{A714E9FF-A9D7-4BF9-88BD-1DC1D80D7F9E}"/>
-    <cellStyle name="Hyperlink 33" xfId="91" xr:uid="{2B56E216-3D99-4147-A232-763FF5146068}"/>
-    <cellStyle name="Hyperlink 33 2" xfId="92" xr:uid="{2DBA9973-FC29-498A-93BF-70366A53C7F2}"/>
-    <cellStyle name="Hyperlink 33 3" xfId="93" xr:uid="{6E12FFFC-AE06-46BB-AAF8-0CD485C2F83E}"/>
-    <cellStyle name="Hyperlink 34" xfId="94" xr:uid="{43893003-9BBE-476B-840D-28832D0B85D4}"/>
-    <cellStyle name="Hyperlink 34 2" xfId="95" xr:uid="{03348CBF-4173-4326-8685-CFADD6FF00B1}"/>
-    <cellStyle name="Hyperlink 34 3" xfId="96" xr:uid="{9C34857D-98F3-45C6-B4B2-F1D06E1B8322}"/>
-    <cellStyle name="Hyperlink 34 4" xfId="97" xr:uid="{2809CC2A-5D0A-4729-A32A-0CF333E17EC2}"/>
-    <cellStyle name="Hyperlink 34 5" xfId="98" xr:uid="{F2873EA5-EB1A-4647-BC77-E4C465805180}"/>
-    <cellStyle name="Hyperlink 4" xfId="99" xr:uid="{1A5855D8-8831-41E9-A3B2-B346611CC69C}"/>
-    <cellStyle name="Hyperlink 4 2" xfId="100" xr:uid="{2A5D2FFA-4A70-45BC-B232-3F512006DEC4}"/>
-    <cellStyle name="Hyperlink 4 3" xfId="101" xr:uid="{1975ADBD-604F-436F-B6FF-759ABC702C46}"/>
-    <cellStyle name="Hyperlink 5" xfId="102" xr:uid="{E1B75239-379A-4E8A-96CA-5D60AD5BC081}"/>
-    <cellStyle name="Hyperlink 5 2" xfId="103" xr:uid="{B58E2DCF-7CDA-451F-8167-81C81706DCE3}"/>
-    <cellStyle name="Hyperlink 5 3" xfId="104" xr:uid="{10088AC1-F252-4E8D-8B00-36EF041138DD}"/>
-    <cellStyle name="Hyperlink 6" xfId="105" xr:uid="{4DE4266F-1B26-41D8-A807-5F09A3773DAC}"/>
-    <cellStyle name="Hyperlink 6 2" xfId="106" xr:uid="{45BEA26D-BBA4-42B8-BA8F-01A08DE58E81}"/>
-    <cellStyle name="Hyperlink 6 3" xfId="107" xr:uid="{93FF24A4-2BD9-4855-B1A3-C43411EC0515}"/>
-    <cellStyle name="Hyperlink 7" xfId="108" xr:uid="{30BA397C-969A-47CA-8687-8697FD8FB8E5}"/>
-    <cellStyle name="Hyperlink 7 2" xfId="109" xr:uid="{BCED92F9-4215-4055-8B40-0B85B89C2DC4}"/>
-    <cellStyle name="Hyperlink 7 3" xfId="110" xr:uid="{4C1C0046-90F5-4FF3-AFD8-2592C60A680E}"/>
-    <cellStyle name="Hyperlink 8" xfId="111" xr:uid="{CAC0C28D-C507-49AA-864E-1D78ECDE99F0}"/>
-    <cellStyle name="Hyperlink 8 2" xfId="112" xr:uid="{CD6A7D79-6A1E-4EFD-B15A-D0867634B859}"/>
-    <cellStyle name="Hyperlink 8 3" xfId="113" xr:uid="{D579A92E-49F3-4AAE-A7DF-218F9CEF1AED}"/>
-    <cellStyle name="Hyperlink 9" xfId="114" xr:uid="{B30A184D-BF65-439E-B55C-56D3F4DA54AD}"/>
-    <cellStyle name="Hyperlink 9 2" xfId="115" xr:uid="{C65D4255-A520-4AFD-9BE0-CDC84098C796}"/>
-    <cellStyle name="Hyperlink 9 3" xfId="116" xr:uid="{91615603-1C1B-45B1-9A24-28589CA56AA9}"/>
+    <cellStyle name="Hyperlink 10" xfId="34"/>
+    <cellStyle name="Hyperlink 10 2" xfId="35"/>
+    <cellStyle name="Hyperlink 10 3" xfId="36"/>
+    <cellStyle name="Hyperlink 11" xfId="37"/>
+    <cellStyle name="Hyperlink 11 2" xfId="38"/>
+    <cellStyle name="Hyperlink 11 3" xfId="39"/>
+    <cellStyle name="Hyperlink 12" xfId="40"/>
+    <cellStyle name="Hyperlink 12 2" xfId="41"/>
+    <cellStyle name="Hyperlink 12 3" xfId="42"/>
+    <cellStyle name="Hyperlink 13" xfId="43"/>
+    <cellStyle name="Hyperlink 13 2" xfId="44"/>
+    <cellStyle name="Hyperlink 13 3" xfId="45"/>
+    <cellStyle name="Hyperlink 14" xfId="46"/>
+    <cellStyle name="Hyperlink 14 2" xfId="47"/>
+    <cellStyle name="Hyperlink 14 3" xfId="48"/>
+    <cellStyle name="Hyperlink 15" xfId="49"/>
+    <cellStyle name="Hyperlink 15 2" xfId="50"/>
+    <cellStyle name="Hyperlink 15 3" xfId="51"/>
+    <cellStyle name="Hyperlink 16" xfId="52"/>
+    <cellStyle name="Hyperlink 16 2" xfId="53"/>
+    <cellStyle name="Hyperlink 16 3" xfId="54"/>
+    <cellStyle name="Hyperlink 17" xfId="55"/>
+    <cellStyle name="Hyperlink 17 2" xfId="56"/>
+    <cellStyle name="Hyperlink 17 3" xfId="57"/>
+    <cellStyle name="Hyperlink 18" xfId="58"/>
+    <cellStyle name="Hyperlink 18 2" xfId="59"/>
+    <cellStyle name="Hyperlink 18 3" xfId="60"/>
+    <cellStyle name="Hyperlink 19" xfId="61"/>
+    <cellStyle name="Hyperlink 19 2" xfId="62"/>
+    <cellStyle name="Hyperlink 19 3" xfId="63"/>
+    <cellStyle name="Hyperlink 2" xfId="64"/>
+    <cellStyle name="Hyperlink 2 2" xfId="65"/>
+    <cellStyle name="Hyperlink 2 3" xfId="66"/>
+    <cellStyle name="Hyperlink 20" xfId="67"/>
+    <cellStyle name="Hyperlink 20 2" xfId="68"/>
+    <cellStyle name="Hyperlink 20 3" xfId="69"/>
+    <cellStyle name="Hyperlink 21" xfId="70"/>
+    <cellStyle name="Hyperlink 21 2" xfId="71"/>
+    <cellStyle name="Hyperlink 21 3" xfId="72"/>
+    <cellStyle name="Hyperlink 22" xfId="73"/>
+    <cellStyle name="Hyperlink 22 2" xfId="74"/>
+    <cellStyle name="Hyperlink 22 3" xfId="75"/>
+    <cellStyle name="Hyperlink 23" xfId="76"/>
+    <cellStyle name="Hyperlink 23 2" xfId="77"/>
+    <cellStyle name="Hyperlink 23 3" xfId="78"/>
+    <cellStyle name="Hyperlink 24" xfId="79"/>
+    <cellStyle name="Hyperlink 25" xfId="80"/>
+    <cellStyle name="Hyperlink 26" xfId="81"/>
+    <cellStyle name="Hyperlink 27" xfId="82"/>
+    <cellStyle name="Hyperlink 28" xfId="83"/>
+    <cellStyle name="Hyperlink 29" xfId="84"/>
+    <cellStyle name="Hyperlink 3" xfId="85"/>
+    <cellStyle name="Hyperlink 3 2" xfId="86"/>
+    <cellStyle name="Hyperlink 3 3" xfId="87"/>
+    <cellStyle name="Hyperlink 30" xfId="88"/>
+    <cellStyle name="Hyperlink 31" xfId="89"/>
+    <cellStyle name="Hyperlink 32" xfId="90"/>
+    <cellStyle name="Hyperlink 33" xfId="91"/>
+    <cellStyle name="Hyperlink 33 2" xfId="92"/>
+    <cellStyle name="Hyperlink 33 3" xfId="93"/>
+    <cellStyle name="Hyperlink 34" xfId="94"/>
+    <cellStyle name="Hyperlink 34 2" xfId="95"/>
+    <cellStyle name="Hyperlink 34 3" xfId="96"/>
+    <cellStyle name="Hyperlink 34 4" xfId="97"/>
+    <cellStyle name="Hyperlink 34 5" xfId="98"/>
+    <cellStyle name="Hyperlink 4" xfId="99"/>
+    <cellStyle name="Hyperlink 4 2" xfId="100"/>
+    <cellStyle name="Hyperlink 4 3" xfId="101"/>
+    <cellStyle name="Hyperlink 5" xfId="102"/>
+    <cellStyle name="Hyperlink 5 2" xfId="103"/>
+    <cellStyle name="Hyperlink 5 3" xfId="104"/>
+    <cellStyle name="Hyperlink 6" xfId="105"/>
+    <cellStyle name="Hyperlink 6 2" xfId="106"/>
+    <cellStyle name="Hyperlink 6 3" xfId="107"/>
+    <cellStyle name="Hyperlink 7" xfId="108"/>
+    <cellStyle name="Hyperlink 7 2" xfId="109"/>
+    <cellStyle name="Hyperlink 7 3" xfId="110"/>
+    <cellStyle name="Hyperlink 8" xfId="111"/>
+    <cellStyle name="Hyperlink 8 2" xfId="112"/>
+    <cellStyle name="Hyperlink 8 3" xfId="113"/>
+    <cellStyle name="Hyperlink 9" xfId="114"/>
+    <cellStyle name="Hyperlink 9 2" xfId="115"/>
+    <cellStyle name="Hyperlink 9 3" xfId="116"/>
     <cellStyle name="Input" xfId="312" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Input 2" xfId="117" xr:uid="{D16C3B67-AD00-44A6-AB57-CD01F1AD255E}"/>
-    <cellStyle name="Linked" xfId="118" xr:uid="{C4E444C5-EB05-490A-9D51-D30F1081F098}"/>
+    <cellStyle name="Input 2" xfId="117"/>
+    <cellStyle name="Linked" xfId="118"/>
     <cellStyle name="Linked Cell" xfId="315" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="311" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{25A9D676-AFC5-4CA1-BE1F-69FA150E7DBF}"/>
-    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{DC8778DF-3FA7-4B2A-8DBD-BF204DB51B87}"/>
-    <cellStyle name="Normal 2 2 2" xfId="119" xr:uid="{031854F2-17B4-4B81-9898-6B9D09A670CA}"/>
-    <cellStyle name="Normal 2 2 2 2" xfId="146" xr:uid="{FD5B363F-0ADD-4478-81ED-1471FB2C13A5}"/>
-    <cellStyle name="Normal 2 2 2 2 2" xfId="168" xr:uid="{BE7A59FC-414E-42A0-AFE3-28B2EF64742D}"/>
-    <cellStyle name="Normal 2 2 2 2 2 2" xfId="212" xr:uid="{EEB0B36C-BA93-4C05-BBBF-F93209D7E947}"/>
-    <cellStyle name="Normal 2 2 2 2 2 2 2" xfId="300" xr:uid="{3C68C24D-3E23-4974-AA98-6B8B3148FBF6}"/>
-    <cellStyle name="Normal 2 2 2 2 2 3" xfId="256" xr:uid="{8021C50B-E677-4DEA-B63F-585CB7B50446}"/>
-    <cellStyle name="Normal 2 2 2 2 3" xfId="190" xr:uid="{91990F6D-57A4-4669-8B4C-2F65ACBCCB53}"/>
-    <cellStyle name="Normal 2 2 2 2 3 2" xfId="278" xr:uid="{11F8B25F-BB7D-4443-B72E-09CAAA7F4A39}"/>
-    <cellStyle name="Normal 2 2 2 2 4" xfId="234" xr:uid="{C9673850-286D-4A12-848B-EBCE9A9888CF}"/>
-    <cellStyle name="Normal 2 2 2 3" xfId="157" xr:uid="{8F9BA5D7-8837-44E8-B1CC-1C36903BA186}"/>
-    <cellStyle name="Normal 2 2 2 3 2" xfId="201" xr:uid="{AD2712EB-E735-48B6-9B65-D57ACB829B29}"/>
-    <cellStyle name="Normal 2 2 2 3 2 2" xfId="289" xr:uid="{29D94191-8BA4-4BE9-8A2A-FFFD34DD3BE5}"/>
-    <cellStyle name="Normal 2 2 2 3 3" xfId="245" xr:uid="{CC50C0C4-A743-4013-A912-517A26316304}"/>
-    <cellStyle name="Normal 2 2 2 4" xfId="179" xr:uid="{180CC1F8-AE51-4014-892C-AC43498BFD04}"/>
-    <cellStyle name="Normal 2 2 2 4 2" xfId="267" xr:uid="{41CC02CD-C204-4C16-B03F-2F694B8350A7}"/>
-    <cellStyle name="Normal 2 2 2 5" xfId="223" xr:uid="{FD584089-0125-4896-B915-E50C1F9D0125}"/>
-    <cellStyle name="Normal 3" xfId="120" xr:uid="{E45A4590-74DA-428C-910C-DB7AD0312F39}"/>
-    <cellStyle name="Normal 4" xfId="121" xr:uid="{E8468384-9FFC-40C6-B195-402DCEE40D22}"/>
-    <cellStyle name="Normal 5" xfId="122" xr:uid="{F10468B5-834F-47C4-AFF1-A420FEA5E06C}"/>
-    <cellStyle name="Normal 6" xfId="123" xr:uid="{BC45A7CA-C498-4FF6-A785-55A53D8E2DD4}"/>
-    <cellStyle name="Normal 6 2" xfId="147" xr:uid="{151B9201-8C2C-4AFF-A1E0-86D381555CEE}"/>
-    <cellStyle name="Normal 6 2 2" xfId="169" xr:uid="{BA6781B2-C696-4C78-9E03-5F026EA85BC5}"/>
-    <cellStyle name="Normal 6 2 2 2" xfId="213" xr:uid="{E97EE913-CCAC-4009-9D37-FDDED2980C84}"/>
-    <cellStyle name="Normal 6 2 2 2 2" xfId="301" xr:uid="{619EEEA5-FAA2-4E79-A469-CA15E795B4D7}"/>
-    <cellStyle name="Normal 6 2 2 3" xfId="257" xr:uid="{E11C8971-A634-4006-A90D-340761E8B742}"/>
-    <cellStyle name="Normal 6 2 3" xfId="191" xr:uid="{35EAD2FE-ED21-46FC-BF66-9AE210B7AFF8}"/>
-    <cellStyle name="Normal 6 2 3 2" xfId="279" xr:uid="{D70D320B-04A0-4C3B-BF75-BEF4234F08A3}"/>
-    <cellStyle name="Normal 6 2 4" xfId="235" xr:uid="{9755FCDE-61F3-4D95-9861-A0545992BEA6}"/>
-    <cellStyle name="Normal 6 3" xfId="158" xr:uid="{231A38AC-696E-42FD-A468-22A52DBBD51C}"/>
-    <cellStyle name="Normal 6 3 2" xfId="202" xr:uid="{51866595-45B6-4CED-B881-65A352178BFE}"/>
-    <cellStyle name="Normal 6 3 2 2" xfId="290" xr:uid="{93014366-07D5-40D3-ADC8-B922B369BC0B}"/>
-    <cellStyle name="Normal 6 3 3" xfId="246" xr:uid="{92E19E78-1B26-45FF-AD39-A6389D0E84C7}"/>
-    <cellStyle name="Normal 6 4" xfId="180" xr:uid="{78997DF2-7E2A-478D-982B-B774C6F92E0E}"/>
-    <cellStyle name="Normal 6 4 2" xfId="268" xr:uid="{BF38F310-7132-4B3A-8BF1-936CBD3A831E}"/>
-    <cellStyle name="Normal 6 5" xfId="224" xr:uid="{DCDC967B-FFC3-44E9-AC4A-7C7CD168A23B}"/>
-    <cellStyle name="Normal 7" xfId="124" xr:uid="{6AC2BB19-C983-4B9B-B6AF-485A46CABFBE}"/>
-    <cellStyle name="Normal 8" xfId="125" xr:uid="{0820742E-9F76-4C8D-8AAC-9041927A8A6E}"/>
-    <cellStyle name="Normal Small" xfId="126" xr:uid="{2A5A7C3B-4756-4C69-B497-03210822F2C2}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="1"/>
+    <cellStyle name="Normal 2 2 2" xfId="119"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="146"/>
+    <cellStyle name="Normal 2 2 2 2 2" xfId="168"/>
+    <cellStyle name="Normal 2 2 2 2 2 2" xfId="212"/>
+    <cellStyle name="Normal 2 2 2 2 2 2 2" xfId="300"/>
+    <cellStyle name="Normal 2 2 2 2 2 3" xfId="256"/>
+    <cellStyle name="Normal 2 2 2 2 3" xfId="190"/>
+    <cellStyle name="Normal 2 2 2 2 3 2" xfId="278"/>
+    <cellStyle name="Normal 2 2 2 2 4" xfId="234"/>
+    <cellStyle name="Normal 2 2 2 3" xfId="157"/>
+    <cellStyle name="Normal 2 2 2 3 2" xfId="201"/>
+    <cellStyle name="Normal 2 2 2 3 2 2" xfId="289"/>
+    <cellStyle name="Normal 2 2 2 3 3" xfId="245"/>
+    <cellStyle name="Normal 2 2 2 4" xfId="179"/>
+    <cellStyle name="Normal 2 2 2 4 2" xfId="267"/>
+    <cellStyle name="Normal 2 2 2 5" xfId="223"/>
+    <cellStyle name="Normal 3" xfId="120"/>
+    <cellStyle name="Normal 4" xfId="121"/>
+    <cellStyle name="Normal 5" xfId="122"/>
+    <cellStyle name="Normal 6" xfId="123"/>
+    <cellStyle name="Normal 6 2" xfId="147"/>
+    <cellStyle name="Normal 6 2 2" xfId="169"/>
+    <cellStyle name="Normal 6 2 2 2" xfId="213"/>
+    <cellStyle name="Normal 6 2 2 2 2" xfId="301"/>
+    <cellStyle name="Normal 6 2 2 3" xfId="257"/>
+    <cellStyle name="Normal 6 2 3" xfId="191"/>
+    <cellStyle name="Normal 6 2 3 2" xfId="279"/>
+    <cellStyle name="Normal 6 2 4" xfId="235"/>
+    <cellStyle name="Normal 6 3" xfId="158"/>
+    <cellStyle name="Normal 6 3 2" xfId="202"/>
+    <cellStyle name="Normal 6 3 2 2" xfId="290"/>
+    <cellStyle name="Normal 6 3 3" xfId="246"/>
+    <cellStyle name="Normal 6 4" xfId="180"/>
+    <cellStyle name="Normal 6 4 2" xfId="268"/>
+    <cellStyle name="Normal 6 5" xfId="224"/>
+    <cellStyle name="Normal 7" xfId="124"/>
+    <cellStyle name="Normal 8" xfId="125"/>
+    <cellStyle name="Normal Small" xfId="126"/>
     <cellStyle name="Note" xfId="318" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="313" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Percent 2" xfId="127" xr:uid="{0E128954-3338-4612-BB20-680BDD53818E}"/>
-    <cellStyle name="Percent 2 2" xfId="128" xr:uid="{11D04887-FFC3-4179-A96D-CBB6880D6C6A}"/>
-    <cellStyle name="Percent 2 3" xfId="129" xr:uid="{7EB324CA-CF6B-4C15-9BF0-D5434C119CC8}"/>
-    <cellStyle name="Percent 2 4" xfId="148" xr:uid="{81CF09BA-34CA-4C93-AA24-4D5CC4D7779F}"/>
-    <cellStyle name="Percent 2 4 2" xfId="170" xr:uid="{7AD35933-5BF0-4E12-BC48-B7A472DEA458}"/>
-    <cellStyle name="Percent 2 4 2 2" xfId="214" xr:uid="{F842B56A-F4DA-4445-B63C-1E098ED2EBE1}"/>
-    <cellStyle name="Percent 2 4 2 2 2" xfId="302" xr:uid="{19D4FA1D-E127-481C-A0DD-5E5FDFA8355B}"/>
-    <cellStyle name="Percent 2 4 2 3" xfId="258" xr:uid="{5B6F22EF-0BEE-4EDD-91D1-5D66C55B1BA8}"/>
-    <cellStyle name="Percent 2 4 3" xfId="192" xr:uid="{B88AEEDB-F332-4D23-B28F-A34129FAFDCA}"/>
-    <cellStyle name="Percent 2 4 3 2" xfId="280" xr:uid="{0A524F41-A08D-4BF2-B387-D2B228C498F7}"/>
-    <cellStyle name="Percent 2 4 4" xfId="236" xr:uid="{7BA8B376-4D39-4C7B-BF28-CBA6C6CEB367}"/>
-    <cellStyle name="Percent 2 5" xfId="159" xr:uid="{66EF2077-CAE5-4EF9-9733-38A21419D1F0}"/>
-    <cellStyle name="Percent 2 5 2" xfId="203" xr:uid="{8EA13D11-F0D7-48C6-BCE4-5159F01E7D34}"/>
-    <cellStyle name="Percent 2 5 2 2" xfId="291" xr:uid="{71738553-5183-4DED-98BE-D0E9D0678CC9}"/>
-    <cellStyle name="Percent 2 5 3" xfId="247" xr:uid="{B5DCA65B-05B0-4A21-9375-E389330D15FF}"/>
-    <cellStyle name="Percent 2 6" xfId="181" xr:uid="{6421E944-A866-4F30-8157-6B9255C49CEE}"/>
-    <cellStyle name="Percent 2 6 2" xfId="269" xr:uid="{0619BC2D-40FC-4344-8625-5CB48634E532}"/>
-    <cellStyle name="Percent 2 7" xfId="225" xr:uid="{A0B6002A-650C-48EA-AB01-A322A14C8EFE}"/>
-    <cellStyle name="Percent 3" xfId="130" xr:uid="{84BE760A-F1A3-47A9-9BB3-76780E979C77}"/>
-    <cellStyle name="Percent 3 2" xfId="131" xr:uid="{0607C663-4203-4843-9F6D-7FC8DE49B0EC}"/>
-    <cellStyle name="Results" xfId="132" xr:uid="{ABDFBD94-78B6-48F0-8964-2703C7EB131A}"/>
+    <cellStyle name="Percent 2" xfId="127"/>
+    <cellStyle name="Percent 2 2" xfId="128"/>
+    <cellStyle name="Percent 2 3" xfId="129"/>
+    <cellStyle name="Percent 2 4" xfId="148"/>
+    <cellStyle name="Percent 2 4 2" xfId="170"/>
+    <cellStyle name="Percent 2 4 2 2" xfId="214"/>
+    <cellStyle name="Percent 2 4 2 2 2" xfId="302"/>
+    <cellStyle name="Percent 2 4 2 3" xfId="258"/>
+    <cellStyle name="Percent 2 4 3" xfId="192"/>
+    <cellStyle name="Percent 2 4 3 2" xfId="280"/>
+    <cellStyle name="Percent 2 4 4" xfId="236"/>
+    <cellStyle name="Percent 2 5" xfId="159"/>
+    <cellStyle name="Percent 2 5 2" xfId="203"/>
+    <cellStyle name="Percent 2 5 2 2" xfId="291"/>
+    <cellStyle name="Percent 2 5 3" xfId="247"/>
+    <cellStyle name="Percent 2 6" xfId="181"/>
+    <cellStyle name="Percent 2 6 2" xfId="269"/>
+    <cellStyle name="Percent 2 7" xfId="225"/>
+    <cellStyle name="Percent 3" xfId="130"/>
+    <cellStyle name="Percent 3 2" xfId="131"/>
+    <cellStyle name="Results" xfId="132"/>
     <cellStyle name="Title" xfId="304" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Title 2" xfId="133" xr:uid="{8EA61DEE-3145-4FC5-97FC-543ABC67C06B}"/>
-    <cellStyle name="Title 3" xfId="134" xr:uid="{BBC41EB0-FF27-4C3B-8ACE-F58E6E975ABD}"/>
+    <cellStyle name="Title 2" xfId="133"/>
+    <cellStyle name="Title 3" xfId="134"/>
     <cellStyle name="Total" xfId="320" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Unit" xfId="135" xr:uid="{ABDDC911-A69F-4ACF-835E-38E525349B93}"/>
-    <cellStyle name="UserInput" xfId="136" xr:uid="{D18BE7BA-9008-4A59-9952-4E1E88966FC5}"/>
-    <cellStyle name="Variable" xfId="137" xr:uid="{4DC11190-39EE-45CF-BD8A-93D0E2FCD76F}"/>
+    <cellStyle name="Unit" xfId="135"/>
+    <cellStyle name="UserInput" xfId="136"/>
+    <cellStyle name="Variable" xfId="137"/>
     <cellStyle name="Warning Text" xfId="317" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="2">
@@ -2771,7 +2776,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{854FCA25-EF45-4594-814F-1F482673AC99}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -3049,7 +3054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -3903,9 +3908,9 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" display="https://www.eia.gov/analysis/studies/powerplants/generationcost/pdf/full_report.pdf" xr:uid="{0CBB03E6-355B-4E5D-A735-3634BBEAA9F8}"/>
-    <hyperlink ref="E6" r:id="rId2" display="https://www.eia.gov/analysis/studies/powerplants/generationcost/pdf/full_report.pdf" xr:uid="{49A0F63A-1256-459D-8D4F-CEF903EC41F9}"/>
-    <hyperlink ref="E7" r:id="rId3" display="https://www.eia.gov/analysis/studies/powerplants/generationcost/pdf/full_report.pdf" xr:uid="{A9199ACB-38D0-4D9A-826F-73E1D4EF77F0}"/>
+    <hyperlink ref="E5" r:id="rId1" display="https://www.eia.gov/analysis/studies/powerplants/generationcost/pdf/full_report.pdf"/>
+    <hyperlink ref="E6" r:id="rId2" display="https://www.eia.gov/analysis/studies/powerplants/generationcost/pdf/full_report.pdf"/>
+    <hyperlink ref="E7" r:id="rId3" display="https://www.eia.gov/analysis/studies/powerplants/generationcost/pdf/full_report.pdf"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -3913,7 +3918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284D4C0E-E0A0-4AC1-824B-7DA312E94285}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3939,7 +3944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904DECE4-C220-4D32-A501-0A9FE9B4057C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -4369,7 +4374,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B108">
+  <sortState ref="A3:B108">
     <sortCondition descending="1" ref="B108"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4377,7 +4382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE0BB4B-A87E-47DE-8321-0EFAC4350DE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5402,11 +5407,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F425B7AA-21D1-411D-A9AF-54EA873F398D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5550,7 +5555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32AD897-F683-4767-9F8A-BBAC538730FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -6083,7 +6088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C008AD2-9FC6-4B50-8E5B-D9A0AF2799B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -7052,7 +7057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4CA1F8-8978-49C4-A8F4-278D710EA4E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L124"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -11780,7 +11785,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:L124">
+  <sortState ref="B2:L124">
     <sortCondition ref="F2:F124"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11789,7 +11794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1309D8-2EE3-4E2D-AA43-74AFF29659AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R125"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -17763,7 +17768,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M125">
+  <sortState ref="A2:M125">
     <sortCondition ref="A2:A125"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17772,12 +17777,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96CB1107-551A-4401-A108-C4996FB8D590}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B57" sqref="B57:E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -25612,104 +25617,135 @@
         <v>275</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E74" s="12">
-        <v>8012</v>
+        <f>8012*0.2</f>
+        <v>1602.4</v>
       </c>
       <c r="F74" s="12">
-        <v>8012</v>
+        <f t="shared" ref="F74:AI74" si="0">8012*0.2</f>
+        <v>1602.4</v>
       </c>
       <c r="G74" s="12">
-        <v>8012</v>
+        <f t="shared" si="0"/>
+        <v>1602.4</v>
       </c>
       <c r="H74" s="12">
-        <v>8012</v>
+        <f t="shared" si="0"/>
+        <v>1602.4</v>
       </c>
       <c r="I74" s="12">
-        <v>8012</v>
+        <f t="shared" si="0"/>
+        <v>1602.4</v>
       </c>
       <c r="J74" s="12">
-        <v>8012</v>
+        <f t="shared" si="0"/>
+        <v>1602.4</v>
       </c>
       <c r="K74" s="12">
-        <v>8012</v>
+        <f t="shared" si="0"/>
+        <v>1602.4</v>
       </c>
       <c r="L74" s="12">
-        <v>8012</v>
+        <f t="shared" si="0"/>
+        <v>1602.4</v>
       </c>
       <c r="M74" s="12">
-        <v>8012</v>
+        <f t="shared" si="0"/>
+        <v>1602.4</v>
       </c>
       <c r="N74" s="12">
-        <v>8012</v>
+        <f t="shared" si="0"/>
+        <v>1602.4</v>
       </c>
       <c r="O74" s="12">
-        <v>8012</v>
+        <f t="shared" si="0"/>
+        <v>1602.4</v>
       </c>
       <c r="P74" s="12">
-        <v>8012</v>
+        <f t="shared" si="0"/>
+        <v>1602.4</v>
       </c>
       <c r="Q74" s="12">
-        <v>8012</v>
+        <f t="shared" si="0"/>
+        <v>1602.4</v>
       </c>
       <c r="R74" s="12">
-        <v>8012</v>
+        <f t="shared" si="0"/>
+        <v>1602.4</v>
       </c>
       <c r="S74" s="12">
-        <v>8012</v>
+        <f t="shared" si="0"/>
+        <v>1602.4</v>
       </c>
       <c r="T74" s="12">
-        <v>8012</v>
+        <f t="shared" si="0"/>
+        <v>1602.4</v>
       </c>
       <c r="U74" s="12">
-        <v>8012</v>
+        <f t="shared" si="0"/>
+        <v>1602.4</v>
       </c>
       <c r="V74" s="12">
-        <v>8012</v>
+        <f t="shared" si="0"/>
+        <v>1602.4</v>
       </c>
       <c r="W74" s="12">
-        <v>8012</v>
+        <f t="shared" si="0"/>
+        <v>1602.4</v>
       </c>
       <c r="X74" s="12">
-        <v>8012</v>
+        <f t="shared" si="0"/>
+        <v>1602.4</v>
       </c>
       <c r="Y74" s="12">
-        <v>8012</v>
+        <f t="shared" si="0"/>
+        <v>1602.4</v>
       </c>
       <c r="Z74" s="12">
-        <v>8012</v>
+        <f t="shared" si="0"/>
+        <v>1602.4</v>
       </c>
       <c r="AA74" s="12">
-        <v>8012</v>
+        <f t="shared" si="0"/>
+        <v>1602.4</v>
       </c>
       <c r="AB74" s="12">
-        <v>8012</v>
+        <f t="shared" si="0"/>
+        <v>1602.4</v>
       </c>
       <c r="AC74" s="12">
-        <v>8012</v>
+        <f t="shared" si="0"/>
+        <v>1602.4</v>
       </c>
       <c r="AD74" s="12">
-        <v>8012</v>
+        <f t="shared" si="0"/>
+        <v>1602.4</v>
       </c>
       <c r="AE74" s="12">
-        <v>8012</v>
+        <f t="shared" si="0"/>
+        <v>1602.4</v>
       </c>
       <c r="AF74" s="12">
-        <v>8012</v>
+        <f t="shared" si="0"/>
+        <v>1602.4</v>
       </c>
       <c r="AG74" s="12">
-        <v>8012</v>
+        <f t="shared" si="0"/>
+        <v>1602.4</v>
       </c>
       <c r="AH74" s="12">
-        <v>8012</v>
+        <f t="shared" si="0"/>
+        <v>1602.4</v>
       </c>
       <c r="AI74" s="12">
-        <v>8012</v>
+        <f t="shared" si="0"/>
+        <v>1602.4</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AI73">
+  <sortState ref="A2:AI73">
     <sortCondition ref="B2:B73"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -25719,12 +25755,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD5D24F-D6D8-45F0-9B18-7F7BBE5186DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E95" sqref="E95:AI95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -35806,104 +35842,135 @@
         <v>276</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E95" s="14">
-        <v>183</v>
+        <f>183*0.2</f>
+        <v>36.6</v>
       </c>
       <c r="F95" s="14">
-        <v>183</v>
+        <f t="shared" ref="F95:AI95" si="0">183*0.2</f>
+        <v>36.6</v>
       </c>
       <c r="G95" s="14">
-        <v>183</v>
+        <f t="shared" si="0"/>
+        <v>36.6</v>
       </c>
       <c r="H95" s="14">
-        <v>183</v>
+        <f t="shared" si="0"/>
+        <v>36.6</v>
       </c>
       <c r="I95" s="14">
-        <v>183</v>
+        <f t="shared" si="0"/>
+        <v>36.6</v>
       </c>
       <c r="J95" s="14">
-        <v>183</v>
+        <f t="shared" si="0"/>
+        <v>36.6</v>
       </c>
       <c r="K95" s="14">
-        <v>183</v>
+        <f t="shared" si="0"/>
+        <v>36.6</v>
       </c>
       <c r="L95" s="14">
-        <v>183</v>
+        <f t="shared" si="0"/>
+        <v>36.6</v>
       </c>
       <c r="M95" s="14">
-        <v>183</v>
+        <f t="shared" si="0"/>
+        <v>36.6</v>
       </c>
       <c r="N95" s="14">
-        <v>183</v>
+        <f t="shared" si="0"/>
+        <v>36.6</v>
       </c>
       <c r="O95" s="14">
-        <v>183</v>
+        <f t="shared" si="0"/>
+        <v>36.6</v>
       </c>
       <c r="P95" s="14">
-        <v>183</v>
+        <f t="shared" si="0"/>
+        <v>36.6</v>
       </c>
       <c r="Q95" s="14">
-        <v>183</v>
+        <f t="shared" si="0"/>
+        <v>36.6</v>
       </c>
       <c r="R95" s="14">
-        <v>183</v>
+        <f t="shared" si="0"/>
+        <v>36.6</v>
       </c>
       <c r="S95" s="14">
-        <v>183</v>
+        <f t="shared" si="0"/>
+        <v>36.6</v>
       </c>
       <c r="T95" s="14">
-        <v>183</v>
+        <f t="shared" si="0"/>
+        <v>36.6</v>
       </c>
       <c r="U95" s="14">
-        <v>183</v>
+        <f t="shared" si="0"/>
+        <v>36.6</v>
       </c>
       <c r="V95" s="14">
-        <v>183</v>
+        <f t="shared" si="0"/>
+        <v>36.6</v>
       </c>
       <c r="W95" s="14">
-        <v>183</v>
+        <f t="shared" si="0"/>
+        <v>36.6</v>
       </c>
       <c r="X95" s="14">
-        <v>183</v>
+        <f t="shared" si="0"/>
+        <v>36.6</v>
       </c>
       <c r="Y95" s="14">
-        <v>183</v>
+        <f t="shared" si="0"/>
+        <v>36.6</v>
       </c>
       <c r="Z95" s="14">
-        <v>183</v>
+        <f t="shared" si="0"/>
+        <v>36.6</v>
       </c>
       <c r="AA95" s="14">
-        <v>183</v>
+        <f t="shared" si="0"/>
+        <v>36.6</v>
       </c>
       <c r="AB95" s="14">
-        <v>183</v>
+        <f t="shared" si="0"/>
+        <v>36.6</v>
       </c>
       <c r="AC95" s="14">
-        <v>183</v>
+        <f t="shared" si="0"/>
+        <v>36.6</v>
       </c>
       <c r="AD95" s="14">
-        <v>183</v>
+        <f t="shared" si="0"/>
+        <v>36.6</v>
       </c>
       <c r="AE95" s="14">
-        <v>183</v>
+        <f t="shared" si="0"/>
+        <v>36.6</v>
       </c>
       <c r="AF95" s="14">
-        <v>183</v>
+        <f t="shared" si="0"/>
+        <v>36.6</v>
       </c>
       <c r="AG95" s="14">
-        <v>183</v>
+        <f t="shared" si="0"/>
+        <v>36.6</v>
       </c>
       <c r="AH95" s="14">
-        <v>183</v>
+        <f t="shared" si="0"/>
+        <v>36.6</v>
       </c>
       <c r="AI95" s="14">
-        <v>183</v>
+        <f t="shared" si="0"/>
+        <v>36.6</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AI94">
+  <sortState ref="A2:AI94">
     <sortCondition ref="B2:B94"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -35913,7 +35980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F64963-0CDD-4BE6-B0AC-E6FD0D7CCBEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -46190,7 +46257,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AI94">
+  <sortState ref="A2:AI94">
     <sortCondition ref="B2:B94"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -46200,7 +46267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465044A0-2557-4FC4-8230-2D5F5E941F36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/CreateDB_NC/InputData/ExcelUserData/UserDataPart1.xlsx
+++ b/CreateDB_NC/InputData/ExcelUserData/UserDataPart1.xlsx
@@ -17780,9 +17780,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B57" sqref="B57:E57"/>
+      <selection pane="bottomLeft" activeCell="E74" sqref="E74:AI74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -25620,128 +25620,128 @@
         <v>409</v>
       </c>
       <c r="E74" s="12">
-        <f>8012*0.2</f>
-        <v>1602.4</v>
+        <f>8012*0.15</f>
+        <v>1201.8</v>
       </c>
       <c r="F74" s="12">
-        <f t="shared" ref="F74:AI74" si="0">8012*0.2</f>
-        <v>1602.4</v>
+        <f t="shared" ref="F74:AI74" si="0">8012*0.15</f>
+        <v>1201.8</v>
       </c>
       <c r="G74" s="12">
         <f t="shared" si="0"/>
-        <v>1602.4</v>
+        <v>1201.8</v>
       </c>
       <c r="H74" s="12">
         <f t="shared" si="0"/>
-        <v>1602.4</v>
+        <v>1201.8</v>
       </c>
       <c r="I74" s="12">
         <f t="shared" si="0"/>
-        <v>1602.4</v>
+        <v>1201.8</v>
       </c>
       <c r="J74" s="12">
         <f t="shared" si="0"/>
-        <v>1602.4</v>
+        <v>1201.8</v>
       </c>
       <c r="K74" s="12">
         <f t="shared" si="0"/>
-        <v>1602.4</v>
+        <v>1201.8</v>
       </c>
       <c r="L74" s="12">
         <f t="shared" si="0"/>
-        <v>1602.4</v>
+        <v>1201.8</v>
       </c>
       <c r="M74" s="12">
         <f t="shared" si="0"/>
-        <v>1602.4</v>
+        <v>1201.8</v>
       </c>
       <c r="N74" s="12">
         <f t="shared" si="0"/>
-        <v>1602.4</v>
+        <v>1201.8</v>
       </c>
       <c r="O74" s="12">
         <f t="shared" si="0"/>
-        <v>1602.4</v>
+        <v>1201.8</v>
       </c>
       <c r="P74" s="12">
         <f t="shared" si="0"/>
-        <v>1602.4</v>
+        <v>1201.8</v>
       </c>
       <c r="Q74" s="12">
         <f t="shared" si="0"/>
-        <v>1602.4</v>
+        <v>1201.8</v>
       </c>
       <c r="R74" s="12">
         <f t="shared" si="0"/>
-        <v>1602.4</v>
+        <v>1201.8</v>
       </c>
       <c r="S74" s="12">
         <f t="shared" si="0"/>
-        <v>1602.4</v>
+        <v>1201.8</v>
       </c>
       <c r="T74" s="12">
         <f t="shared" si="0"/>
-        <v>1602.4</v>
+        <v>1201.8</v>
       </c>
       <c r="U74" s="12">
         <f t="shared" si="0"/>
-        <v>1602.4</v>
+        <v>1201.8</v>
       </c>
       <c r="V74" s="12">
         <f t="shared" si="0"/>
-        <v>1602.4</v>
+        <v>1201.8</v>
       </c>
       <c r="W74" s="12">
         <f t="shared" si="0"/>
-        <v>1602.4</v>
+        <v>1201.8</v>
       </c>
       <c r="X74" s="12">
         <f t="shared" si="0"/>
-        <v>1602.4</v>
+        <v>1201.8</v>
       </c>
       <c r="Y74" s="12">
         <f t="shared" si="0"/>
-        <v>1602.4</v>
+        <v>1201.8</v>
       </c>
       <c r="Z74" s="12">
         <f t="shared" si="0"/>
-        <v>1602.4</v>
+        <v>1201.8</v>
       </c>
       <c r="AA74" s="12">
         <f t="shared" si="0"/>
-        <v>1602.4</v>
+        <v>1201.8</v>
       </c>
       <c r="AB74" s="12">
         <f t="shared" si="0"/>
-        <v>1602.4</v>
+        <v>1201.8</v>
       </c>
       <c r="AC74" s="12">
         <f t="shared" si="0"/>
-        <v>1602.4</v>
+        <v>1201.8</v>
       </c>
       <c r="AD74" s="12">
         <f t="shared" si="0"/>
-        <v>1602.4</v>
+        <v>1201.8</v>
       </c>
       <c r="AE74" s="12">
         <f t="shared" si="0"/>
-        <v>1602.4</v>
+        <v>1201.8</v>
       </c>
       <c r="AF74" s="12">
         <f t="shared" si="0"/>
-        <v>1602.4</v>
+        <v>1201.8</v>
       </c>
       <c r="AG74" s="12">
         <f t="shared" si="0"/>
-        <v>1602.4</v>
+        <v>1201.8</v>
       </c>
       <c r="AH74" s="12">
         <f t="shared" si="0"/>
-        <v>1602.4</v>
+        <v>1201.8</v>
       </c>
       <c r="AI74" s="12">
         <f t="shared" si="0"/>
-        <v>1602.4</v>
+        <v>1201.8</v>
       </c>
     </row>
   </sheetData>
@@ -35845,128 +35845,128 @@
         <v>410</v>
       </c>
       <c r="E95" s="14">
-        <f>183*0.2</f>
-        <v>36.6</v>
+        <f>183*0.15</f>
+        <v>27.45</v>
       </c>
       <c r="F95" s="14">
-        <f t="shared" ref="F95:AI95" si="0">183*0.2</f>
-        <v>36.6</v>
+        <f t="shared" ref="F95:AI95" si="0">183*0.15</f>
+        <v>27.45</v>
       </c>
       <c r="G95" s="14">
         <f t="shared" si="0"/>
-        <v>36.6</v>
+        <v>27.45</v>
       </c>
       <c r="H95" s="14">
         <f t="shared" si="0"/>
-        <v>36.6</v>
+        <v>27.45</v>
       </c>
       <c r="I95" s="14">
         <f t="shared" si="0"/>
-        <v>36.6</v>
+        <v>27.45</v>
       </c>
       <c r="J95" s="14">
         <f t="shared" si="0"/>
-        <v>36.6</v>
+        <v>27.45</v>
       </c>
       <c r="K95" s="14">
         <f t="shared" si="0"/>
-        <v>36.6</v>
+        <v>27.45</v>
       </c>
       <c r="L95" s="14">
         <f t="shared" si="0"/>
-        <v>36.6</v>
+        <v>27.45</v>
       </c>
       <c r="M95" s="14">
         <f t="shared" si="0"/>
-        <v>36.6</v>
+        <v>27.45</v>
       </c>
       <c r="N95" s="14">
         <f t="shared" si="0"/>
-        <v>36.6</v>
+        <v>27.45</v>
       </c>
       <c r="O95" s="14">
         <f t="shared" si="0"/>
-        <v>36.6</v>
+        <v>27.45</v>
       </c>
       <c r="P95" s="14">
         <f t="shared" si="0"/>
-        <v>36.6</v>
+        <v>27.45</v>
       </c>
       <c r="Q95" s="14">
         <f t="shared" si="0"/>
-        <v>36.6</v>
+        <v>27.45</v>
       </c>
       <c r="R95" s="14">
         <f t="shared" si="0"/>
-        <v>36.6</v>
+        <v>27.45</v>
       </c>
       <c r="S95" s="14">
         <f t="shared" si="0"/>
-        <v>36.6</v>
+        <v>27.45</v>
       </c>
       <c r="T95" s="14">
         <f t="shared" si="0"/>
-        <v>36.6</v>
+        <v>27.45</v>
       </c>
       <c r="U95" s="14">
         <f t="shared" si="0"/>
-        <v>36.6</v>
+        <v>27.45</v>
       </c>
       <c r="V95" s="14">
         <f t="shared" si="0"/>
-        <v>36.6</v>
+        <v>27.45</v>
       </c>
       <c r="W95" s="14">
         <f t="shared" si="0"/>
-        <v>36.6</v>
+        <v>27.45</v>
       </c>
       <c r="X95" s="14">
         <f t="shared" si="0"/>
-        <v>36.6</v>
+        <v>27.45</v>
       </c>
       <c r="Y95" s="14">
         <f t="shared" si="0"/>
-        <v>36.6</v>
+        <v>27.45</v>
       </c>
       <c r="Z95" s="14">
         <f t="shared" si="0"/>
-        <v>36.6</v>
+        <v>27.45</v>
       </c>
       <c r="AA95" s="14">
         <f t="shared" si="0"/>
-        <v>36.6</v>
+        <v>27.45</v>
       </c>
       <c r="AB95" s="14">
         <f t="shared" si="0"/>
-        <v>36.6</v>
+        <v>27.45</v>
       </c>
       <c r="AC95" s="14">
         <f t="shared" si="0"/>
-        <v>36.6</v>
+        <v>27.45</v>
       </c>
       <c r="AD95" s="14">
         <f t="shared" si="0"/>
-        <v>36.6</v>
+        <v>27.45</v>
       </c>
       <c r="AE95" s="14">
         <f t="shared" si="0"/>
-        <v>36.6</v>
+        <v>27.45</v>
       </c>
       <c r="AF95" s="14">
         <f t="shared" si="0"/>
-        <v>36.6</v>
+        <v>27.45</v>
       </c>
       <c r="AG95" s="14">
         <f t="shared" si="0"/>
-        <v>36.6</v>
+        <v>27.45</v>
       </c>
       <c r="AH95" s="14">
         <f t="shared" si="0"/>
-        <v>36.6</v>
+        <v>27.45</v>
       </c>
       <c r="AI95" s="14">
         <f t="shared" si="0"/>
-        <v>36.6</v>
+        <v>27.45</v>
       </c>
     </row>
   </sheetData>

--- a/CreateDB_NC/InputData/ExcelUserData/UserDataPart1.xlsx
+++ b/CreateDB_NC/InputData/ExcelUserData/UserDataPart1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateDB_NC\InputData\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7ADAA97-310E-43F6-B440-F7C538606254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F71260-9EA8-4419-8BED-BB7D780B1CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="935" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6051,7 +6051,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6390,7 +6390,7 @@
         <v>305</v>
       </c>
       <c r="B20">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C20">
         <v>20</v>
@@ -6407,7 +6407,7 @@
         <v>306</v>
       </c>
       <c r="B21">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C21">
         <v>20</v>

--- a/CreateDB_NC/InputData/ExcelUserData/UserDataPart1.xlsx
+++ b/CreateDB_NC/InputData/ExcelUserData/UserDataPart1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateDB_NC\InputData\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA47AA2F-41F1-4A62-9E01-D4B42AB99A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B39703-EFEB-4E3C-B55B-293D77A08622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="935" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1682,7 +1682,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1877,12 +1877,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2444,8 +2438,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="6" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2471,6 +2463,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="345">
     <cellStyle name="20% - Accent1" xfId="322" builtinId="30" customBuiltin="1"/>
@@ -3138,20 +3132,20 @@
     <col min="5" max="5" width="112.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="29" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28" t="s">
+    <row r="1" spans="1:5" s="27" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="26" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4454,18 +4448,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
@@ -35767,8 +35761,8 @@
   <dimension ref="A1:AJ94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.95" customHeight="1"/>
@@ -35782,113 +35776,113 @@
     <col min="37" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="31" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:36" s="29" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A1" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="30" t="s">
         <v>424</v>
       </c>
-      <c r="F1" s="30">
+      <c r="F1" s="28">
         <v>2020</v>
       </c>
-      <c r="G1" s="30">
+      <c r="G1" s="28">
         <v>2021</v>
       </c>
-      <c r="H1" s="30">
+      <c r="H1" s="28">
         <v>2022</v>
       </c>
-      <c r="I1" s="30">
+      <c r="I1" s="28">
         <v>2023</v>
       </c>
-      <c r="J1" s="30">
+      <c r="J1" s="28">
         <v>2024</v>
       </c>
-      <c r="K1" s="30">
+      <c r="K1" s="28">
         <v>2025</v>
       </c>
-      <c r="L1" s="30">
+      <c r="L1" s="28">
         <v>2026</v>
       </c>
-      <c r="M1" s="30">
+      <c r="M1" s="28">
         <v>2027</v>
       </c>
-      <c r="N1" s="30">
+      <c r="N1" s="28">
         <v>2028</v>
       </c>
-      <c r="O1" s="30">
+      <c r="O1" s="28">
         <v>2029</v>
       </c>
-      <c r="P1" s="30">
+      <c r="P1" s="28">
         <v>2030</v>
       </c>
-      <c r="Q1" s="30">
+      <c r="Q1" s="28">
         <v>2031</v>
       </c>
-      <c r="R1" s="30">
+      <c r="R1" s="28">
         <v>2032</v>
       </c>
-      <c r="S1" s="30">
+      <c r="S1" s="28">
         <v>2033</v>
       </c>
-      <c r="T1" s="30">
+      <c r="T1" s="28">
         <v>2034</v>
       </c>
-      <c r="U1" s="30">
+      <c r="U1" s="28">
         <v>2035</v>
       </c>
-      <c r="V1" s="30">
+      <c r="V1" s="28">
         <v>2036</v>
       </c>
-      <c r="W1" s="30">
+      <c r="W1" s="28">
         <v>2037</v>
       </c>
-      <c r="X1" s="30">
+      <c r="X1" s="28">
         <v>2038</v>
       </c>
-      <c r="Y1" s="30">
+      <c r="Y1" s="28">
         <v>2039</v>
       </c>
-      <c r="Z1" s="30">
+      <c r="Z1" s="28">
         <v>2040</v>
       </c>
-      <c r="AA1" s="30">
+      <c r="AA1" s="28">
         <v>2041</v>
       </c>
-      <c r="AB1" s="30">
+      <c r="AB1" s="28">
         <v>2042</v>
       </c>
-      <c r="AC1" s="30">
+      <c r="AC1" s="28">
         <v>2043</v>
       </c>
-      <c r="AD1" s="30">
+      <c r="AD1" s="28">
         <v>2044</v>
       </c>
-      <c r="AE1" s="30">
+      <c r="AE1" s="28">
         <v>2045</v>
       </c>
-      <c r="AF1" s="30">
+      <c r="AF1" s="28">
         <v>2046</v>
       </c>
-      <c r="AG1" s="30">
+      <c r="AG1" s="28">
         <v>2047</v>
       </c>
-      <c r="AH1" s="30">
+      <c r="AH1" s="28">
         <v>2048</v>
       </c>
-      <c r="AI1" s="30">
+      <c r="AI1" s="28">
         <v>2049</v>
       </c>
-      <c r="AJ1" s="30">
+      <c r="AJ1" s="28">
         <v>2050</v>
       </c>
     </row>
@@ -38218,127 +38212,127 @@
       <c r="E23" s="12">
         <v>1</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="22">
         <f>11*1.17*(10^-3)/1.10231</f>
         <v>1.1675481488873367E-2</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="22">
         <f t="shared" ref="G23:AJ23" si="0">11*1.17*(10^-3)/1.10231</f>
         <v>1.1675481488873367E-2</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H23" s="22">
         <f t="shared" si="0"/>
         <v>1.1675481488873367E-2</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I23" s="22">
         <f t="shared" si="0"/>
         <v>1.1675481488873367E-2</v>
       </c>
-      <c r="J23" s="24">
+      <c r="J23" s="22">
         <f t="shared" si="0"/>
         <v>1.1675481488873367E-2</v>
       </c>
-      <c r="K23" s="24">
+      <c r="K23" s="22">
         <f t="shared" si="0"/>
         <v>1.1675481488873367E-2</v>
       </c>
-      <c r="L23" s="24">
+      <c r="L23" s="22">
         <f t="shared" si="0"/>
         <v>1.1675481488873367E-2</v>
       </c>
-      <c r="M23" s="24">
+      <c r="M23" s="22">
         <f t="shared" si="0"/>
         <v>1.1675481488873367E-2</v>
       </c>
-      <c r="N23" s="24">
+      <c r="N23" s="22">
         <f t="shared" si="0"/>
         <v>1.1675481488873367E-2</v>
       </c>
-      <c r="O23" s="24">
+      <c r="O23" s="22">
         <f t="shared" si="0"/>
         <v>1.1675481488873367E-2</v>
       </c>
-      <c r="P23" s="24">
+      <c r="P23" s="22">
         <f t="shared" si="0"/>
         <v>1.1675481488873367E-2</v>
       </c>
-      <c r="Q23" s="24">
+      <c r="Q23" s="22">
         <f t="shared" si="0"/>
         <v>1.1675481488873367E-2</v>
       </c>
-      <c r="R23" s="24">
+      <c r="R23" s="22">
         <f t="shared" si="0"/>
         <v>1.1675481488873367E-2</v>
       </c>
-      <c r="S23" s="24">
+      <c r="S23" s="22">
         <f t="shared" si="0"/>
         <v>1.1675481488873367E-2</v>
       </c>
-      <c r="T23" s="24">
+      <c r="T23" s="22">
         <f t="shared" si="0"/>
         <v>1.1675481488873367E-2</v>
       </c>
-      <c r="U23" s="24">
+      <c r="U23" s="22">
         <f t="shared" si="0"/>
         <v>1.1675481488873367E-2</v>
       </c>
-      <c r="V23" s="24">
+      <c r="V23" s="22">
         <f t="shared" si="0"/>
         <v>1.1675481488873367E-2</v>
       </c>
-      <c r="W23" s="24">
+      <c r="W23" s="22">
         <f t="shared" si="0"/>
         <v>1.1675481488873367E-2</v>
       </c>
-      <c r="X23" s="24">
+      <c r="X23" s="22">
         <f t="shared" si="0"/>
         <v>1.1675481488873367E-2</v>
       </c>
-      <c r="Y23" s="24">
+      <c r="Y23" s="22">
         <f t="shared" si="0"/>
         <v>1.1675481488873367E-2</v>
       </c>
-      <c r="Z23" s="24">
+      <c r="Z23" s="22">
         <f t="shared" si="0"/>
         <v>1.1675481488873367E-2</v>
       </c>
-      <c r="AA23" s="24">
+      <c r="AA23" s="22">
         <f t="shared" si="0"/>
         <v>1.1675481488873367E-2</v>
       </c>
-      <c r="AB23" s="24">
+      <c r="AB23" s="22">
         <f t="shared" si="0"/>
         <v>1.1675481488873367E-2</v>
       </c>
-      <c r="AC23" s="24">
+      <c r="AC23" s="22">
         <f t="shared" si="0"/>
         <v>1.1675481488873367E-2</v>
       </c>
-      <c r="AD23" s="24">
+      <c r="AD23" s="22">
         <f t="shared" si="0"/>
         <v>1.1675481488873367E-2</v>
       </c>
-      <c r="AE23" s="24">
+      <c r="AE23" s="22">
         <f t="shared" si="0"/>
         <v>1.1675481488873367E-2</v>
       </c>
-      <c r="AF23" s="24">
+      <c r="AF23" s="22">
         <f t="shared" si="0"/>
         <v>1.1675481488873367E-2</v>
       </c>
-      <c r="AG23" s="24">
+      <c r="AG23" s="22">
         <f t="shared" si="0"/>
         <v>1.1675481488873367E-2</v>
       </c>
-      <c r="AH23" s="24">
+      <c r="AH23" s="22">
         <f t="shared" si="0"/>
         <v>1.1675481488873367E-2</v>
       </c>
-      <c r="AI23" s="24">
+      <c r="AI23" s="22">
         <f t="shared" si="0"/>
         <v>1.1675481488873367E-2</v>
       </c>
-      <c r="AJ23" s="24">
+      <c r="AJ23" s="22">
         <f t="shared" si="0"/>
         <v>1.1675481488873367E-2</v>
       </c>
@@ -38453,553 +38447,553 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:36" s="22" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A25" s="22" t="s">
+    <row r="25" spans="1:36" s="31" customFormat="1" ht="12.95" customHeight="1">
+      <c r="A25" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="31" t="s">
         <v>396</v>
       </c>
-      <c r="E25" s="12">
-        <v>0</v>
-      </c>
-      <c r="F25" s="23">
+      <c r="E25" s="31">
+        <v>0</v>
+      </c>
+      <c r="F25" s="32">
         <v>4.7393364928909998</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="32">
         <v>4.7393364928909953</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="32">
         <v>4.7393364928909953</v>
       </c>
-      <c r="I25" s="23">
+      <c r="I25" s="32">
         <v>4.7393364928909953</v>
       </c>
-      <c r="J25" s="23">
+      <c r="J25" s="32">
         <v>4.7393364928909953</v>
       </c>
-      <c r="K25" s="23">
+      <c r="K25" s="32">
         <v>4.7393364928909953</v>
       </c>
-      <c r="L25" s="23">
+      <c r="L25" s="32">
         <v>4.7393364928909953</v>
       </c>
-      <c r="M25" s="23">
+      <c r="M25" s="32">
         <v>4.7393364928909998</v>
       </c>
-      <c r="N25" s="23">
+      <c r="N25" s="32">
         <v>4.7393364928909998</v>
       </c>
-      <c r="O25" s="23">
+      <c r="O25" s="32">
         <v>4.7393364928909998</v>
       </c>
-      <c r="P25" s="23">
+      <c r="P25" s="32">
         <v>4.7393364928909998</v>
       </c>
-      <c r="Q25" s="23">
+      <c r="Q25" s="32">
         <v>4.7393364928909998</v>
       </c>
-      <c r="R25" s="23">
+      <c r="R25" s="32">
         <v>4.7393364928909998</v>
       </c>
-      <c r="S25" s="23">
+      <c r="S25" s="32">
         <v>4.7393364928909998</v>
       </c>
-      <c r="T25" s="23">
+      <c r="T25" s="32">
         <v>4.7393364928909998</v>
       </c>
-      <c r="U25" s="23">
+      <c r="U25" s="32">
         <v>4.7393364928909998</v>
       </c>
-      <c r="V25" s="23">
+      <c r="V25" s="32">
         <v>4.7393364928909998</v>
       </c>
-      <c r="W25" s="23">
+      <c r="W25" s="32">
         <v>4.7393364928909998</v>
       </c>
-      <c r="X25" s="23">
+      <c r="X25" s="32">
         <v>4.7393364928909998</v>
       </c>
-      <c r="Y25" s="23">
+      <c r="Y25" s="32">
         <v>4.7393364928909998</v>
       </c>
-      <c r="Z25" s="23">
+      <c r="Z25" s="32">
         <v>4.7393364928909998</v>
       </c>
-      <c r="AA25" s="23">
+      <c r="AA25" s="32">
         <v>4.7393364928909998</v>
       </c>
-      <c r="AB25" s="23">
+      <c r="AB25" s="32">
         <v>4.7393364928909998</v>
       </c>
-      <c r="AC25" s="23">
+      <c r="AC25" s="32">
         <v>4.7393364928909998</v>
       </c>
-      <c r="AD25" s="23">
+      <c r="AD25" s="32">
         <v>4.7393364928909998</v>
       </c>
-      <c r="AE25" s="23">
+      <c r="AE25" s="32">
         <v>4.7393364928909998</v>
       </c>
-      <c r="AF25" s="23">
+      <c r="AF25" s="32">
         <v>4.7393364928909998</v>
       </c>
-      <c r="AG25" s="23">
+      <c r="AG25" s="32">
         <v>4.7393364928909998</v>
       </c>
-      <c r="AH25" s="23">
+      <c r="AH25" s="32">
         <v>4.7393364928909998</v>
       </c>
-      <c r="AI25" s="23">
+      <c r="AI25" s="32">
         <v>4.7393364928909998</v>
       </c>
-      <c r="AJ25" s="23">
+      <c r="AJ25" s="32">
         <v>4.7393364928909998</v>
       </c>
     </row>
-    <row r="26" spans="1:36" s="22" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A26" s="22" t="s">
+    <row r="26" spans="1:36" s="31" customFormat="1" ht="12.95" customHeight="1">
+      <c r="A26" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="31" t="s">
         <v>423</v>
       </c>
-      <c r="E26" s="12">
-        <v>0</v>
-      </c>
-      <c r="F26" s="23">
+      <c r="E26" s="31">
+        <v>0</v>
+      </c>
+      <c r="F26" s="32">
         <v>2.2330570000000001</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="32">
         <v>2.27760454</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="32">
         <v>2.2581530000000001</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="32">
         <v>2.133972</v>
       </c>
-      <c r="J26" s="23">
+      <c r="J26" s="32">
         <v>2.0795859999999999</v>
       </c>
-      <c r="K26" s="23">
+      <c r="K26" s="32">
         <v>2.0809470000000001</v>
       </c>
-      <c r="L26" s="23">
+      <c r="L26" s="32">
         <v>2.0144669999999998</v>
       </c>
-      <c r="M26" s="23">
+      <c r="M26" s="32">
         <v>1.9522360000000001</v>
       </c>
-      <c r="N26" s="23">
+      <c r="N26" s="32">
         <v>1.9262649999999999</v>
       </c>
-      <c r="O26" s="23">
+      <c r="O26" s="32">
         <v>1.9231309999999999</v>
       </c>
-      <c r="P26" s="23">
+      <c r="P26" s="32">
         <v>1.936259</v>
       </c>
-      <c r="Q26" s="23">
+      <c r="Q26" s="32">
         <v>1.9402269999999999</v>
       </c>
-      <c r="R26" s="23">
+      <c r="R26" s="32">
         <v>1.934895</v>
       </c>
-      <c r="S26" s="23">
+      <c r="S26" s="32">
         <v>1.9452860000000001</v>
       </c>
-      <c r="T26" s="23">
+      <c r="T26" s="32">
         <v>1.9567030000000001</v>
       </c>
-      <c r="U26" s="23">
+      <c r="U26" s="32">
         <v>1.953638</v>
       </c>
-      <c r="V26" s="23">
+      <c r="V26" s="32">
         <v>1.936653</v>
       </c>
-      <c r="W26" s="23">
+      <c r="W26" s="32">
         <v>1.9329320000000001</v>
       </c>
-      <c r="X26" s="23">
+      <c r="X26" s="32">
         <v>1.9289689999999999</v>
       </c>
-      <c r="Y26" s="23">
+      <c r="Y26" s="32">
         <v>1.921613</v>
       </c>
-      <c r="Z26" s="23">
+      <c r="Z26" s="32">
         <v>1.9124890000000001</v>
       </c>
-      <c r="AA26" s="23">
+      <c r="AA26" s="32">
         <v>1.911195</v>
       </c>
-      <c r="AB26" s="23">
+      <c r="AB26" s="32">
         <v>1.9134119999999999</v>
       </c>
-      <c r="AC26" s="23">
+      <c r="AC26" s="32">
         <v>1.916237</v>
       </c>
-      <c r="AD26" s="23">
+      <c r="AD26" s="32">
         <v>1.9077470000000001</v>
       </c>
-      <c r="AE26" s="23">
+      <c r="AE26" s="32">
         <v>1.9105810000000001</v>
       </c>
-      <c r="AF26" s="23">
+      <c r="AF26" s="32">
         <v>1.9152420000000001</v>
       </c>
-      <c r="AG26" s="23">
+      <c r="AG26" s="32">
         <v>1.9070290000000001</v>
       </c>
-      <c r="AH26" s="23">
+      <c r="AH26" s="32">
         <v>1.8997379999999999</v>
       </c>
-      <c r="AI26" s="23">
+      <c r="AI26" s="32">
         <v>1.9067799999999999</v>
       </c>
-      <c r="AJ26" s="23">
+      <c r="AJ26" s="32">
         <v>1.907716</v>
       </c>
     </row>
-    <row r="27" spans="1:36" s="22" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A27" s="22" t="s">
+    <row r="27" spans="1:36" s="31" customFormat="1" ht="12.95" customHeight="1">
+      <c r="A27" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="31" t="s">
         <v>423</v>
       </c>
-      <c r="E27" s="12">
-        <v>0</v>
-      </c>
-      <c r="F27" s="23">
+      <c r="E27" s="31">
+        <v>0</v>
+      </c>
+      <c r="F27" s="32">
         <v>2.7666780000000002</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="32">
         <v>4.1726700900000004</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="32">
         <v>6.9395239999999996</v>
       </c>
-      <c r="I27" s="23">
+      <c r="I27" s="32">
         <v>5.5320210000000003</v>
       </c>
-      <c r="J27" s="23">
+      <c r="J27" s="32">
         <v>4.4598870000000002</v>
       </c>
-      <c r="K27" s="23">
+      <c r="K27" s="32">
         <v>3.8864489999999998</v>
       </c>
-      <c r="L27" s="23">
+      <c r="L27" s="32">
         <v>3.38374</v>
       </c>
-      <c r="M27" s="23">
+      <c r="M27" s="32">
         <v>3.1031930000000001</v>
       </c>
-      <c r="N27" s="23">
+      <c r="N27" s="32">
         <v>2.9712740000000002</v>
       </c>
-      <c r="O27" s="23">
+      <c r="O27" s="32">
         <v>2.9828760000000001</v>
       </c>
-      <c r="P27" s="23">
+      <c r="P27" s="32">
         <v>3.03782</v>
       </c>
-      <c r="Q27" s="23">
+      <c r="Q27" s="32">
         <v>3.1129220000000002</v>
       </c>
-      <c r="R27" s="23">
+      <c r="R27" s="32">
         <v>3.1663640000000002</v>
       </c>
-      <c r="S27" s="23">
+      <c r="S27" s="32">
         <v>3.3183009999999999</v>
       </c>
-      <c r="T27" s="23">
+      <c r="T27" s="32">
         <v>3.4012639999999998</v>
       </c>
-      <c r="U27" s="23">
+      <c r="U27" s="32">
         <v>3.5202460000000002</v>
       </c>
-      <c r="V27" s="23">
+      <c r="V27" s="32">
         <v>3.5420029999999998</v>
       </c>
-      <c r="W27" s="23">
+      <c r="W27" s="32">
         <v>3.6013820000000001</v>
       </c>
-      <c r="X27" s="23">
+      <c r="X27" s="32">
         <v>3.7139899999999999</v>
       </c>
-      <c r="Y27" s="23">
+      <c r="Y27" s="32">
         <v>3.684002</v>
       </c>
-      <c r="Z27" s="23">
+      <c r="Z27" s="32">
         <v>3.798753</v>
       </c>
-      <c r="AA27" s="23">
+      <c r="AA27" s="32">
         <v>3.879156</v>
       </c>
-      <c r="AB27" s="23">
+      <c r="AB27" s="32">
         <v>3.8488899999999999</v>
       </c>
-      <c r="AC27" s="23">
+      <c r="AC27" s="32">
         <v>3.7999529999999999</v>
       </c>
-      <c r="AD27" s="23">
+      <c r="AD27" s="32">
         <v>3.6545299999999998</v>
       </c>
-      <c r="AE27" s="23">
+      <c r="AE27" s="32">
         <v>3.6604730000000001</v>
       </c>
-      <c r="AF27" s="23">
+      <c r="AF27" s="32">
         <v>3.644825</v>
       </c>
-      <c r="AG27" s="23">
+      <c r="AG27" s="32">
         <v>3.614649</v>
       </c>
-      <c r="AH27" s="23">
+      <c r="AH27" s="32">
         <v>3.611434</v>
       </c>
-      <c r="AI27" s="23">
+      <c r="AI27" s="32">
         <v>3.5480320000000001</v>
       </c>
-      <c r="AJ27" s="23">
+      <c r="AJ27" s="32">
         <v>3.5574430000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:36" s="22" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A28" s="22" t="s">
+    <row r="28" spans="1:36" s="31" customFormat="1" ht="12.95" customHeight="1">
+      <c r="A28" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="31" t="s">
         <v>423</v>
       </c>
-      <c r="E28" s="12">
-        <v>0</v>
-      </c>
-      <c r="F28" s="23">
+      <c r="E28" s="31">
+        <v>0</v>
+      </c>
+      <c r="F28" s="32">
         <v>0.65020299999999998</v>
       </c>
-      <c r="G28" s="23">
+      <c r="G28" s="32">
         <v>0.65115036000000004</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="32">
         <v>0.61987499999999995</v>
       </c>
-      <c r="I28" s="23">
+      <c r="I28" s="32">
         <v>0.61981200000000003</v>
       </c>
-      <c r="J28" s="23">
+      <c r="J28" s="32">
         <v>0.61975899999999995</v>
       </c>
-      <c r="K28" s="23">
+      <c r="K28" s="32">
         <v>0.61970400000000003</v>
       </c>
-      <c r="L28" s="23">
+      <c r="L28" s="32">
         <v>0.61964300000000005</v>
       </c>
-      <c r="M28" s="23">
+      <c r="M28" s="32">
         <v>0.61958899999999995</v>
       </c>
-      <c r="N28" s="23">
+      <c r="N28" s="32">
         <v>0.61953400000000003</v>
       </c>
-      <c r="O28" s="23">
+      <c r="O28" s="32">
         <v>0.61947300000000005</v>
       </c>
-      <c r="P28" s="23">
+      <c r="P28" s="32">
         <v>0.61941800000000002</v>
       </c>
-      <c r="Q28" s="23">
+      <c r="Q28" s="32">
         <v>0.61935600000000002</v>
       </c>
-      <c r="R28" s="23">
+      <c r="R28" s="32">
         <v>0.61930200000000002</v>
       </c>
-      <c r="S28" s="23">
+      <c r="S28" s="32">
         <v>0.61924800000000002</v>
       </c>
-      <c r="T28" s="23">
+      <c r="T28" s="32">
         <v>0.61918700000000004</v>
       </c>
-      <c r="U28" s="23">
+      <c r="U28" s="32">
         <v>0.61913200000000002</v>
       </c>
-      <c r="V28" s="23">
+      <c r="V28" s="32">
         <v>0.61907000000000001</v>
       </c>
-      <c r="W28" s="23">
+      <c r="W28" s="32">
         <v>0.61901600000000001</v>
       </c>
-      <c r="X28" s="23">
+      <c r="X28" s="32">
         <v>0.61896200000000001</v>
       </c>
-      <c r="Y28" s="23">
+      <c r="Y28" s="32">
         <v>0.61890100000000003</v>
       </c>
-      <c r="Z28" s="23">
+      <c r="Z28" s="32">
         <v>0.61884600000000001</v>
       </c>
-      <c r="AA28" s="23">
+      <c r="AA28" s="32">
         <v>0.61879200000000001</v>
       </c>
-      <c r="AB28" s="23">
+      <c r="AB28" s="32">
         <v>0.61873</v>
       </c>
-      <c r="AC28" s="23">
+      <c r="AC28" s="32">
         <v>0.618676</v>
       </c>
-      <c r="AD28" s="23">
+      <c r="AD28" s="32">
         <v>0.618614</v>
       </c>
-      <c r="AE28" s="23">
+      <c r="AE28" s="32">
         <v>0.61856</v>
       </c>
-      <c r="AF28" s="23">
+      <c r="AF28" s="32">
         <v>0.618506</v>
       </c>
-      <c r="AG28" s="23">
+      <c r="AG28" s="32">
         <v>0.61844399999999999</v>
       </c>
-      <c r="AH28" s="23">
+      <c r="AH28" s="32">
         <v>0.61839</v>
       </c>
-      <c r="AI28" s="23">
+      <c r="AI28" s="32">
         <v>0.618336</v>
       </c>
-      <c r="AJ28" s="23">
+      <c r="AJ28" s="32">
         <v>0.61827399999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:36" s="22" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A29" s="22" t="s">
+    <row r="29" spans="1:36" s="31" customFormat="1" ht="12.95" customHeight="1">
+      <c r="A29" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="31" t="s">
         <v>423</v>
       </c>
-      <c r="E29" s="12">
-        <v>0</v>
-      </c>
-      <c r="F29" s="23">
+      <c r="E29" s="31">
+        <v>0</v>
+      </c>
+      <c r="F29" s="32">
         <v>8.3237299999999994</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G29" s="32">
         <v>7.2697573100000001</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="32">
         <v>16.414529999999999</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I29" s="32">
         <v>13.89221</v>
       </c>
-      <c r="J29" s="23">
+      <c r="J29" s="32">
         <v>13.854139999999999</v>
       </c>
-      <c r="K29" s="23">
+      <c r="K29" s="32">
         <v>12.72533</v>
       </c>
-      <c r="L29" s="23">
+      <c r="L29" s="32">
         <v>12.610760000000001</v>
       </c>
-      <c r="M29" s="23">
+      <c r="M29" s="32">
         <v>12.50783</v>
       </c>
-      <c r="N29" s="23">
+      <c r="N29" s="32">
         <v>12.37884</v>
       </c>
-      <c r="O29" s="23">
+      <c r="O29" s="32">
         <v>12.459820000000001</v>
       </c>
-      <c r="P29" s="23">
+      <c r="P29" s="32">
         <v>12.53829</v>
       </c>
-      <c r="Q29" s="23">
+      <c r="Q29" s="32">
         <v>12.63781</v>
       </c>
-      <c r="R29" s="23">
+      <c r="R29" s="32">
         <v>12.72838</v>
       </c>
-      <c r="S29" s="23">
+      <c r="S29" s="32">
         <v>12.811019999999999</v>
       </c>
-      <c r="T29" s="23">
+      <c r="T29" s="32">
         <v>12.901870000000001</v>
       </c>
-      <c r="U29" s="23">
+      <c r="U29" s="32">
         <v>13.001799999999999</v>
       </c>
-      <c r="V29" s="23">
+      <c r="V29" s="32">
         <v>13.08103</v>
       </c>
-      <c r="W29" s="23">
+      <c r="W29" s="32">
         <v>13.16841</v>
       </c>
-      <c r="X29" s="23">
+      <c r="X29" s="32">
         <v>13.26118</v>
       </c>
-      <c r="Y29" s="23">
+      <c r="Y29" s="32">
         <v>13.318479999999999</v>
       </c>
-      <c r="Z29" s="23">
+      <c r="Z29" s="32">
         <v>13.392659999999999</v>
       </c>
-      <c r="AA29" s="23">
+      <c r="AA29" s="32">
         <v>13.502890000000001</v>
       </c>
-      <c r="AB29" s="23">
+      <c r="AB29" s="32">
         <v>13.517150000000001</v>
       </c>
-      <c r="AC29" s="23">
+      <c r="AC29" s="32">
         <v>13.57785</v>
       </c>
-      <c r="AD29" s="23">
+      <c r="AD29" s="32">
         <v>13.61947</v>
       </c>
-      <c r="AE29" s="23">
+      <c r="AE29" s="32">
         <v>13.67033</v>
       </c>
-      <c r="AF29" s="23">
+      <c r="AF29" s="32">
         <v>13.808859999999999</v>
       </c>
-      <c r="AG29" s="23">
+      <c r="AG29" s="32">
         <v>13.80965</v>
       </c>
-      <c r="AH29" s="23">
+      <c r="AH29" s="32">
         <v>13.915710000000001</v>
       </c>
-      <c r="AI29" s="23">
+      <c r="AI29" s="32">
         <v>13.995329999999999</v>
       </c>
-      <c r="AJ29" s="23">
+      <c r="AJ29" s="32">
         <v>14.05592</v>
       </c>
     </row>

--- a/CreateDB_NC/InputData/ExcelUserData/UserDataPart1.xlsx
+++ b/CreateDB_NC/InputData/ExcelUserData/UserDataPart1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateDB_NC\InputData\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B39703-EFEB-4E3C-B55B-293D77A08622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8018DB-D98B-495D-9CA2-559FB015E993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="935" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="935" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="technologies" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2944" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2945" uniqueCount="426">
   <si>
     <t>tech</t>
   </si>
@@ -1338,6 +1338,9 @@
     <t>Costs For: Vintage=1
 Period=0</t>
   </si>
+  <si>
+    <t>For Energy Losses:  https://www.eia.gov/tools/faqs/faq.php?id=105&amp;t=3</t>
+  </si>
 </sst>
 </file>
 
@@ -2385,7 +2388,7 @@
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2439,15 +2442,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2463,8 +2457,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="345">
     <cellStyle name="20% - Accent1" xfId="322" builtinId="30" customBuiltin="1"/>
@@ -3132,20 +3133,20 @@
     <col min="5" max="5" width="112.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="27" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
+    <row r="1" spans="1:5" s="24" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="23" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4448,18 +4449,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
@@ -5458,8 +5459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F425B7AA-21D1-411D-A9AF-54EA873F398D}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5484,114 +5485,115 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C4" t="s">
-        <v>255</v>
-      </c>
-      <c r="D4" t="s">
-        <v>256</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>259</v>
       </c>
-      <c r="B5">
+      <c r="B7">
         <f>5941.27*1.55</f>
         <v>9208.9685000000009</v>
       </c>
-      <c r="C5">
+      <c r="C7">
         <f>2752+133</f>
         <v>2885</v>
       </c>
-      <c r="D5">
-        <f>C5/SUM($C$5:$C$8)</f>
+      <c r="D7">
+        <f>C7/SUM($C$7:$C$10)</f>
         <v>0.1498000934627966</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
+    <row r="8" spans="1:4">
+      <c r="A8">
         <v>138</v>
       </c>
-      <c r="B6">
+      <c r="B8">
         <f>3553.52*1.55</f>
         <v>5507.9560000000001</v>
       </c>
-      <c r="C6">
+      <c r="C8">
         <v>9417</v>
       </c>
-      <c r="D6">
-        <f t="shared" ref="D6:D8" si="0">C6/SUM($C$5:$C$8)</f>
+      <c r="D8">
+        <f>C8/SUM($C$7:$C$10)</f>
         <v>0.48896619762189109</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
+    <row r="9" spans="1:4">
+      <c r="A9">
         <v>230</v>
       </c>
-      <c r="B7">
+      <c r="B9">
         <f>2900.44*1.55</f>
         <v>4495.6819999999998</v>
       </c>
-      <c r="C7">
+      <c r="C9">
         <v>6089</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
+      <c r="D9">
+        <f>C9/SUM($C$7:$C$10)</f>
         <v>0.31616387143673086</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
+    <row r="10" spans="1:4">
+      <c r="A10">
         <v>500</v>
       </c>
-      <c r="B8">
+      <c r="B10">
         <f>2001.36*1.55</f>
         <v>3102.1079999999997</v>
       </c>
-      <c r="C8">
+      <c r="C10">
         <v>868</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
+      <c r="D10">
+        <f>C10/SUM($C$7:$C$10)</f>
         <v>4.506983747858144E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="46.5" customHeight="1">
-      <c r="A10" s="4" t="s">
+    <row r="12" spans="1:4" ht="46.5" customHeight="1">
+      <c r="A12" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B10">
-        <f>SUM(D5*B5+B6*D6+B7*D7+B8*D8)</f>
+      <c r="B12">
+        <f>SUM(D7*B7+B8*D8+B9*D9+B10*D10)</f>
         <v>5633.8923732540625</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="43.5" customHeight="1">
-      <c r="A11" s="4" t="s">
+    <row r="13" spans="1:4" ht="43.5" customHeight="1">
+      <c r="A13" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B11">
+      <c r="B13">
         <v>170</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:4" ht="29.25" customHeight="1">
-      <c r="A13" s="4"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4"/>
@@ -17804,8 +17806,8 @@
   <dimension ref="A1:AI74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38:AI40"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -35760,9 +35762,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F64963-0CDD-4BE6-B0AC-E6FD0D7CCBEC}">
   <dimension ref="A1:AJ94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.95" customHeight="1"/>
@@ -35776,113 +35778,113 @@
     <col min="37" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="29" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:36" s="26" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A1" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="27" t="s">
         <v>424</v>
       </c>
-      <c r="F1" s="28">
+      <c r="F1" s="25">
         <v>2020</v>
       </c>
-      <c r="G1" s="28">
+      <c r="G1" s="25">
         <v>2021</v>
       </c>
-      <c r="H1" s="28">
+      <c r="H1" s="25">
         <v>2022</v>
       </c>
-      <c r="I1" s="28">
+      <c r="I1" s="25">
         <v>2023</v>
       </c>
-      <c r="J1" s="28">
+      <c r="J1" s="25">
         <v>2024</v>
       </c>
-      <c r="K1" s="28">
+      <c r="K1" s="25">
         <v>2025</v>
       </c>
-      <c r="L1" s="28">
+      <c r="L1" s="25">
         <v>2026</v>
       </c>
-      <c r="M1" s="28">
+      <c r="M1" s="25">
         <v>2027</v>
       </c>
-      <c r="N1" s="28">
+      <c r="N1" s="25">
         <v>2028</v>
       </c>
-      <c r="O1" s="28">
+      <c r="O1" s="25">
         <v>2029</v>
       </c>
-      <c r="P1" s="28">
+      <c r="P1" s="25">
         <v>2030</v>
       </c>
-      <c r="Q1" s="28">
+      <c r="Q1" s="25">
         <v>2031</v>
       </c>
-      <c r="R1" s="28">
+      <c r="R1" s="25">
         <v>2032</v>
       </c>
-      <c r="S1" s="28">
+      <c r="S1" s="25">
         <v>2033</v>
       </c>
-      <c r="T1" s="28">
+      <c r="T1" s="25">
         <v>2034</v>
       </c>
-      <c r="U1" s="28">
+      <c r="U1" s="25">
         <v>2035</v>
       </c>
-      <c r="V1" s="28">
+      <c r="V1" s="25">
         <v>2036</v>
       </c>
-      <c r="W1" s="28">
+      <c r="W1" s="25">
         <v>2037</v>
       </c>
-      <c r="X1" s="28">
+      <c r="X1" s="25">
         <v>2038</v>
       </c>
-      <c r="Y1" s="28">
+      <c r="Y1" s="25">
         <v>2039</v>
       </c>
-      <c r="Z1" s="28">
+      <c r="Z1" s="25">
         <v>2040</v>
       </c>
-      <c r="AA1" s="28">
+      <c r="AA1" s="25">
         <v>2041</v>
       </c>
-      <c r="AB1" s="28">
+      <c r="AB1" s="25">
         <v>2042</v>
       </c>
-      <c r="AC1" s="28">
+      <c r="AC1" s="25">
         <v>2043</v>
       </c>
-      <c r="AD1" s="28">
+      <c r="AD1" s="25">
         <v>2044</v>
       </c>
-      <c r="AE1" s="28">
+      <c r="AE1" s="25">
         <v>2045</v>
       </c>
-      <c r="AF1" s="28">
+      <c r="AF1" s="25">
         <v>2046</v>
       </c>
-      <c r="AG1" s="28">
+      <c r="AG1" s="25">
         <v>2047</v>
       </c>
-      <c r="AH1" s="28">
+      <c r="AH1" s="25">
         <v>2048</v>
       </c>
-      <c r="AI1" s="28">
+      <c r="AI1" s="25">
         <v>2049</v>
       </c>
-      <c r="AJ1" s="28">
+      <c r="AJ1" s="25">
         <v>2050</v>
       </c>
     </row>
@@ -38447,553 +38449,553 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:36" s="31" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A25" s="31" t="s">
+    <row r="25" spans="1:36" ht="12.95" customHeight="1">
+      <c r="A25" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="E25" s="31">
-        <v>0</v>
-      </c>
-      <c r="F25" s="32">
+      <c r="E25" s="12">
+        <v>0</v>
+      </c>
+      <c r="F25" s="14">
         <v>4.7393364928909998</v>
       </c>
-      <c r="G25" s="32">
+      <c r="G25" s="14">
         <v>4.7393364928909953</v>
       </c>
-      <c r="H25" s="32">
+      <c r="H25" s="14">
         <v>4.7393364928909953</v>
       </c>
-      <c r="I25" s="32">
+      <c r="I25" s="14">
         <v>4.7393364928909953</v>
       </c>
-      <c r="J25" s="32">
+      <c r="J25" s="14">
         <v>4.7393364928909953</v>
       </c>
-      <c r="K25" s="32">
+      <c r="K25" s="14">
         <v>4.7393364928909953</v>
       </c>
-      <c r="L25" s="32">
+      <c r="L25" s="14">
         <v>4.7393364928909953</v>
       </c>
-      <c r="M25" s="32">
+      <c r="M25" s="14">
         <v>4.7393364928909998</v>
       </c>
-      <c r="N25" s="32">
+      <c r="N25" s="14">
         <v>4.7393364928909998</v>
       </c>
-      <c r="O25" s="32">
+      <c r="O25" s="14">
         <v>4.7393364928909998</v>
       </c>
-      <c r="P25" s="32">
+      <c r="P25" s="14">
         <v>4.7393364928909998</v>
       </c>
-      <c r="Q25" s="32">
+      <c r="Q25" s="14">
         <v>4.7393364928909998</v>
       </c>
-      <c r="R25" s="32">
+      <c r="R25" s="14">
         <v>4.7393364928909998</v>
       </c>
-      <c r="S25" s="32">
+      <c r="S25" s="14">
         <v>4.7393364928909998</v>
       </c>
-      <c r="T25" s="32">
+      <c r="T25" s="14">
         <v>4.7393364928909998</v>
       </c>
-      <c r="U25" s="32">
+      <c r="U25" s="14">
         <v>4.7393364928909998</v>
       </c>
-      <c r="V25" s="32">
+      <c r="V25" s="14">
         <v>4.7393364928909998</v>
       </c>
-      <c r="W25" s="32">
+      <c r="W25" s="14">
         <v>4.7393364928909998</v>
       </c>
-      <c r="X25" s="32">
+      <c r="X25" s="14">
         <v>4.7393364928909998</v>
       </c>
-      <c r="Y25" s="32">
+      <c r="Y25" s="14">
         <v>4.7393364928909998</v>
       </c>
-      <c r="Z25" s="32">
+      <c r="Z25" s="14">
         <v>4.7393364928909998</v>
       </c>
-      <c r="AA25" s="32">
+      <c r="AA25" s="14">
         <v>4.7393364928909998</v>
       </c>
-      <c r="AB25" s="32">
+      <c r="AB25" s="14">
         <v>4.7393364928909998</v>
       </c>
-      <c r="AC25" s="32">
+      <c r="AC25" s="14">
         <v>4.7393364928909998</v>
       </c>
-      <c r="AD25" s="32">
+      <c r="AD25" s="14">
         <v>4.7393364928909998</v>
       </c>
-      <c r="AE25" s="32">
+      <c r="AE25" s="14">
         <v>4.7393364928909998</v>
       </c>
-      <c r="AF25" s="32">
+      <c r="AF25" s="14">
         <v>4.7393364928909998</v>
       </c>
-      <c r="AG25" s="32">
+      <c r="AG25" s="14">
         <v>4.7393364928909998</v>
       </c>
-      <c r="AH25" s="32">
+      <c r="AH25" s="14">
         <v>4.7393364928909998</v>
       </c>
-      <c r="AI25" s="32">
+      <c r="AI25" s="14">
         <v>4.7393364928909998</v>
       </c>
-      <c r="AJ25" s="32">
+      <c r="AJ25" s="14">
         <v>4.7393364928909998</v>
       </c>
     </row>
-    <row r="26" spans="1:36" s="31" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A26" s="31" t="s">
+    <row r="26" spans="1:36" ht="12.95" customHeight="1">
+      <c r="A26" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="E26" s="31">
-        <v>0</v>
-      </c>
-      <c r="F26" s="32">
+      <c r="E26" s="12">
+        <v>0</v>
+      </c>
+      <c r="F26" s="14">
         <v>2.2330570000000001</v>
       </c>
-      <c r="G26" s="32">
+      <c r="G26" s="14">
         <v>2.27760454</v>
       </c>
-      <c r="H26" s="32">
+      <c r="H26" s="14">
         <v>2.2581530000000001</v>
       </c>
-      <c r="I26" s="32">
+      <c r="I26" s="14">
         <v>2.133972</v>
       </c>
-      <c r="J26" s="32">
+      <c r="J26" s="14">
         <v>2.0795859999999999</v>
       </c>
-      <c r="K26" s="32">
+      <c r="K26" s="14">
         <v>2.0809470000000001</v>
       </c>
-      <c r="L26" s="32">
+      <c r="L26" s="14">
         <v>2.0144669999999998</v>
       </c>
-      <c r="M26" s="32">
+      <c r="M26" s="14">
         <v>1.9522360000000001</v>
       </c>
-      <c r="N26" s="32">
+      <c r="N26" s="14">
         <v>1.9262649999999999</v>
       </c>
-      <c r="O26" s="32">
+      <c r="O26" s="14">
         <v>1.9231309999999999</v>
       </c>
-      <c r="P26" s="32">
+      <c r="P26" s="14">
         <v>1.936259</v>
       </c>
-      <c r="Q26" s="32">
+      <c r="Q26" s="14">
         <v>1.9402269999999999</v>
       </c>
-      <c r="R26" s="32">
+      <c r="R26" s="14">
         <v>1.934895</v>
       </c>
-      <c r="S26" s="32">
+      <c r="S26" s="14">
         <v>1.9452860000000001</v>
       </c>
-      <c r="T26" s="32">
+      <c r="T26" s="14">
         <v>1.9567030000000001</v>
       </c>
-      <c r="U26" s="32">
+      <c r="U26" s="14">
         <v>1.953638</v>
       </c>
-      <c r="V26" s="32">
+      <c r="V26" s="14">
         <v>1.936653</v>
       </c>
-      <c r="W26" s="32">
+      <c r="W26" s="14">
         <v>1.9329320000000001</v>
       </c>
-      <c r="X26" s="32">
+      <c r="X26" s="14">
         <v>1.9289689999999999</v>
       </c>
-      <c r="Y26" s="32">
+      <c r="Y26" s="14">
         <v>1.921613</v>
       </c>
-      <c r="Z26" s="32">
+      <c r="Z26" s="14">
         <v>1.9124890000000001</v>
       </c>
-      <c r="AA26" s="32">
+      <c r="AA26" s="14">
         <v>1.911195</v>
       </c>
-      <c r="AB26" s="32">
+      <c r="AB26" s="14">
         <v>1.9134119999999999</v>
       </c>
-      <c r="AC26" s="32">
+      <c r="AC26" s="14">
         <v>1.916237</v>
       </c>
-      <c r="AD26" s="32">
+      <c r="AD26" s="14">
         <v>1.9077470000000001</v>
       </c>
-      <c r="AE26" s="32">
+      <c r="AE26" s="14">
         <v>1.9105810000000001</v>
       </c>
-      <c r="AF26" s="32">
+      <c r="AF26" s="14">
         <v>1.9152420000000001</v>
       </c>
-      <c r="AG26" s="32">
+      <c r="AG26" s="14">
         <v>1.9070290000000001</v>
       </c>
-      <c r="AH26" s="32">
+      <c r="AH26" s="14">
         <v>1.8997379999999999</v>
       </c>
-      <c r="AI26" s="32">
+      <c r="AI26" s="14">
         <v>1.9067799999999999</v>
       </c>
-      <c r="AJ26" s="32">
+      <c r="AJ26" s="14">
         <v>1.907716</v>
       </c>
     </row>
-    <row r="27" spans="1:36" s="31" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A27" s="31" t="s">
+    <row r="27" spans="1:36" ht="12.95" customHeight="1">
+      <c r="A27" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="E27" s="31">
-        <v>0</v>
-      </c>
-      <c r="F27" s="32">
+      <c r="E27" s="12">
+        <v>0</v>
+      </c>
+      <c r="F27" s="14">
         <v>2.7666780000000002</v>
       </c>
-      <c r="G27" s="32">
+      <c r="G27" s="14">
         <v>4.1726700900000004</v>
       </c>
-      <c r="H27" s="32">
+      <c r="H27" s="14">
         <v>6.9395239999999996</v>
       </c>
-      <c r="I27" s="32">
+      <c r="I27" s="14">
         <v>5.5320210000000003</v>
       </c>
-      <c r="J27" s="32">
+      <c r="J27" s="14">
         <v>4.4598870000000002</v>
       </c>
-      <c r="K27" s="32">
+      <c r="K27" s="14">
         <v>3.8864489999999998</v>
       </c>
-      <c r="L27" s="32">
+      <c r="L27" s="14">
         <v>3.38374</v>
       </c>
-      <c r="M27" s="32">
+      <c r="M27" s="14">
         <v>3.1031930000000001</v>
       </c>
-      <c r="N27" s="32">
+      <c r="N27" s="14">
         <v>2.9712740000000002</v>
       </c>
-      <c r="O27" s="32">
+      <c r="O27" s="14">
         <v>2.9828760000000001</v>
       </c>
-      <c r="P27" s="32">
+      <c r="P27" s="14">
         <v>3.03782</v>
       </c>
-      <c r="Q27" s="32">
+      <c r="Q27" s="14">
         <v>3.1129220000000002</v>
       </c>
-      <c r="R27" s="32">
+      <c r="R27" s="14">
         <v>3.1663640000000002</v>
       </c>
-      <c r="S27" s="32">
+      <c r="S27" s="14">
         <v>3.3183009999999999</v>
       </c>
-      <c r="T27" s="32">
+      <c r="T27" s="14">
         <v>3.4012639999999998</v>
       </c>
-      <c r="U27" s="32">
+      <c r="U27" s="14">
         <v>3.5202460000000002</v>
       </c>
-      <c r="V27" s="32">
+      <c r="V27" s="14">
         <v>3.5420029999999998</v>
       </c>
-      <c r="W27" s="32">
+      <c r="W27" s="14">
         <v>3.6013820000000001</v>
       </c>
-      <c r="X27" s="32">
+      <c r="X27" s="14">
         <v>3.7139899999999999</v>
       </c>
-      <c r="Y27" s="32">
+      <c r="Y27" s="14">
         <v>3.684002</v>
       </c>
-      <c r="Z27" s="32">
+      <c r="Z27" s="14">
         <v>3.798753</v>
       </c>
-      <c r="AA27" s="32">
+      <c r="AA27" s="14">
         <v>3.879156</v>
       </c>
-      <c r="AB27" s="32">
+      <c r="AB27" s="14">
         <v>3.8488899999999999</v>
       </c>
-      <c r="AC27" s="32">
+      <c r="AC27" s="14">
         <v>3.7999529999999999</v>
       </c>
-      <c r="AD27" s="32">
+      <c r="AD27" s="14">
         <v>3.6545299999999998</v>
       </c>
-      <c r="AE27" s="32">
+      <c r="AE27" s="14">
         <v>3.6604730000000001</v>
       </c>
-      <c r="AF27" s="32">
+      <c r="AF27" s="14">
         <v>3.644825</v>
       </c>
-      <c r="AG27" s="32">
+      <c r="AG27" s="14">
         <v>3.614649</v>
       </c>
-      <c r="AH27" s="32">
+      <c r="AH27" s="14">
         <v>3.611434</v>
       </c>
-      <c r="AI27" s="32">
+      <c r="AI27" s="14">
         <v>3.5480320000000001</v>
       </c>
-      <c r="AJ27" s="32">
+      <c r="AJ27" s="14">
         <v>3.5574430000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:36" s="31" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A28" s="31" t="s">
+    <row r="28" spans="1:36" ht="12.95" customHeight="1">
+      <c r="A28" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="E28" s="31">
-        <v>0</v>
-      </c>
-      <c r="F28" s="32">
+      <c r="E28" s="12">
+        <v>0</v>
+      </c>
+      <c r="F28" s="14">
         <v>0.65020299999999998</v>
       </c>
-      <c r="G28" s="32">
+      <c r="G28" s="14">
         <v>0.65115036000000004</v>
       </c>
-      <c r="H28" s="32">
+      <c r="H28" s="14">
         <v>0.61987499999999995</v>
       </c>
-      <c r="I28" s="32">
+      <c r="I28" s="14">
         <v>0.61981200000000003</v>
       </c>
-      <c r="J28" s="32">
+      <c r="J28" s="14">
         <v>0.61975899999999995</v>
       </c>
-      <c r="K28" s="32">
+      <c r="K28" s="14">
         <v>0.61970400000000003</v>
       </c>
-      <c r="L28" s="32">
+      <c r="L28" s="14">
         <v>0.61964300000000005</v>
       </c>
-      <c r="M28" s="32">
+      <c r="M28" s="14">
         <v>0.61958899999999995</v>
       </c>
-      <c r="N28" s="32">
+      <c r="N28" s="14">
         <v>0.61953400000000003</v>
       </c>
-      <c r="O28" s="32">
+      <c r="O28" s="14">
         <v>0.61947300000000005</v>
       </c>
-      <c r="P28" s="32">
+      <c r="P28" s="14">
         <v>0.61941800000000002</v>
       </c>
-      <c r="Q28" s="32">
+      <c r="Q28" s="14">
         <v>0.61935600000000002</v>
       </c>
-      <c r="R28" s="32">
+      <c r="R28" s="14">
         <v>0.61930200000000002</v>
       </c>
-      <c r="S28" s="32">
+      <c r="S28" s="14">
         <v>0.61924800000000002</v>
       </c>
-      <c r="T28" s="32">
+      <c r="T28" s="14">
         <v>0.61918700000000004</v>
       </c>
-      <c r="U28" s="32">
+      <c r="U28" s="14">
         <v>0.61913200000000002</v>
       </c>
-      <c r="V28" s="32">
+      <c r="V28" s="14">
         <v>0.61907000000000001</v>
       </c>
-      <c r="W28" s="32">
+      <c r="W28" s="14">
         <v>0.61901600000000001</v>
       </c>
-      <c r="X28" s="32">
+      <c r="X28" s="14">
         <v>0.61896200000000001</v>
       </c>
-      <c r="Y28" s="32">
+      <c r="Y28" s="14">
         <v>0.61890100000000003</v>
       </c>
-      <c r="Z28" s="32">
+      <c r="Z28" s="14">
         <v>0.61884600000000001</v>
       </c>
-      <c r="AA28" s="32">
+      <c r="AA28" s="14">
         <v>0.61879200000000001</v>
       </c>
-      <c r="AB28" s="32">
+      <c r="AB28" s="14">
         <v>0.61873</v>
       </c>
-      <c r="AC28" s="32">
+      <c r="AC28" s="14">
         <v>0.618676</v>
       </c>
-      <c r="AD28" s="32">
+      <c r="AD28" s="14">
         <v>0.618614</v>
       </c>
-      <c r="AE28" s="32">
+      <c r="AE28" s="14">
         <v>0.61856</v>
       </c>
-      <c r="AF28" s="32">
+      <c r="AF28" s="14">
         <v>0.618506</v>
       </c>
-      <c r="AG28" s="32">
+      <c r="AG28" s="14">
         <v>0.61844399999999999</v>
       </c>
-      <c r="AH28" s="32">
+      <c r="AH28" s="14">
         <v>0.61839</v>
       </c>
-      <c r="AI28" s="32">
+      <c r="AI28" s="14">
         <v>0.618336</v>
       </c>
-      <c r="AJ28" s="32">
+      <c r="AJ28" s="14">
         <v>0.61827399999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:36" s="31" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A29" s="31" t="s">
+    <row r="29" spans="1:36" ht="12.95" customHeight="1">
+      <c r="A29" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="E29" s="31">
-        <v>0</v>
-      </c>
-      <c r="F29" s="32">
+      <c r="E29" s="12">
+        <v>0</v>
+      </c>
+      <c r="F29" s="14">
         <v>8.3237299999999994</v>
       </c>
-      <c r="G29" s="32">
+      <c r="G29" s="14">
         <v>7.2697573100000001</v>
       </c>
-      <c r="H29" s="32">
+      <c r="H29" s="14">
         <v>16.414529999999999</v>
       </c>
-      <c r="I29" s="32">
+      <c r="I29" s="14">
         <v>13.89221</v>
       </c>
-      <c r="J29" s="32">
+      <c r="J29" s="14">
         <v>13.854139999999999</v>
       </c>
-      <c r="K29" s="32">
+      <c r="K29" s="14">
         <v>12.72533</v>
       </c>
-      <c r="L29" s="32">
+      <c r="L29" s="14">
         <v>12.610760000000001</v>
       </c>
-      <c r="M29" s="32">
+      <c r="M29" s="14">
         <v>12.50783</v>
       </c>
-      <c r="N29" s="32">
+      <c r="N29" s="14">
         <v>12.37884</v>
       </c>
-      <c r="O29" s="32">
+      <c r="O29" s="14">
         <v>12.459820000000001</v>
       </c>
-      <c r="P29" s="32">
+      <c r="P29" s="14">
         <v>12.53829</v>
       </c>
-      <c r="Q29" s="32">
+      <c r="Q29" s="14">
         <v>12.63781</v>
       </c>
-      <c r="R29" s="32">
+      <c r="R29" s="14">
         <v>12.72838</v>
       </c>
-      <c r="S29" s="32">
+      <c r="S29" s="14">
         <v>12.811019999999999</v>
       </c>
-      <c r="T29" s="32">
+      <c r="T29" s="14">
         <v>12.901870000000001</v>
       </c>
-      <c r="U29" s="32">
+      <c r="U29" s="14">
         <v>13.001799999999999</v>
       </c>
-      <c r="V29" s="32">
+      <c r="V29" s="14">
         <v>13.08103</v>
       </c>
-      <c r="W29" s="32">
+      <c r="W29" s="14">
         <v>13.16841</v>
       </c>
-      <c r="X29" s="32">
+      <c r="X29" s="14">
         <v>13.26118</v>
       </c>
-      <c r="Y29" s="32">
+      <c r="Y29" s="14">
         <v>13.318479999999999</v>
       </c>
-      <c r="Z29" s="32">
+      <c r="Z29" s="14">
         <v>13.392659999999999</v>
       </c>
-      <c r="AA29" s="32">
+      <c r="AA29" s="14">
         <v>13.502890000000001</v>
       </c>
-      <c r="AB29" s="32">
+      <c r="AB29" s="14">
         <v>13.517150000000001</v>
       </c>
-      <c r="AC29" s="32">
+      <c r="AC29" s="14">
         <v>13.57785</v>
       </c>
-      <c r="AD29" s="32">
+      <c r="AD29" s="14">
         <v>13.61947</v>
       </c>
-      <c r="AE29" s="32">
+      <c r="AE29" s="14">
         <v>13.67033</v>
       </c>
-      <c r="AF29" s="32">
+      <c r="AF29" s="14">
         <v>13.808859999999999</v>
       </c>
-      <c r="AG29" s="32">
+      <c r="AG29" s="14">
         <v>13.80965</v>
       </c>
-      <c r="AH29" s="32">
+      <c r="AH29" s="14">
         <v>13.915710000000001</v>
       </c>
-      <c r="AI29" s="32">
+      <c r="AI29" s="14">
         <v>13.995329999999999</v>
       </c>
-      <c r="AJ29" s="32">
+      <c r="AJ29" s="14">
         <v>14.05592</v>
       </c>
     </row>

--- a/CreateDB_NC/InputData/ExcelUserData/UserDataPart1.xlsx
+++ b/CreateDB_NC/InputData/ExcelUserData/UserDataPart1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateDB_NC\InputData\ExcelUserData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Desktop\8-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8018DB-D98B-495D-9CA2-559FB015E993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E178DF-2BD9-4D0B-96E5-C6CB12510117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="935" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="935" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="technologies" sheetId="1" r:id="rId1"/>
@@ -3125,12 +3125,12 @@
       <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" customWidth="1"/>
-    <col min="2" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="76.85546875" customWidth="1"/>
-    <col min="5" max="5" width="112.85546875" customWidth="1"/>
+    <col min="1" max="1" width="33.3984375" customWidth="1"/>
+    <col min="2" max="3" width="13.59765625" customWidth="1"/>
+    <col min="4" max="4" width="76.86328125" customWidth="1"/>
+    <col min="5" max="5" width="112.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="24" customFormat="1" ht="29.25" customHeight="1">
@@ -3974,7 +3974,7 @@
       <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -4000,9 +4000,9 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.59765625" customWidth="1"/>
     <col min="2" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4438,14 +4438,14 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="84.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.86328125" customWidth="1"/>
+    <col min="2" max="2" width="21.59765625" customWidth="1"/>
+    <col min="3" max="3" width="16.3984375" customWidth="1"/>
+    <col min="4" max="4" width="84.265625" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="8" width="29.140625" customWidth="1"/>
+    <col min="6" max="8" width="29.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="47.25" customHeight="1">
@@ -5435,7 +5435,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="30">
+    <row r="52" spans="1:3" ht="28.5">
       <c r="A52" s="4" t="s">
         <v>31</v>
       </c>
@@ -5459,17 +5459,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F425B7AA-21D1-411D-A9AF-54EA873F398D}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.265625" customWidth="1"/>
+    <col min="3" max="3" width="19.1328125" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.86328125" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5613,12 +5613,12 @@
       <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="2" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="112.85546875" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="28.3984375" customWidth="1"/>
+    <col min="2" max="4" width="14.59765625" customWidth="1"/>
+    <col min="5" max="5" width="112.86328125" customWidth="1"/>
+    <col min="6" max="8" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6132,12 +6132,12 @@
       <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1"/>
-    <col min="2" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="61.140625" customWidth="1"/>
-    <col min="5" max="5" width="112.85546875" customWidth="1"/>
+    <col min="1" max="1" width="30.1328125" customWidth="1"/>
+    <col min="2" max="3" width="13.59765625" customWidth="1"/>
+    <col min="4" max="4" width="61.1328125" customWidth="1"/>
+    <col min="5" max="5" width="112.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -7090,11 +7090,11 @@
       <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="18.1328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="8" width="18.140625" style="2"/>
-    <col min="9" max="9" width="40.28515625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="18.140625" style="2"/>
+    <col min="1" max="8" width="18.1328125" style="2"/>
+    <col min="9" max="9" width="40.265625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="18.1328125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
@@ -11827,11 +11827,11 @@
       <selection pane="bottomLeft" activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="18.1328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="8" max="9" width="23.85546875" customWidth="1"/>
-    <col min="11" max="12" width="18.140625" style="2"/>
-    <col min="18" max="18" width="36.42578125" customWidth="1"/>
+    <col min="8" max="9" width="23.86328125" customWidth="1"/>
+    <col min="11" max="12" width="18.1328125" style="2"/>
+    <col min="18" max="18" width="36.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" customHeight="1">
@@ -17810,14 +17810,14 @@
       <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="11.65"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="33.7109375" style="12" customWidth="1"/>
-    <col min="5" max="35" width="6.42578125" style="14" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="12.59765625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="30.3984375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="6.86328125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="33.73046875" style="12" customWidth="1"/>
+    <col min="5" max="35" width="6.3984375" style="14" customWidth="1"/>
+    <col min="36" max="16384" width="9.1328125" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -25683,14 +25683,14 @@
       <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="11.65"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" style="12" customWidth="1"/>
-    <col min="5" max="35" width="6.42578125" style="14" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="15.3984375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="25.265625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="16.265625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="29.1328125" style="12" customWidth="1"/>
+    <col min="5" max="35" width="6.3984375" style="14" customWidth="1"/>
+    <col min="36" max="16384" width="9.1328125" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -35762,20 +35762,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F64963-0CDD-4BE6-B0AC-E6FD0D7CCBEC}">
   <dimension ref="A1:AJ94"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23:AJ23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="22.86328125" style="12" customWidth="1"/>
     <col min="3" max="3" width="15" style="12" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" style="12" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="12" customWidth="1"/>
-    <col min="6" max="36" width="6.42578125" style="14" customWidth="1"/>
-    <col min="37" max="16384" width="9.140625" style="12"/>
+    <col min="4" max="4" width="40.73046875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="15.73046875" style="12" customWidth="1"/>
+    <col min="6" max="36" width="6.3984375" style="14" customWidth="1"/>
+    <col min="37" max="16384" width="9.1328125" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="26" customFormat="1" ht="23.25" customHeight="1">
@@ -37648,7 +37648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="12">
+    <row r="18" spans="1:36" ht="11.65">
       <c r="A18" s="12" t="s">
         <v>41</v>
       </c>
@@ -38215,128 +38215,128 @@
         <v>1</v>
       </c>
       <c r="F23" s="22">
-        <f>11*1.17*(10^-3)/1.10231</f>
-        <v>1.1675481488873367E-2</v>
+        <f>11*1.17*(10^-3)</f>
+        <v>1.2869999999999999E-2</v>
       </c>
       <c r="G23" s="22">
-        <f t="shared" ref="G23:AJ23" si="0">11*1.17*(10^-3)/1.10231</f>
-        <v>1.1675481488873367E-2</v>
+        <f t="shared" ref="G23:AJ23" si="0">11*1.17*(10^-3)</f>
+        <v>1.2869999999999999E-2</v>
       </c>
       <c r="H23" s="22">
         <f t="shared" si="0"/>
-        <v>1.1675481488873367E-2</v>
+        <v>1.2869999999999999E-2</v>
       </c>
       <c r="I23" s="22">
         <f t="shared" si="0"/>
-        <v>1.1675481488873367E-2</v>
+        <v>1.2869999999999999E-2</v>
       </c>
       <c r="J23" s="22">
         <f t="shared" si="0"/>
-        <v>1.1675481488873367E-2</v>
+        <v>1.2869999999999999E-2</v>
       </c>
       <c r="K23" s="22">
         <f t="shared" si="0"/>
-        <v>1.1675481488873367E-2</v>
+        <v>1.2869999999999999E-2</v>
       </c>
       <c r="L23" s="22">
         <f t="shared" si="0"/>
-        <v>1.1675481488873367E-2</v>
+        <v>1.2869999999999999E-2</v>
       </c>
       <c r="M23" s="22">
         <f t="shared" si="0"/>
-        <v>1.1675481488873367E-2</v>
+        <v>1.2869999999999999E-2</v>
       </c>
       <c r="N23" s="22">
         <f t="shared" si="0"/>
-        <v>1.1675481488873367E-2</v>
+        <v>1.2869999999999999E-2</v>
       </c>
       <c r="O23" s="22">
         <f t="shared" si="0"/>
-        <v>1.1675481488873367E-2</v>
+        <v>1.2869999999999999E-2</v>
       </c>
       <c r="P23" s="22">
         <f t="shared" si="0"/>
-        <v>1.1675481488873367E-2</v>
+        <v>1.2869999999999999E-2</v>
       </c>
       <c r="Q23" s="22">
         <f t="shared" si="0"/>
-        <v>1.1675481488873367E-2</v>
+        <v>1.2869999999999999E-2</v>
       </c>
       <c r="R23" s="22">
         <f t="shared" si="0"/>
-        <v>1.1675481488873367E-2</v>
+        <v>1.2869999999999999E-2</v>
       </c>
       <c r="S23" s="22">
         <f t="shared" si="0"/>
-        <v>1.1675481488873367E-2</v>
+        <v>1.2869999999999999E-2</v>
       </c>
       <c r="T23" s="22">
         <f t="shared" si="0"/>
-        <v>1.1675481488873367E-2</v>
+        <v>1.2869999999999999E-2</v>
       </c>
       <c r="U23" s="22">
         <f t="shared" si="0"/>
-        <v>1.1675481488873367E-2</v>
+        <v>1.2869999999999999E-2</v>
       </c>
       <c r="V23" s="22">
         <f t="shared" si="0"/>
-        <v>1.1675481488873367E-2</v>
+        <v>1.2869999999999999E-2</v>
       </c>
       <c r="W23" s="22">
         <f t="shared" si="0"/>
-        <v>1.1675481488873367E-2</v>
+        <v>1.2869999999999999E-2</v>
       </c>
       <c r="X23" s="22">
         <f t="shared" si="0"/>
-        <v>1.1675481488873367E-2</v>
+        <v>1.2869999999999999E-2</v>
       </c>
       <c r="Y23" s="22">
         <f t="shared" si="0"/>
-        <v>1.1675481488873367E-2</v>
+        <v>1.2869999999999999E-2</v>
       </c>
       <c r="Z23" s="22">
         <f t="shared" si="0"/>
-        <v>1.1675481488873367E-2</v>
+        <v>1.2869999999999999E-2</v>
       </c>
       <c r="AA23" s="22">
         <f t="shared" si="0"/>
-        <v>1.1675481488873367E-2</v>
+        <v>1.2869999999999999E-2</v>
       </c>
       <c r="AB23" s="22">
         <f t="shared" si="0"/>
-        <v>1.1675481488873367E-2</v>
+        <v>1.2869999999999999E-2</v>
       </c>
       <c r="AC23" s="22">
         <f t="shared" si="0"/>
-        <v>1.1675481488873367E-2</v>
+        <v>1.2869999999999999E-2</v>
       </c>
       <c r="AD23" s="22">
         <f t="shared" si="0"/>
-        <v>1.1675481488873367E-2</v>
+        <v>1.2869999999999999E-2</v>
       </c>
       <c r="AE23" s="22">
         <f t="shared" si="0"/>
-        <v>1.1675481488873367E-2</v>
+        <v>1.2869999999999999E-2</v>
       </c>
       <c r="AF23" s="22">
         <f t="shared" si="0"/>
-        <v>1.1675481488873367E-2</v>
+        <v>1.2869999999999999E-2</v>
       </c>
       <c r="AG23" s="22">
-        <f t="shared" si="0"/>
-        <v>1.1675481488873367E-2</v>
+        <f>11*1.17*(10^-3)</f>
+        <v>1.2869999999999999E-2</v>
       </c>
       <c r="AH23" s="22">
         <f t="shared" si="0"/>
-        <v>1.1675481488873367E-2</v>
+        <v>1.2869999999999999E-2</v>
       </c>
       <c r="AI23" s="22">
         <f t="shared" si="0"/>
-        <v>1.1675481488873367E-2</v>
+        <v>1.2869999999999999E-2</v>
       </c>
       <c r="AJ23" s="22">
         <f t="shared" si="0"/>
-        <v>1.1675481488873367E-2</v>
+        <v>1.2869999999999999E-2</v>
       </c>
     </row>
     <row r="24" spans="1:36" ht="12.95" customHeight="1">
@@ -46164,10 +46164,10 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="114.7109375" customWidth="1"/>
+    <col min="1" max="3" width="18.59765625" customWidth="1"/>
+    <col min="4" max="4" width="114.73046875" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
   </cols>
   <sheetData>

--- a/CreateDB_NC/InputData/ExcelUserData/UserDataPart1.xlsx
+++ b/CreateDB_NC/InputData/ExcelUserData/UserDataPart1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Desktop\8-11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateDB_NC\InputData\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E178DF-2BD9-4D0B-96E5-C6CB12510117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CC7222-67FA-4520-AC45-3B90BE88149D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="935" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="935" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="technologies" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2945" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2957" uniqueCount="434">
   <si>
     <t>tech</t>
   </si>
@@ -1341,6 +1341,30 @@
   <si>
     <t>For Energy Losses:  https://www.eia.gov/tools/faqs/faq.php?id=105&amp;t=3</t>
   </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF by season- NC Statistics </t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/electricity/state/archive/2020/northcarolina/</t>
+  </si>
 </sst>
 </file>
 
@@ -2458,10 +2482,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3121,16 +3145,16 @@
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.3984375" customWidth="1"/>
-    <col min="2" max="3" width="13.59765625" customWidth="1"/>
-    <col min="4" max="4" width="76.86328125" customWidth="1"/>
-    <col min="5" max="5" width="112.86328125" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
+    <col min="2" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="76.85546875" customWidth="1"/>
+    <col min="5" max="5" width="112.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="24" customFormat="1" ht="29.25" customHeight="1">
@@ -3974,7 +3998,7 @@
       <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -3994,24 +4018,24 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904DECE4-C220-4D32-A501-0A9FE9B4057C}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.59765625" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
     <col min="2" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:16">
       <c r="A2" s="6" t="s">
         <v>96</v>
       </c>
@@ -4028,7 +4052,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -4045,7 +4069,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -4062,7 +4086,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -4079,7 +4103,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -4087,7 +4111,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -4095,7 +4119,7 @@
         <v>108.8</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -4103,7 +4127,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -4111,31 +4135,72 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>56</v>
       </c>
       <c r="B10" s="2">
         <v>84</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="K10" s="28" t="s">
+        <v>432</v>
+      </c>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>79</v>
       </c>
       <c r="B11" s="2">
         <v>70.599999999999994</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="L11" t="s">
+        <v>426</v>
+      </c>
+      <c r="M11" t="s">
+        <v>427</v>
+      </c>
+      <c r="N11" t="s">
+        <v>428</v>
+      </c>
+      <c r="O11" t="s">
+        <v>429</v>
+      </c>
+      <c r="P11" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>61</v>
       </c>
       <c r="B12" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="K12" t="s">
+        <v>430</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="P12" s="15">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -4148,8 +4213,26 @@
       <c r="D13" s="2">
         <v>212</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="K13" t="s">
+        <v>430</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.498</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="P13" s="15">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -4158,8 +4241,26 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="K14" t="s">
+        <v>430</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.378</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="O14" s="2">
+        <v>20.9</v>
+      </c>
+      <c r="P14" s="15">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>91</v>
       </c>
@@ -4168,8 +4269,26 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="K15" t="s">
+        <v>430</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0.313</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="P15" s="15">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -4178,8 +4297,26 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="K16" t="s">
+        <v>430</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0.251</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0.189</v>
+      </c>
+      <c r="P16" s="15">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>90</v>
       </c>
@@ -4188,8 +4325,11 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="K17" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -4199,7 +4339,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -4209,7 +4349,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -4219,7 +4359,7 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>89</v>
       </c>
@@ -4229,7 +4369,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>72</v>
       </c>
@@ -4246,7 +4386,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -4254,7 +4394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -4262,7 +4402,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -4270,7 +4410,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -4278,7 +4418,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -4286,7 +4426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>67</v>
       </c>
@@ -4294,7 +4434,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -4302,7 +4442,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -4310,7 +4450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -4318,7 +4458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>94</v>
       </c>
@@ -4426,6 +4566,9 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B108">
     <sortCondition descending="1" ref="B108"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="K10:P10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4438,23 +4581,23 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.86328125" customWidth="1"/>
-    <col min="2" max="2" width="21.59765625" customWidth="1"/>
-    <col min="3" max="3" width="16.3984375" customWidth="1"/>
-    <col min="4" max="4" width="84.265625" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="84.28515625" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="8" width="29.1328125" customWidth="1"/>
+    <col min="6" max="8" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="1"/>
       <c r="F1" s="30" t="s">
         <v>26</v>
@@ -5435,7 +5578,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="28.5">
+    <row r="52" spans="1:3" ht="30">
       <c r="A52" s="4" t="s">
         <v>31</v>
       </c>
@@ -5463,13 +5606,13 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="16.265625" customWidth="1"/>
-    <col min="3" max="3" width="19.1328125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="16.86328125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5608,17 +5751,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32AD897-F683-4767-9F8A-BBAC538730FF}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.3984375" customWidth="1"/>
-    <col min="2" max="4" width="14.59765625" customWidth="1"/>
-    <col min="5" max="5" width="112.86328125" customWidth="1"/>
-    <col min="6" max="8" width="9.1328125" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="112.85546875" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6132,12 +6275,12 @@
       <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.1328125" customWidth="1"/>
-    <col min="2" max="3" width="13.59765625" customWidth="1"/>
-    <col min="4" max="4" width="61.1328125" customWidth="1"/>
-    <col min="5" max="5" width="112.86328125" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="2" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="61.140625" customWidth="1"/>
+    <col min="5" max="5" width="112.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -7090,11 +7233,11 @@
       <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.1328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="8" width="18.1328125" style="2"/>
-    <col min="9" max="9" width="40.265625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="18.1328125" style="2"/>
+    <col min="1" max="8" width="18.140625" style="2"/>
+    <col min="9" max="9" width="40.28515625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="18.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
@@ -11827,11 +11970,11 @@
       <selection pane="bottomLeft" activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.1328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="8" max="9" width="23.86328125" customWidth="1"/>
-    <col min="11" max="12" width="18.1328125" style="2"/>
-    <col min="18" max="18" width="36.3984375" customWidth="1"/>
+    <col min="8" max="9" width="23.85546875" customWidth="1"/>
+    <col min="11" max="12" width="18.140625" style="2"/>
+    <col min="18" max="18" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" customHeight="1">
@@ -17810,14 +17953,14 @@
       <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="11.65"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="30.3984375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="6.86328125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="33.73046875" style="12" customWidth="1"/>
-    <col min="5" max="35" width="6.3984375" style="14" customWidth="1"/>
-    <col min="36" max="16384" width="9.1328125" style="12"/>
+    <col min="1" max="1" width="12.5703125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" style="12" customWidth="1"/>
+    <col min="5" max="35" width="6.42578125" style="14" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -25683,14 +25826,14 @@
       <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="11.65"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="15.3984375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="25.265625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="16.265625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="29.1328125" style="12" customWidth="1"/>
-    <col min="5" max="35" width="6.3984375" style="14" customWidth="1"/>
-    <col min="36" max="16384" width="9.1328125" style="12"/>
+    <col min="1" max="1" width="15.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" style="12" customWidth="1"/>
+    <col min="5" max="35" width="6.42578125" style="14" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -35762,20 +35905,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F64963-0CDD-4BE6-B0AC-E6FD0D7CCBEC}">
   <dimension ref="A1:AJ94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23:AJ23"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="22.86328125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="12" customWidth="1"/>
     <col min="3" max="3" width="15" style="12" customWidth="1"/>
-    <col min="4" max="4" width="40.73046875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="15.73046875" style="12" customWidth="1"/>
-    <col min="6" max="36" width="6.3984375" style="14" customWidth="1"/>
-    <col min="37" max="16384" width="9.1328125" style="12"/>
+    <col min="4" max="4" width="40.7109375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="12" customWidth="1"/>
+    <col min="6" max="36" width="6.42578125" style="14" customWidth="1"/>
+    <col min="37" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="26" customFormat="1" ht="23.25" customHeight="1">
@@ -37648,7 +37791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="11.65">
+    <row r="18" spans="1:36" ht="12">
       <c r="A18" s="12" t="s">
         <v>41</v>
       </c>
@@ -46164,10 +46307,10 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="18.59765625" customWidth="1"/>
-    <col min="4" max="4" width="114.73046875" customWidth="1"/>
+    <col min="1" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="114.7109375" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
   </cols>
   <sheetData>

--- a/CreateDB_NC/InputData/ExcelUserData/UserDataPart1.xlsx
+++ b/CreateDB_NC/InputData/ExcelUserData/UserDataPart1.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateDB_NC\InputData\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002D356D-8A7A-45A0-BAB5-B7F5C3528A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CA3A4D-97C3-41C6-BE82-F9581DCD34B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="935" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="935" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="technologies" sheetId="1" r:id="rId1"/>
     <sheet name="NewTechRegions" sheetId="17" r:id="rId2"/>
-    <sheet name="LifeTimesLoanTechDefault" sheetId="14" r:id="rId3"/>
-    <sheet name="LifeTimeSpecific" sheetId="16" r:id="rId4"/>
-    <sheet name="LifeTimeSpecificRaw" sheetId="15" r:id="rId5"/>
-    <sheet name="CostInvest" sheetId="2" r:id="rId6"/>
-    <sheet name="CostFixed" sheetId="9" r:id="rId7"/>
-    <sheet name="CostVariable" sheetId="10" r:id="rId8"/>
-    <sheet name="Demand" sheetId="6" r:id="rId9"/>
-    <sheet name="DemandCalculations" sheetId="19" r:id="rId10"/>
-    <sheet name="HydroPlantsNC" sheetId="13" r:id="rId11"/>
-    <sheet name="TransmissionCalculations" sheetId="18" r:id="rId12"/>
+    <sheet name="ManualExistingCapacity" sheetId="20" r:id="rId3"/>
+    <sheet name="LifeTimesLoanTechDefault" sheetId="14" r:id="rId4"/>
+    <sheet name="LifeTimeSpecific" sheetId="16" r:id="rId5"/>
+    <sheet name="LifeTimeSpecificRaw" sheetId="15" r:id="rId6"/>
+    <sheet name="CostInvest" sheetId="2" r:id="rId7"/>
+    <sheet name="CostFixed" sheetId="9" r:id="rId8"/>
+    <sheet name="CostVariable" sheetId="10" r:id="rId9"/>
+    <sheet name="Demand" sheetId="6" r:id="rId10"/>
+    <sheet name="DemandCalculations" sheetId="19" r:id="rId11"/>
+    <sheet name="HydroPlantsNC" sheetId="13" r:id="rId12"/>
+    <sheet name="TransmissionCalculations" sheetId="18" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">DemandCalculations!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">DemandCalculations!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2965" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3094" uniqueCount="477">
   <si>
     <t>tech</t>
   </si>
@@ -969,9 +970,6 @@
     <t>NUCLEAR-SMR_NEW</t>
   </si>
   <si>
-    <t>PV-RESIDENTIAL_NEW</t>
-  </si>
-  <si>
     <t>PV-UTILITY_NEW</t>
   </si>
   <si>
@@ -1009,9 +1007,6 @@
   </si>
   <si>
     <t>MWH_BA2H_EXISTING</t>
-  </si>
-  <si>
-    <t>PV-COMMERCIAL_NEW</t>
   </si>
   <si>
     <t>Steam Turbine Using Agricultural By-Products (EIA 860 Nomenclature)</t>
@@ -1412,6 +1407,93 @@
   </si>
   <si>
     <t>Net Load PJ</t>
+  </si>
+  <si>
+    <t>Commercial Solar PV (NREL ATB 2022 Technology). Also used to represent existing commercial solar as it is easier to define min activity this way</t>
+  </si>
+  <si>
+    <t>Residential Solar PV (NREL ATB 2022 Technology). Also used to represent existing residential solar as it is easier to define min activity this way</t>
+  </si>
+  <si>
+    <t>GENERAL_CO2_CAP</t>
+  </si>
+  <si>
+    <t>Tech Used to Represent Other Options For CO2 Capture</t>
+  </si>
+  <si>
+    <t>PV-COMMERCIAL</t>
+  </si>
+  <si>
+    <t>PV-RESIDENTIAL</t>
+  </si>
+  <si>
+    <t>ENERGY_INTERCHANGE</t>
+  </si>
+  <si>
+    <t>Interchange of Energy in/out of NC</t>
+  </si>
+  <si>
+    <t>NREL ATB 2022 C6</t>
+  </si>
+  <si>
+    <t>Tech Used to Represent Other Options For CO2 Capture - Considering only variable cost here for simplicity</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>cap_units</t>
+  </si>
+  <si>
+    <t>annual_cf</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>0.12 CF and  121 GWh ,7.02% Total Pop</t>
+  </si>
+  <si>
+    <t>0.12 CF and  334 GWh  ,7.02% Total Pop</t>
+  </si>
+  <si>
+    <t>0.12 CF and  121 GWh  ,12.98% Total Pop</t>
+  </si>
+  <si>
+    <t>0.12 CF and  121 GWh ,80% Total Pop</t>
+  </si>
+  <si>
+    <t>0.12 CF and  334 GWh ,80% Total Pop</t>
+  </si>
+  <si>
+    <t>0.12 CF and  334 GWh ,12.98% Total Pop</t>
+  </si>
+  <si>
+    <t>place holder</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>R1-R2</t>
+  </si>
+  <si>
+    <t>R2-R1</t>
+  </si>
+  <si>
+    <t>R2-R3</t>
+  </si>
+  <si>
+    <t>R3-R2</t>
+  </si>
+  <si>
+    <t>R1-R3</t>
+  </si>
+  <si>
+    <t>R3-R1</t>
   </si>
 </sst>
 </file>
@@ -2567,7 +2649,7 @@
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2675,6 +2757,11 @@
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="38" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="6" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3331,11 +3418,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A56" activeCellId="2" sqref="A49 A55 A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3374,7 +3461,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.5" customHeight="1">
@@ -3388,7 +3475,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
@@ -3405,7 +3492,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -3420,7 +3507,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>35</v>
@@ -3437,7 +3524,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>35</v>
@@ -3454,7 +3541,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>35</v>
@@ -3471,7 +3558,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3485,12 +3572,12 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -3499,12 +3586,12 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -3513,7 +3600,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3527,7 +3614,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E12" t="s">
         <v>33</v>
@@ -3544,7 +3631,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E13" t="s">
         <v>33</v>
@@ -3561,7 +3648,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E14" t="s">
         <v>32</v>
@@ -3578,7 +3665,7 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E15" t="s">
         <v>31</v>
@@ -3595,23 +3682,23 @@
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1">
-      <c r="A17" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="50" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="50" t="s">
         <v>277</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D17" t="s">
-        <v>330</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D17" s="50" t="s">
+        <v>328</v>
+      </c>
+      <c r="E17" s="50" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3626,7 +3713,7 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1">
@@ -3640,7 +3727,7 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3654,7 +3741,7 @@
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3668,7 +3755,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E21" t="s">
         <v>32</v>
@@ -3685,7 +3772,7 @@
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3699,7 +3786,7 @@
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3713,7 +3800,7 @@
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3727,7 +3814,7 @@
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3741,12 +3828,12 @@
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
@@ -3755,12 +3842,12 @@
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -3769,7 +3856,7 @@
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3783,7 +3870,7 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3797,7 +3884,7 @@
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3811,7 +3898,7 @@
         <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3825,7 +3912,7 @@
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3839,7 +3926,7 @@
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3853,7 +3940,7 @@
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3867,7 +3954,7 @@
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3881,7 +3968,7 @@
         <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3895,7 +3982,7 @@
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3909,7 +3996,7 @@
         <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3923,7 +4010,7 @@
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3937,40 +4024,40 @@
         <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>316</v>
-      </c>
-      <c r="B41" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="50" customFormat="1">
+      <c r="A41" s="50" t="s">
+        <v>452</v>
+      </c>
+      <c r="B41" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D41" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>302</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="D41" s="50" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="50" customFormat="1">
+      <c r="A42" s="50" t="s">
+        <v>453</v>
+      </c>
+      <c r="B42" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D42" t="s">
-        <v>366</v>
+      <c r="D42" s="50" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
@@ -3979,12 +4066,12 @@
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
@@ -3993,7 +4080,7 @@
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E44" t="s">
         <v>89</v>
@@ -4001,7 +4088,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
@@ -4010,12 +4097,12 @@
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
@@ -4024,12 +4111,12 @@
         <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
@@ -4038,12 +4125,12 @@
         <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
@@ -4055,18 +4142,18 @@
         <v>254</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
+    <row r="49" spans="1:4" s="63" customFormat="1">
+      <c r="A49" s="63" t="s">
         <v>285</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="D49" t="s">
-        <v>337</v>
+      <c r="D49" s="63" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -4080,12 +4167,12 @@
         <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
@@ -4094,7 +4181,7 @@
         <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -4108,12 +4195,12 @@
         <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
@@ -4122,12 +4209,12 @@
         <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
@@ -4136,35 +4223,63 @@
         <v>6</v>
       </c>
       <c r="D54" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="63" customFormat="1">
+      <c r="A55" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="B55" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="63" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="63" customFormat="1">
+      <c r="A56" s="63" t="s">
+        <v>284</v>
+      </c>
+      <c r="B56" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="63" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>283</v>
-      </c>
-      <c r="B55" t="s">
+    <row r="57" spans="1:4" s="50" customFormat="1">
+      <c r="A57" s="50" t="s">
+        <v>450</v>
+      </c>
+      <c r="B57" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C57" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D55" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>284</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="D57" s="50" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="50" customFormat="1">
+      <c r="A58" s="50" t="s">
+        <v>454</v>
+      </c>
+      <c r="B58" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C58" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D56" t="s">
-        <v>344</v>
+      <c r="D58" s="50" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -4180,11 +4295,479 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465044A0-2557-4FC4-8230-2D5F5E941F36}">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="114.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>470.41987407206682</v>
+      </c>
+      <c r="C2">
+        <v>2020</v>
+      </c>
+      <c r="D2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>492.49369125190071</v>
+      </c>
+      <c r="C3">
+        <v>2021</v>
+      </c>
+      <c r="D3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>506.79303599314784</v>
+      </c>
+      <c r="C4">
+        <v>2022</v>
+      </c>
+      <c r="D4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>521.09238073439485</v>
+      </c>
+      <c r="C5">
+        <v>2023</v>
+      </c>
+      <c r="D5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>523.69800230395879</v>
+      </c>
+      <c r="C6">
+        <v>2024</v>
+      </c>
+      <c r="D6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>523.76510825853404</v>
+      </c>
+      <c r="C7">
+        <v>2025</v>
+      </c>
+      <c r="D7" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>524.71936561258849</v>
+      </c>
+      <c r="C8">
+        <v>2026</v>
+      </c>
+      <c r="D8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>526.70364893607541</v>
+      </c>
+      <c r="C9">
+        <v>2027</v>
+      </c>
+      <c r="D9" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>530.24958453579848</v>
+      </c>
+      <c r="C10">
+        <v>2028</v>
+      </c>
+      <c r="D10" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>534.23411183863504</v>
+      </c>
+      <c r="C11">
+        <v>2029</v>
+      </c>
+      <c r="D11" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>538.34157772491983</v>
+      </c>
+      <c r="C12">
+        <v>2030</v>
+      </c>
+      <c r="D12" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>543.87254377295756</v>
+      </c>
+      <c r="C13">
+        <v>2031</v>
+      </c>
+      <c r="D13" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>549.88861882595381</v>
+      </c>
+      <c r="C14">
+        <v>2032</v>
+      </c>
+      <c r="D14" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>555.55249145069251</v>
+      </c>
+      <c r="C15">
+        <v>2033</v>
+      </c>
+      <c r="D15" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>561.55859851043624</v>
+      </c>
+      <c r="C16">
+        <v>2034</v>
+      </c>
+      <c r="D16" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>567.85045471008698</v>
+      </c>
+      <c r="C17">
+        <v>2035</v>
+      </c>
+      <c r="D17" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>574.4978360024129</v>
+      </c>
+      <c r="C18">
+        <v>2036</v>
+      </c>
+      <c r="D18" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>581.42099844139318</v>
+      </c>
+      <c r="C19">
+        <v>2037</v>
+      </c>
+      <c r="D19" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20">
+        <v>586.56477389497468</v>
+      </c>
+      <c r="C20">
+        <v>2038</v>
+      </c>
+      <c r="D20" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>591.76975282714352</v>
+      </c>
+      <c r="C21">
+        <v>2039</v>
+      </c>
+      <c r="D21" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>597.03498893502967</v>
+      </c>
+      <c r="C22">
+        <v>2040</v>
+      </c>
+      <c r="D22" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>602.35878669035446</v>
+      </c>
+      <c r="C23">
+        <v>2041</v>
+      </c>
+      <c r="D23" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>607.74091709192919</v>
+      </c>
+      <c r="C24">
+        <v>2042</v>
+      </c>
+      <c r="D24" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>613.18761377048213</v>
+      </c>
+      <c r="C25">
+        <v>2043</v>
+      </c>
+      <c r="D25" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <v>618.69167491139069</v>
+      </c>
+      <c r="C26">
+        <v>2044</v>
+      </c>
+      <c r="D26" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27">
+        <v>624.26415018360922</v>
+      </c>
+      <c r="C27">
+        <v>2045</v>
+      </c>
+      <c r="D27" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28">
+        <v>629.9185244668131</v>
+      </c>
+      <c r="C28">
+        <v>2046</v>
+      </c>
+      <c r="D28" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29">
+        <v>635.60094139744581</v>
+      </c>
+      <c r="C29">
+        <v>2047</v>
+      </c>
+      <c r="D29" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30">
+        <v>641.36758777302384</v>
+      </c>
+      <c r="C30">
+        <v>2048</v>
+      </c>
+      <c r="D30" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <v>647.17566943422003</v>
+      </c>
+      <c r="C31">
+        <v>2049</v>
+      </c>
+      <c r="D31" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32">
+        <v>653.04333205952389</v>
+      </c>
+      <c r="C32">
+        <v>2050</v>
+      </c>
+      <c r="D32" t="s">
+        <v>429</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AAF3EF8-B941-47C8-8BD3-E60171A32DBE}">
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33:F63"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4192,7 +4775,8 @@
     <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="2" max="7" width="13.5703125" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" customWidth="1"/>
     <col min="11" max="11" width="8.7109375" customWidth="1"/>
     <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="18" width="13.5703125" customWidth="1"/>
@@ -4203,7 +4787,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="43" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -4211,15 +4795,15 @@
       <c r="E1" s="38"/>
       <c r="F1" s="38"/>
       <c r="G1" s="44" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H1" s="44" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I1" s="38"/>
       <c r="J1" s="39"/>
       <c r="M1" s="37" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="N1" s="37"/>
       <c r="O1" s="37"/>
@@ -4227,7 +4811,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="45" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -4239,21 +4823,21 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
+        <v>421</v>
+      </c>
+      <c r="I2" t="s">
+        <v>422</v>
+      </c>
+      <c r="J2" s="31" t="s">
         <v>423</v>
       </c>
-      <c r="I2" t="s">
-        <v>424</v>
-      </c>
-      <c r="J2" s="31" t="s">
-        <v>425</v>
-      </c>
       <c r="M2" s="27" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N2" s="28"/>
       <c r="O2" s="29"/>
       <c r="P2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -4264,7 +4848,7 @@
         <v>2021</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G3">
         <v>2021</v>
@@ -4280,7 +4864,7 @@
         <v>147019</v>
       </c>
       <c r="M3" s="30" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="O3" s="31"/>
       <c r="Q3">
@@ -4296,18 +4880,18 @@
         <v>2020</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="J4" s="31"/>
       <c r="M4" s="30"/>
       <c r="N4" t="s">
+        <v>433</v>
+      </c>
+      <c r="O4" s="31" t="s">
+        <v>434</v>
+      </c>
+      <c r="P4" t="s">
         <v>435</v>
-      </c>
-      <c r="O4" s="31" t="s">
-        <v>436</v>
-      </c>
-      <c r="P4" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -4318,20 +4902,20 @@
         <v>2019</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="J5" s="31"/>
       <c r="M5" s="30">
         <v>2020</v>
       </c>
       <c r="N5" s="32">
-        <v>190473.58365925492</v>
+        <v>190473.583659255</v>
       </c>
       <c r="O5" s="33">
-        <v>90733.658581543888</v>
+        <v>90733.658581543903</v>
       </c>
       <c r="P5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -4342,7 +4926,7 @@
         <v>2018</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="J6" s="31"/>
       <c r="M6" s="30">
@@ -4355,7 +4939,7 @@
         <v>106084.36819050599</v>
       </c>
       <c r="P6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4366,7 +4950,7 @@
         <v>2017</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="J7" s="31"/>
       <c r="M7" s="30">
@@ -4394,7 +4978,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="49" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J9" s="31"/>
       <c r="M9" s="30">
@@ -4407,27 +4991,27 @@
         <v>154935.44623386869</v>
       </c>
       <c r="P9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="49" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B10" s="50" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="51" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E10" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="F10" s="50" t="s">
         <v>427</v>
-      </c>
-      <c r="F10" s="50" t="s">
-        <v>429</v>
       </c>
       <c r="J10" s="31"/>
       <c r="M10" s="30">
@@ -4440,7 +5024,7 @@
         <v>173085.10505930719</v>
       </c>
       <c r="P10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4471,7 +5055,7 @@
         <v>191234.76388474571</v>
       </c>
       <c r="P11" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4479,13 +5063,13 @@
         <v>2022</v>
       </c>
       <c r="B12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E12" s="47"/>
       <c r="J12" s="31"/>
@@ -4499,7 +5083,7 @@
         <v>209384.42271018421</v>
       </c>
       <c r="P12" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4535,7 +5119,7 @@
         <v>227534.08153562271</v>
       </c>
       <c r="P13" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4571,7 +5155,7 @@
         <v>245683.74036106121</v>
       </c>
       <c r="P14" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -4612,7 +5196,7 @@
         <v>2026</v>
       </c>
       <c r="B16" s="52">
-        <f t="shared" si="1"/>
+        <f>$B$11*F16</f>
         <v>144974.30927295113</v>
       </c>
       <c r="C16" s="47">
@@ -4640,7 +5224,7 @@
         <v>289144.45464580378</v>
       </c>
       <c r="P16" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -4676,7 +5260,7 @@
         <v>314455.51010510791</v>
       </c>
       <c r="P17" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -4712,7 +5296,7 @@
         <v>339766.56556441198</v>
       </c>
       <c r="P18" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -4748,7 +5332,7 @@
         <v>365077.62102371611</v>
       </c>
       <c r="P19" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -4784,7 +5368,7 @@
         <v>390388.67648302019</v>
       </c>
       <c r="P20" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -4820,7 +5404,7 @@
         <v>415699.73194232426</v>
       </c>
       <c r="P21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -4856,7 +5440,7 @@
         <v>441010.78740162839</v>
       </c>
       <c r="P22" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -4864,7 +5448,7 @@
         <v>2033</v>
       </c>
       <c r="B23" s="52">
-        <f t="shared" si="1"/>
+        <f>$B$11*F23</f>
         <v>152573.98116569966</v>
       </c>
       <c r="C23" s="47">
@@ -4892,7 +5476,7 @@
         <v>458143.64876186004</v>
       </c>
       <c r="P23" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -4928,7 +5512,7 @@
         <v>474006.88361256575</v>
       </c>
       <c r="P24" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -4964,7 +5548,7 @@
         <v>488218.91979473422</v>
       </c>
       <c r="P25" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -5000,7 +5584,7 @@
         <v>500561.82916657068</v>
       </c>
       <c r="P26" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -5036,12 +5620,12 @@
         <v>510906.12147257198</v>
       </c>
       <c r="P27" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="54" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B28" s="55">
         <f>(B27/B23)^(1/5)</f>
@@ -5077,7 +5661,7 @@
         <v>519927.74715565791</v>
       </c>
       <c r="P28" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -5091,7 +5675,7 @@
         <v>528298.13298169954</v>
       </c>
       <c r="P29" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -5105,12 +5689,12 @@
         <v>536546.94498707226</v>
       </c>
       <c r="P30" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="B31" s="42" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
@@ -5127,27 +5711,27 @@
         <v>550578.76918483502</v>
       </c>
       <c r="P31" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="B32" s="30" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C32" t="s">
+        <v>445</v>
+      </c>
+      <c r="D32" t="s">
+        <v>446</v>
+      </c>
+      <c r="E32" t="s">
+        <v>443</v>
+      </c>
+      <c r="F32" s="60" t="s">
+        <v>444</v>
+      </c>
+      <c r="G32" s="31" t="s">
         <v>447</v>
-      </c>
-      <c r="D32" t="s">
-        <v>448</v>
-      </c>
-      <c r="E32" t="s">
-        <v>445</v>
-      </c>
-      <c r="F32" s="60" t="s">
-        <v>446</v>
-      </c>
-      <c r="G32" s="31" t="s">
-        <v>449</v>
       </c>
       <c r="M32" s="30">
         <v>2047</v>
@@ -5159,7 +5743,7 @@
         <v>555396.54178707639</v>
       </c>
       <c r="P32" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="33" spans="2:16">
@@ -5172,7 +5756,7 @@
       </c>
       <c r="D33" s="56">
         <f>(N5+O5)/1000</f>
-        <v>281.20724224079879</v>
+        <v>281.20724224079891</v>
       </c>
       <c r="E33" s="56">
         <f>C33+D33</f>
@@ -5196,7 +5780,7 @@
         <v>563447.44292159262</v>
       </c>
       <c r="P33" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="34" spans="2:16">
@@ -5208,11 +5792,11 @@
         <v>136435.53099999999</v>
       </c>
       <c r="D34" s="56">
-        <f t="shared" ref="D34:D63" si="4">(N6+O6)/1000</f>
+        <f t="shared" ref="D34:D62" si="4">(N6+O6)/1000</f>
         <v>368.27212552799301</v>
       </c>
       <c r="E34" s="56">
-        <f t="shared" ref="E34:E63" si="5">C34+D34</f>
+        <f t="shared" ref="E34:E62" si="5">C34+D34</f>
         <v>136803.80312552798</v>
       </c>
       <c r="F34" s="61">
@@ -5233,7 +5817,7 @@
         <v>567577.27733673668</v>
       </c>
       <c r="P34" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="35" spans="2:16">
@@ -5253,7 +5837,7 @@
         <v>140775.84333142996</v>
       </c>
       <c r="F35" s="61">
-        <f t="shared" ref="F34:F62" si="7">0.0036*E35</f>
+        <f t="shared" ref="F35:F62" si="7">0.0036*E35</f>
         <v>506.79303599314784</v>
       </c>
       <c r="G35" s="31">
@@ -5270,7 +5854,7 @@
         <v>570418.71198260505</v>
       </c>
       <c r="P35" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="36" spans="2:16">
@@ -5378,7 +5962,7 @@
         <v>2027</v>
       </c>
       <c r="C40" s="57">
-        <f t="shared" si="8"/>
+        <f>B17</f>
         <v>145445.94302777192</v>
       </c>
       <c r="D40" s="56">
@@ -5598,7 +6182,7 @@
         <v>560.01182892279223</v>
       </c>
     </row>
-    <row r="49" spans="2:7">
+    <row r="49" spans="2:14">
       <c r="B49" s="30">
         <v>2036</v>
       </c>
@@ -5623,7 +6207,7 @@
         <v>565.88297694855771</v>
       </c>
     </row>
-    <row r="50" spans="2:7">
+    <row r="50" spans="2:14">
       <c r="B50" s="30">
         <v>2037</v>
       </c>
@@ -5647,8 +6231,12 @@
         <f t="shared" si="6"/>
         <v>572.02990612097744</v>
       </c>
-    </row>
-    <row r="51" spans="2:7">
+      <c r="J50" s="47">
+        <f>E27</f>
+        <v>172160</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14">
       <c r="B51" s="30">
         <v>2038</v>
       </c>
@@ -5672,13 +6260,17 @@
         <f t="shared" si="6"/>
         <v>576.69460110606838</v>
       </c>
-    </row>
-    <row r="52" spans="2:7">
+      <c r="J51" s="56">
+        <f>J50*$E$28</f>
+        <v>173563.90192897257</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14">
       <c r="B52" s="30">
         <v>2039</v>
       </c>
       <c r="C52" s="57">
-        <f t="shared" ref="C52:C63" si="9">C51*$B$28</f>
+        <f t="shared" ref="C52:C62" si="9">C51*$B$28</f>
         <v>161499.25971535136</v>
       </c>
       <c r="D52" s="56">
@@ -5697,8 +6289,12 @@
         <f t="shared" si="6"/>
         <v>581.39733497526493</v>
       </c>
-    </row>
-    <row r="53" spans="2:7">
+      <c r="J52" s="56">
+        <f t="shared" ref="J52:J63" si="10">J51*$E$28</f>
+        <v>174979.25216548564</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14">
       <c r="B53" s="30">
         <v>2040</v>
       </c>
@@ -5722,13 +6318,27 @@
         <f t="shared" si="6"/>
         <v>586.13841792177561</v>
       </c>
-    </row>
-    <row r="54" spans="2:7">
+      <c r="J53" s="56">
+        <f t="shared" si="10"/>
+        <v>176406.14406630641</v>
+      </c>
+      <c r="K53" s="66">
+        <v>2750</v>
+      </c>
+      <c r="L53" s="67">
+        <v>529</v>
+      </c>
+      <c r="M53" s="56">
+        <f>SUM(J53:L53)</f>
+        <v>179685.14406630641</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14">
       <c r="B54" s="30">
         <v>2041</v>
       </c>
       <c r="C54" s="57">
-        <f t="shared" si="9"/>
+        <f>C53*$B$28</f>
         <v>164143.93407453372</v>
       </c>
       <c r="D54" s="56">
@@ -5747,8 +6357,16 @@
         <f t="shared" si="6"/>
         <v>590.91816266832143</v>
       </c>
-    </row>
-    <row r="55" spans="2:7">
+      <c r="J54" s="56">
+        <f t="shared" si="10"/>
+        <v>177844.67174949241</v>
+      </c>
+      <c r="M54" s="56">
+        <f t="shared" ref="M54:M63" si="11">SUM(J54:L54)</f>
+        <v>177844.67174949241</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14">
       <c r="B55" s="30">
         <v>2042</v>
       </c>
@@ -5772,8 +6390,16 @@
         <f t="shared" si="6"/>
         <v>595.7368844877625</v>
       </c>
-    </row>
-    <row r="56" spans="2:7">
+      <c r="J55" s="56">
+        <f t="shared" si="10"/>
+        <v>179294.93010059957</v>
+      </c>
+      <c r="M55" s="56">
+        <f t="shared" si="11"/>
+        <v>179294.93010059957</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14">
       <c r="B56" s="30">
         <v>2043</v>
       </c>
@@ -5797,8 +6423,16 @@
         <f t="shared" si="6"/>
         <v>600.59490122389457</v>
       </c>
-    </row>
-    <row r="57" spans="2:7">
+      <c r="J56" s="56">
+        <f t="shared" si="10"/>
+        <v>180757.01477894085</v>
+      </c>
+      <c r="M56" s="56">
+        <f t="shared" si="11"/>
+        <v>180757.01477894085</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14">
       <c r="B57" s="30">
         <v>2044</v>
       </c>
@@ -5822,8 +6456,16 @@
         <f t="shared" si="6"/>
         <v>605.49253331241289</v>
       </c>
-    </row>
-    <row r="58" spans="2:7">
+      <c r="J57" s="56">
+        <f t="shared" si="10"/>
+        <v>182231.022223896</v>
+      </c>
+      <c r="M57" s="56">
+        <f t="shared" si="11"/>
+        <v>182231.022223896</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14">
       <c r="B58" s="30">
         <v>2045</v>
       </c>
@@ -5832,11 +6474,11 @@
         <v>169563.91772279146</v>
       </c>
       <c r="D58" s="56">
-        <f t="shared" si="4"/>
+        <f>(N30+O30)/1000</f>
         <v>3842.7906615444608</v>
       </c>
       <c r="E58" s="56">
-        <f t="shared" si="5"/>
+        <f>C58+D58</f>
         <v>173406.70838433591</v>
       </c>
       <c r="F58" s="61">
@@ -5847,8 +6489,22 @@
         <f t="shared" si="6"/>
         <v>610.4301038020493</v>
       </c>
-    </row>
-    <row r="59" spans="2:7">
+      <c r="J58" s="56">
+        <f t="shared" si="10"/>
+        <v>183717.0496612727</v>
+      </c>
+      <c r="K58" s="66">
+        <v>3582</v>
+      </c>
+      <c r="L58" s="67">
+        <v>581</v>
+      </c>
+      <c r="M58" s="56">
+        <f t="shared" si="11"/>
+        <v>187880.0496612727</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14">
       <c r="B59" s="30">
         <v>2046</v>
       </c>
@@ -5872,8 +6528,16 @@
         <f t="shared" si="6"/>
         <v>615.40793837587955</v>
       </c>
-    </row>
-    <row r="60" spans="2:7">
+      <c r="J59" s="56">
+        <f t="shared" si="10"/>
+        <v>185215.19510971956</v>
+      </c>
+      <c r="M59" s="56">
+        <f t="shared" si="11"/>
+        <v>185215.19510971956</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14">
       <c r="B60" s="30">
         <v>2047</v>
       </c>
@@ -5897,13 +6561,21 @@
         <f t="shared" si="6"/>
         <v>620.42636537280646</v>
       </c>
-    </row>
-    <row r="61" spans="2:7">
+      <c r="J60" s="56">
+        <f t="shared" si="10"/>
+        <v>186725.55738719148</v>
+      </c>
+      <c r="M60" s="56">
+        <f t="shared" si="11"/>
+        <v>186725.55738719148</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14">
       <c r="B61" s="30">
         <v>2048</v>
       </c>
       <c r="C61" s="57">
-        <f t="shared" si="9"/>
+        <f>C60*$B$28</f>
         <v>173746.03216922676</v>
       </c>
       <c r="D61" s="56">
@@ -5922,8 +6594,16 @@
         <f t="shared" si="6"/>
         <v>625.48571580921634</v>
       </c>
-    </row>
-    <row r="62" spans="2:7">
+      <c r="J61" s="56">
+        <f t="shared" si="10"/>
+        <v>188248.23611746772</v>
+      </c>
+      <c r="M61" s="56">
+        <f t="shared" si="11"/>
+        <v>188248.23611746772</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14">
       <c r="B62" s="30">
         <v>2049</v>
       </c>
@@ -5947,21 +6627,29 @@
         <f t="shared" si="6"/>
         <v>630.5863234008134</v>
       </c>
-    </row>
-    <row r="63" spans="2:7">
+      <c r="J62" s="56">
+        <f t="shared" si="10"/>
+        <v>189783.33173672305</v>
+      </c>
+      <c r="M62" s="56">
+        <f t="shared" si="11"/>
+        <v>189783.33173672305</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14">
       <c r="B63" s="34">
         <v>2050</v>
       </c>
       <c r="C63" s="58">
-        <f t="shared" si="9"/>
+        <f>C62*$B$28</f>
         <v>176591.25682906431</v>
       </c>
       <c r="D63" s="59">
-        <f t="shared" si="4"/>
+        <f>(N35+O35)/1000</f>
         <v>4809.6687430256434</v>
       </c>
       <c r="E63" s="59">
-        <f t="shared" si="5"/>
+        <f>C63+D63</f>
         <v>181400.92557208997</v>
       </c>
       <c r="F63" s="62">
@@ -5972,8 +6660,26 @@
         <f t="shared" si="6"/>
         <v>635.72852458463149</v>
       </c>
-    </row>
-    <row r="64" spans="2:7">
+      <c r="J63" s="56">
+        <f t="shared" si="10"/>
+        <v>191330.94550015256</v>
+      </c>
+      <c r="K63" s="66">
+        <v>4593</v>
+      </c>
+      <c r="L63" s="67">
+        <v>618</v>
+      </c>
+      <c r="M63" s="56">
+        <f t="shared" si="11"/>
+        <v>196541.94550015256</v>
+      </c>
+      <c r="N63" s="56">
+        <f>M63*Q3</f>
+        <v>181400.81357343067</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14">
       <c r="E64" s="56"/>
     </row>
     <row r="65" spans="5:5">
@@ -5985,7 +6691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904DECE4-C220-4D32-A501-0A9FE9B4057C}">
   <dimension ref="A1:P44"/>
   <sheetViews>
@@ -6111,14 +6817,14 @@
       <c r="B10" s="2">
         <v>84</v>
       </c>
-      <c r="K10" s="63" t="s">
-        <v>414</v>
-      </c>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63"/>
+      <c r="K10" s="68" t="s">
+        <v>412</v>
+      </c>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
@@ -6128,19 +6834,19 @@
         <v>70.599999999999994</v>
       </c>
       <c r="L11" t="s">
+        <v>406</v>
+      </c>
+      <c r="M11" t="s">
+        <v>407</v>
+      </c>
+      <c r="N11" t="s">
         <v>408</v>
       </c>
-      <c r="M11" t="s">
+      <c r="O11" t="s">
         <v>409</v>
       </c>
-      <c r="N11" t="s">
-        <v>410</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>411</v>
-      </c>
-      <c r="P11" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -6151,7 +6857,7 @@
         <v>60</v>
       </c>
       <c r="K12" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L12" s="2">
         <v>0.29199999999999998</v>
@@ -6183,7 +6889,7 @@
         <v>212</v>
       </c>
       <c r="K13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L13" s="2">
         <v>0.54300000000000004</v>
@@ -6211,7 +6917,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="K14" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L14" s="2">
         <v>0.54</v>
@@ -6239,7 +6945,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="K15" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L15" s="2">
         <v>0.39200000000000002</v>
@@ -6267,7 +6973,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="K16" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L16" s="2">
         <v>0.18</v>
@@ -6295,7 +7001,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="K17" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -6542,7 +7248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F425B7AA-21D1-411D-A9AF-54EA873F398D}">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -6572,7 +7278,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6693,17 +7399,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32AD897-F683-4767-9F8A-BBAC538730FF}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="2" max="4" width="14.5703125" customWidth="1"/>
+    <col min="1" max="4" width="31.28515625" customWidth="1"/>
     <col min="5" max="5" width="112.85546875" customWidth="1"/>
     <col min="6" max="8" width="9.140625" customWidth="1"/>
   </cols>
@@ -6783,7 +7488,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -6797,7 +7502,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -6811,7 +7516,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -6825,34 +7530,34 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>313</v>
+      <c r="A10" s="50" t="s">
+        <v>452</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" t="s">
+      <c r="A11" s="50" t="s">
         <v>302</v>
       </c>
       <c r="B11">
@@ -6866,8 +7571,8 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>303</v>
+      <c r="A12" s="50" t="s">
+        <v>453</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -6881,7 +7586,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -6895,7 +7600,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -6921,7 +7626,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -7108,7 +7813,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -7136,7 +7841,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -7150,7 +7855,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -7164,7 +7869,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -7178,7 +7883,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -7192,7 +7897,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -7201,6 +7906,34 @@
         <v>1</v>
       </c>
       <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="50" t="s">
+        <v>450</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="50" t="s">
+        <v>454</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
         <v>1</v>
       </c>
     </row>
@@ -7211,12 +7944,478 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C343DE-8FD7-43B0-8B91-52EA75A17858}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31" style="2" customWidth="1"/>
+    <col min="3" max="4" width="10.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>452</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2017</v>
+      </c>
+      <c r="D2" s="2">
+        <f>121/(0.12*365*24)*7.02/100</f>
+        <v>8.0804794520547944E-3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>462</v>
+      </c>
+      <c r="F2">
+        <v>0.12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>452</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2017</v>
+      </c>
+      <c r="D3" s="2">
+        <f>121/(0.12*365*24)*12.98/100</f>
+        <v>1.4940829528158298E-2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F3">
+        <v>0.12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>452</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2017</v>
+      </c>
+      <c r="D4" s="2">
+        <f>121/(0.12*365*24)*80/100</f>
+        <v>9.2085235920852368E-2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>462</v>
+      </c>
+      <c r="F4">
+        <v>0.12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>453</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2017</v>
+      </c>
+      <c r="D5" s="2">
+        <f>334/(0.12*365*24)*7.02/100</f>
+        <v>2.2304794520547948E-2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>462</v>
+      </c>
+      <c r="F5">
+        <v>0.12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>453</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2017</v>
+      </c>
+      <c r="D6" s="2">
+        <f>334/(0.12*365*24)*12.98/100</f>
+        <v>4.1241628614916301E-2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>462</v>
+      </c>
+      <c r="F6">
+        <v>0.12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>453</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2017</v>
+      </c>
+      <c r="D7" s="2">
+        <f>334/(0.12*365*24)*80/100</f>
+        <v>0.25418569254185697</v>
+      </c>
+      <c r="E7" t="s">
+        <v>462</v>
+      </c>
+      <c r="F7">
+        <v>0.12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>285</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2022</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>462</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G8" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>285</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2022</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>462</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G9" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B10" s="63" t="s">
+        <v>285</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2022</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>462</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G10" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>284</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2022</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>462</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G11" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>284</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2022</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>462</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G12" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B13" s="63" t="s">
+        <v>284</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2022</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>462</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G13" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2022</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>462</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G14" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2022</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>462</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2022</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>462</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G16" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2022</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>462</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G17" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2022</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>462</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G18" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2022</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>462</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G19" t="s">
+        <v>469</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C008AD2-9FC6-4B50-8E5B-D9A0AF2799B1}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7255,10 +8454,10 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7272,10 +8471,10 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7289,10 +8488,10 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7306,10 +8505,10 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7323,10 +8522,10 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7340,10 +8539,10 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -7357,10 +8556,10 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -7374,15 +8573,15 @@
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B10">
         <v>15</v>
@@ -7391,15 +8590,15 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E10" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B11">
         <v>15</v>
@@ -7408,10 +8607,10 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -7425,10 +8624,10 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E12" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -7442,10 +8641,10 @@
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E13" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7459,10 +8658,10 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E14" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.5" customHeight="1">
@@ -7476,7 +8675,7 @@
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E15" t="s">
         <v>230</v>
@@ -7493,10 +8692,10 @@
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E16" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="13.5" customHeight="1">
@@ -7510,10 +8709,10 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="13.5" customHeight="1">
@@ -7527,7 +8726,7 @@
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E18" t="s">
         <v>229</v>
@@ -7544,7 +8743,7 @@
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E19" t="s">
         <v>229</v>
@@ -7561,10 +8760,10 @@
         <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7578,10 +8777,10 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E21" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -7595,10 +8794,10 @@
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E22" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -7612,10 +8811,10 @@
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E23" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -7629,10 +8828,10 @@
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E24" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -7646,10 +8845,10 @@
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -7663,15 +8862,15 @@
         <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E26" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B27">
         <v>50</v>
@@ -7680,15 +8879,15 @@
         <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E27" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B28">
         <v>50</v>
@@ -7697,10 +8896,10 @@
         <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E28" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -7714,10 +8913,10 @@
         <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E29" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1">
@@ -7731,10 +8930,10 @@
         <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E30" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1">
@@ -7748,10 +8947,10 @@
         <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E31" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1">
@@ -7765,10 +8964,10 @@
         <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E32" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -7782,10 +8981,10 @@
         <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E33" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -7799,10 +8998,10 @@
         <v>20</v>
       </c>
       <c r="D34" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E34" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -7816,10 +9015,10 @@
         <v>20</v>
       </c>
       <c r="D35" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E35" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -7833,10 +9032,10 @@
         <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E36" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -7850,10 +9049,10 @@
         <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E37" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -7867,10 +9066,10 @@
         <v>20</v>
       </c>
       <c r="D38" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E38" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -7884,10 +9083,10 @@
         <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E39" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -7901,15 +9100,15 @@
         <v>20</v>
       </c>
       <c r="D40" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E40" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>316</v>
+      <c r="A41" s="50" t="s">
+        <v>452</v>
       </c>
       <c r="B41">
         <v>30</v>
@@ -7918,15 +9117,15 @@
         <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E41" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>302</v>
+      <c r="A42" s="50" t="s">
+        <v>453</v>
       </c>
       <c r="B42">
         <v>30</v>
@@ -7935,15 +9134,15 @@
         <v>20</v>
       </c>
       <c r="D42" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E42" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B43">
         <v>30</v>
@@ -7952,15 +9151,15 @@
         <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E43" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B44">
         <v>109</v>
@@ -7969,7 +9168,7 @@
         <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E44" t="s">
         <v>229</v>
@@ -7977,7 +9176,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B45">
         <v>109</v>
@@ -7986,7 +9185,7 @@
         <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E45" t="s">
         <v>229</v>
@@ -7994,7 +9193,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B46">
         <v>30</v>
@@ -8003,15 +9202,15 @@
         <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E46" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B47">
         <v>30</v>
@@ -8020,15 +9219,15 @@
         <v>20</v>
       </c>
       <c r="D47" t="s">
+        <v>369</v>
+      </c>
+      <c r="E47" t="s">
         <v>371</v>
-      </c>
-      <c r="E47" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B48">
         <v>100</v>
@@ -8051,7 +9250,7 @@
         <v>20</v>
       </c>
       <c r="D49" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E49" t="s">
         <v>246</v>
@@ -8068,12 +9267,12 @@
         <v>20</v>
       </c>
       <c r="D50" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B51">
         <v>100</v>
@@ -8082,7 +9281,7 @@
         <v>20</v>
       </c>
       <c r="D51" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -8096,12 +9295,12 @@
         <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B53">
         <v>100</v>
@@ -8110,12 +9309,12 @@
         <v>20</v>
       </c>
       <c r="D53" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B54">
         <v>100</v>
@@ -8124,7 +9323,7 @@
         <v>20</v>
       </c>
       <c r="D54" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -8138,7 +9337,7 @@
         <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E55" t="s">
         <v>246</v>
@@ -8155,10 +9354,38 @@
         <v>20</v>
       </c>
       <c r="D56" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E56" t="s">
         <v>246</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="50" t="s">
+        <v>450</v>
+      </c>
+      <c r="B57">
+        <v>100</v>
+      </c>
+      <c r="C57">
+        <v>20</v>
+      </c>
+      <c r="D57" s="50" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="50" t="s">
+        <v>454</v>
+      </c>
+      <c r="B58">
+        <v>100</v>
+      </c>
+      <c r="C58">
+        <v>20</v>
+      </c>
+      <c r="D58" s="50" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -8168,13 +9395,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4CA1F8-8978-49C4-A8F4-278D710EA4E3}">
   <dimension ref="A1:L124"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
+      <selection pane="bottomLeft" activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -8210,7 +9437,7 @@
         <v>216</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>215</v>
@@ -12905,7 +14132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1309D8-2EE3-4E2D-AA43-74AFF29659AC}">
   <dimension ref="A1:R125"/>
   <sheetViews>
@@ -12962,16 +14189,16 @@
         <v>219</v>
       </c>
       <c r="N1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="P1" s="19" t="s">
         <v>220</v>
       </c>
       <c r="Q1" s="19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="R1" s="19" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" customHeight="1">
@@ -18888,13 +20115,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96CB1107-551A-4401-A108-C4996FB8D590}">
-  <dimension ref="A1:AI74"/>
+  <dimension ref="A1:AI75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A67" sqref="A67:F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -20303,13 +21530,13 @@
         <v>25</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>251</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E14" s="13">
         <v>5580</v>
@@ -20410,7 +21637,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>251</v>
@@ -20517,7 +21744,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>251</v>
@@ -21582,324 +22809,324 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="26" spans="1:35">
-      <c r="A26" s="11" t="s">
+    <row r="26" spans="1:35" s="64" customFormat="1">
+      <c r="A26" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="C26" s="11" t="s">
+      <c r="B26" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="C26" s="64" t="s">
         <v>251</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="13">
+      <c r="D26" s="64" t="s">
+        <v>456</v>
+      </c>
+      <c r="E26" s="65">
         <v>1783.56</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="65">
         <v>1597.99</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="65">
         <v>1499.21</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="65">
         <v>1400.42</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="65">
         <v>1301.6300000000001</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="65">
         <v>1202.8399999999999</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K26" s="65">
         <v>1104.9000000000001</v>
       </c>
-      <c r="L26" s="13">
+      <c r="L26" s="65">
         <v>1006.81</v>
       </c>
-      <c r="M26" s="13">
+      <c r="M26" s="65">
         <v>908.57</v>
       </c>
-      <c r="N26" s="13">
+      <c r="N26" s="65">
         <v>810.17</v>
       </c>
-      <c r="O26" s="13">
+      <c r="O26" s="65">
         <v>711.62</v>
       </c>
-      <c r="P26" s="13">
+      <c r="P26" s="65">
         <v>702.45</v>
       </c>
-      <c r="Q26" s="13">
+      <c r="Q26" s="65">
         <v>693.28</v>
       </c>
-      <c r="R26" s="13">
+      <c r="R26" s="65">
         <v>684.11</v>
       </c>
-      <c r="S26" s="13">
+      <c r="S26" s="65">
         <v>674.94</v>
       </c>
-      <c r="T26" s="13">
+      <c r="T26" s="65">
         <v>665.76</v>
       </c>
-      <c r="U26" s="13">
+      <c r="U26" s="65">
         <v>656.59</v>
       </c>
-      <c r="V26" s="13">
+      <c r="V26" s="65">
         <v>647.41999999999996</v>
       </c>
-      <c r="W26" s="13">
+      <c r="W26" s="65">
         <v>638.25</v>
       </c>
-      <c r="X26" s="13">
+      <c r="X26" s="65">
         <v>629.08000000000004</v>
       </c>
-      <c r="Y26" s="13">
+      <c r="Y26" s="65">
         <v>619.9</v>
       </c>
-      <c r="Z26" s="13">
+      <c r="Z26" s="65">
         <v>610.73</v>
       </c>
-      <c r="AA26" s="13">
+      <c r="AA26" s="65">
         <v>601.55999999999995</v>
       </c>
-      <c r="AB26" s="13">
+      <c r="AB26" s="65">
         <v>592.39</v>
       </c>
-      <c r="AC26" s="13">
+      <c r="AC26" s="65">
         <v>583.22</v>
       </c>
-      <c r="AD26" s="13">
+      <c r="AD26" s="65">
         <v>574.04</v>
       </c>
-      <c r="AE26" s="13">
+      <c r="AE26" s="65">
         <v>564.87</v>
       </c>
-      <c r="AF26" s="13">
+      <c r="AF26" s="65">
         <v>555.70000000000005</v>
       </c>
-      <c r="AG26" s="13">
+      <c r="AG26" s="65">
         <v>546.53</v>
       </c>
-      <c r="AH26" s="13">
+      <c r="AH26" s="65">
         <v>537.36</v>
       </c>
-      <c r="AI26" s="13">
+      <c r="AI26" s="65">
         <v>528.19000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:35">
-      <c r="A27" s="11" t="s">
+    <row r="27" spans="1:35" s="64" customFormat="1">
+      <c r="A27" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="C27" s="11" t="s">
+      <c r="B27" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="C27" s="64" t="s">
         <v>251</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="13">
+      <c r="D27" s="64" t="s">
+        <v>456</v>
+      </c>
+      <c r="E27" s="65">
         <v>1783.56</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="65">
         <v>1597.99</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="65">
         <v>1523.04</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="65">
         <v>1448.09</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="65">
         <v>1373.14</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J27" s="65">
         <v>1298.18</v>
       </c>
-      <c r="K27" s="13">
+      <c r="K27" s="65">
         <v>1224.17</v>
       </c>
-      <c r="L27" s="13">
+      <c r="L27" s="65">
         <v>1150.04</v>
       </c>
-      <c r="M27" s="13">
+      <c r="M27" s="65">
         <v>1075.8</v>
       </c>
-      <c r="N27" s="13">
+      <c r="N27" s="65">
         <v>1001.44</v>
       </c>
-      <c r="O27" s="13">
+      <c r="O27" s="65">
         <v>926.96</v>
       </c>
-      <c r="P27" s="13">
+      <c r="P27" s="65">
         <v>916.19</v>
       </c>
-      <c r="Q27" s="13">
+      <c r="Q27" s="65">
         <v>905.43</v>
       </c>
-      <c r="R27" s="13">
+      <c r="R27" s="65">
         <v>894.66</v>
       </c>
-      <c r="S27" s="13">
+      <c r="S27" s="65">
         <v>883.89</v>
       </c>
-      <c r="T27" s="13">
+      <c r="T27" s="65">
         <v>873.12</v>
       </c>
-      <c r="U27" s="13">
+      <c r="U27" s="65">
         <v>862.36</v>
       </c>
-      <c r="V27" s="13">
+      <c r="V27" s="65">
         <v>851.59</v>
       </c>
-      <c r="W27" s="13">
+      <c r="W27" s="65">
         <v>840.82</v>
       </c>
-      <c r="X27" s="13">
+      <c r="X27" s="65">
         <v>830.06</v>
       </c>
-      <c r="Y27" s="13">
+      <c r="Y27" s="65">
         <v>819.29</v>
       </c>
-      <c r="Z27" s="13">
+      <c r="Z27" s="65">
         <v>808.52</v>
       </c>
-      <c r="AA27" s="13">
+      <c r="AA27" s="65">
         <v>797.76</v>
       </c>
-      <c r="AB27" s="13">
+      <c r="AB27" s="65">
         <v>786.99</v>
       </c>
-      <c r="AC27" s="13">
+      <c r="AC27" s="65">
         <v>776.22</v>
       </c>
-      <c r="AD27" s="13">
+      <c r="AD27" s="65">
         <v>765.46</v>
       </c>
-      <c r="AE27" s="13">
+      <c r="AE27" s="65">
         <v>754.69</v>
       </c>
-      <c r="AF27" s="13">
+      <c r="AF27" s="65">
         <v>743.92</v>
       </c>
-      <c r="AG27" s="13">
+      <c r="AG27" s="65">
         <v>733.16</v>
       </c>
-      <c r="AH27" s="13">
+      <c r="AH27" s="65">
         <v>722.39</v>
       </c>
-      <c r="AI27" s="13">
+      <c r="AI27" s="65">
         <v>711.62</v>
       </c>
     </row>
-    <row r="28" spans="1:35">
-      <c r="A28" s="11" t="s">
+    <row r="28" spans="1:35" s="64" customFormat="1">
+      <c r="A28" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="C28" s="11" t="s">
+      <c r="B28" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="C28" s="64" t="s">
         <v>251</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="13">
+      <c r="D28" s="64" t="s">
+        <v>456</v>
+      </c>
+      <c r="E28" s="65">
         <v>1783.56</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="65">
         <v>1597.99</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="65">
         <v>1585.8</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="65">
         <v>1573.62</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I28" s="65">
         <v>1561.43</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J28" s="65">
         <v>1549.24</v>
       </c>
-      <c r="K28" s="13">
+      <c r="K28" s="65">
         <v>1538.23</v>
       </c>
-      <c r="L28" s="13">
+      <c r="L28" s="65">
         <v>1527.2</v>
       </c>
-      <c r="M28" s="13">
+      <c r="M28" s="65">
         <v>1516.15</v>
       </c>
-      <c r="N28" s="13">
+      <c r="N28" s="65">
         <v>1505.08</v>
       </c>
-      <c r="O28" s="13">
+      <c r="O28" s="65">
         <v>1493.99</v>
       </c>
-      <c r="P28" s="13">
+      <c r="P28" s="65">
         <v>1465.64</v>
       </c>
-      <c r="Q28" s="13">
+      <c r="Q28" s="65">
         <v>1437.28</v>
       </c>
-      <c r="R28" s="13">
+      <c r="R28" s="65">
         <v>1408.93</v>
       </c>
-      <c r="S28" s="13">
+      <c r="S28" s="65">
         <v>1380.58</v>
       </c>
-      <c r="T28" s="13">
+      <c r="T28" s="65">
         <v>1352.23</v>
       </c>
-      <c r="U28" s="13">
+      <c r="U28" s="65">
         <v>1323.88</v>
       </c>
-      <c r="V28" s="13">
+      <c r="V28" s="65">
         <v>1295.53</v>
       </c>
-      <c r="W28" s="13">
+      <c r="W28" s="65">
         <v>1267.18</v>
       </c>
-      <c r="X28" s="13">
+      <c r="X28" s="65">
         <v>1238.82</v>
       </c>
-      <c r="Y28" s="13">
+      <c r="Y28" s="65">
         <v>1210.47</v>
       </c>
-      <c r="Z28" s="13">
+      <c r="Z28" s="65">
         <v>1182.1199999999999</v>
       </c>
-      <c r="AA28" s="13">
+      <c r="AA28" s="65">
         <v>1153.77</v>
       </c>
-      <c r="AB28" s="13">
+      <c r="AB28" s="65">
         <v>1125.42</v>
       </c>
-      <c r="AC28" s="13">
+      <c r="AC28" s="65">
         <v>1097.07</v>
       </c>
-      <c r="AD28" s="13">
+      <c r="AD28" s="65">
         <v>1068.72</v>
       </c>
-      <c r="AE28" s="13">
+      <c r="AE28" s="65">
         <v>1040.3599999999999</v>
       </c>
-      <c r="AF28" s="13">
+      <c r="AF28" s="65">
         <v>1012.01</v>
       </c>
-      <c r="AG28" s="13">
+      <c r="AG28" s="65">
         <v>983.66</v>
       </c>
-      <c r="AH28" s="13">
+      <c r="AH28" s="65">
         <v>955.31</v>
       </c>
-      <c r="AI28" s="13">
+      <c r="AI28" s="65">
         <v>926.96</v>
       </c>
     </row>
@@ -22122,7 +23349,7 @@
         <v>25</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>251</v>
@@ -22336,7 +23563,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>251</v>
@@ -22443,7 +23670,7 @@
         <v>25</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>251</v>
@@ -22550,13 +23777,13 @@
         <v>20</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>251</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E35" s="13">
         <v>1462</v>
@@ -22657,13 +23884,13 @@
         <v>21</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>251</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E36" s="13">
         <v>1462</v>
@@ -22764,13 +23991,13 @@
         <v>19</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>251</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E37" s="13">
         <v>1462</v>
@@ -25332,13 +26559,13 @@
         <v>20</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>251</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E61" s="13">
         <v>3739.2347124720723</v>
@@ -25439,13 +26666,13 @@
         <v>21</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>251</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E62" s="13">
         <v>3925.3532623035676</v>
@@ -25546,13 +26773,13 @@
         <v>19</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>251</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E63" s="13">
         <v>4267.0902035237923</v>
@@ -25648,324 +26875,324 @@
         <v>3237.7460440033415</v>
       </c>
     </row>
-    <row r="64" spans="1:35">
-      <c r="A64" s="11" t="s">
+    <row r="64" spans="1:35" s="64" customFormat="1">
+      <c r="A64" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="B64" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="C64" s="11" t="s">
+      <c r="B64" s="64" t="s">
+        <v>453</v>
+      </c>
+      <c r="C64" s="64" t="s">
         <v>251</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E64" s="65">
         <v>2743.33</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F64" s="65">
         <v>2650</v>
       </c>
-      <c r="G64" s="13">
+      <c r="G64" s="65">
         <v>2443.4499999999998</v>
       </c>
-      <c r="H64" s="13">
+      <c r="H64" s="65">
         <v>2236.91</v>
       </c>
-      <c r="I64" s="13">
+      <c r="I64" s="65">
         <v>2030.36</v>
       </c>
-      <c r="J64" s="13">
+      <c r="J64" s="65">
         <v>1823.81</v>
       </c>
-      <c r="K64" s="13">
+      <c r="K64" s="65">
         <v>1617.27</v>
       </c>
-      <c r="L64" s="13">
+      <c r="L64" s="65">
         <v>1410.72</v>
       </c>
-      <c r="M64" s="13">
+      <c r="M64" s="65">
         <v>1204.17</v>
       </c>
-      <c r="N64" s="13">
+      <c r="N64" s="65">
         <v>997.63</v>
       </c>
-      <c r="O64" s="13">
+      <c r="O64" s="65">
         <v>791.08</v>
       </c>
-      <c r="P64" s="13">
+      <c r="P64" s="65">
         <v>779.04</v>
       </c>
-      <c r="Q64" s="13">
+      <c r="Q64" s="65">
         <v>767.01</v>
       </c>
-      <c r="R64" s="13">
+      <c r="R64" s="65">
         <v>754.97</v>
       </c>
-      <c r="S64" s="13">
+      <c r="S64" s="65">
         <v>742.94</v>
       </c>
-      <c r="T64" s="13">
+      <c r="T64" s="65">
         <v>730.9</v>
       </c>
-      <c r="U64" s="13">
+      <c r="U64" s="65">
         <v>718.87</v>
       </c>
-      <c r="V64" s="13">
+      <c r="V64" s="65">
         <v>706.83</v>
       </c>
-      <c r="W64" s="13">
+      <c r="W64" s="65">
         <v>694.8</v>
       </c>
-      <c r="X64" s="13">
+      <c r="X64" s="65">
         <v>682.76</v>
       </c>
-      <c r="Y64" s="13">
+      <c r="Y64" s="65">
         <v>670.73</v>
       </c>
-      <c r="Z64" s="13">
+      <c r="Z64" s="65">
         <v>658.69</v>
       </c>
-      <c r="AA64" s="13">
+      <c r="AA64" s="65">
         <v>646.66</v>
       </c>
-      <c r="AB64" s="13">
+      <c r="AB64" s="65">
         <v>634.62</v>
       </c>
-      <c r="AC64" s="13">
+      <c r="AC64" s="65">
         <v>622.59</v>
       </c>
-      <c r="AD64" s="13">
+      <c r="AD64" s="65">
         <v>610.54999999999995</v>
       </c>
-      <c r="AE64" s="13">
+      <c r="AE64" s="65">
         <v>598.52</v>
       </c>
-      <c r="AF64" s="13">
+      <c r="AF64" s="65">
         <v>586.49</v>
       </c>
-      <c r="AG64" s="13">
+      <c r="AG64" s="65">
         <v>574.45000000000005</v>
       </c>
-      <c r="AH64" s="13">
+      <c r="AH64" s="65">
         <v>562.41999999999996</v>
       </c>
-      <c r="AI64" s="13">
+      <c r="AI64" s="65">
         <v>550.38</v>
       </c>
     </row>
-    <row r="65" spans="1:35">
-      <c r="A65" s="11" t="s">
+    <row r="65" spans="1:35" s="64" customFormat="1">
+      <c r="A65" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="B65" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="C65" s="11" t="s">
+      <c r="B65" s="64" t="s">
+        <v>453</v>
+      </c>
+      <c r="C65" s="64" t="s">
         <v>251</v>
       </c>
-      <c r="D65" s="11" t="s">
+      <c r="D65" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E65" s="65">
         <v>2743.33</v>
       </c>
-      <c r="F65" s="13">
+      <c r="F65" s="65">
         <v>2650</v>
       </c>
-      <c r="G65" s="13">
+      <c r="G65" s="65">
         <v>2468.4899999999998</v>
       </c>
-      <c r="H65" s="13">
+      <c r="H65" s="65">
         <v>2286.98</v>
       </c>
-      <c r="I65" s="13">
+      <c r="I65" s="65">
         <v>2105.48</v>
       </c>
-      <c r="J65" s="13">
+      <c r="J65" s="65">
         <v>1923.97</v>
       </c>
-      <c r="K65" s="13">
+      <c r="K65" s="65">
         <v>1742.46</v>
       </c>
-      <c r="L65" s="13">
+      <c r="L65" s="65">
         <v>1560.95</v>
       </c>
-      <c r="M65" s="13">
+      <c r="M65" s="65">
         <v>1379.44</v>
       </c>
-      <c r="N65" s="13">
+      <c r="N65" s="65">
         <v>1197.94</v>
       </c>
-      <c r="O65" s="13">
+      <c r="O65" s="65">
         <v>1016.43</v>
       </c>
-      <c r="P65" s="13">
+      <c r="P65" s="65">
         <v>1005.16</v>
       </c>
-      <c r="Q65" s="13">
+      <c r="Q65" s="65">
         <v>993.89</v>
       </c>
-      <c r="R65" s="13">
+      <c r="R65" s="65">
         <v>982.63</v>
       </c>
-      <c r="S65" s="13">
+      <c r="S65" s="65">
         <v>971.36</v>
       </c>
-      <c r="T65" s="13">
+      <c r="T65" s="65">
         <v>960.09</v>
       </c>
-      <c r="U65" s="13">
+      <c r="U65" s="65">
         <v>948.82</v>
       </c>
-      <c r="V65" s="13">
+      <c r="V65" s="65">
         <v>937.56</v>
       </c>
-      <c r="W65" s="13">
+      <c r="W65" s="65">
         <v>926.29</v>
       </c>
-      <c r="X65" s="13">
+      <c r="X65" s="65">
         <v>915.02</v>
       </c>
-      <c r="Y65" s="13">
+      <c r="Y65" s="65">
         <v>903.75</v>
       </c>
-      <c r="Z65" s="13">
+      <c r="Z65" s="65">
         <v>892.49</v>
       </c>
-      <c r="AA65" s="13">
+      <c r="AA65" s="65">
         <v>881.22</v>
       </c>
-      <c r="AB65" s="13">
+      <c r="AB65" s="65">
         <v>869.95</v>
       </c>
-      <c r="AC65" s="13">
+      <c r="AC65" s="65">
         <v>858.68</v>
       </c>
-      <c r="AD65" s="13">
+      <c r="AD65" s="65">
         <v>847.42</v>
       </c>
-      <c r="AE65" s="13">
+      <c r="AE65" s="65">
         <v>836.15</v>
       </c>
-      <c r="AF65" s="13">
+      <c r="AF65" s="65">
         <v>824.88</v>
       </c>
-      <c r="AG65" s="13">
+      <c r="AG65" s="65">
         <v>813.61</v>
       </c>
-      <c r="AH65" s="13">
+      <c r="AH65" s="65">
         <v>802.35</v>
       </c>
-      <c r="AI65" s="13">
+      <c r="AI65" s="65">
         <v>791.08</v>
       </c>
     </row>
-    <row r="66" spans="1:35">
-      <c r="A66" s="11" t="s">
+    <row r="66" spans="1:35" s="64" customFormat="1">
+      <c r="A66" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B66" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="C66" s="11" t="s">
+      <c r="B66" s="64" t="s">
+        <v>453</v>
+      </c>
+      <c r="C66" s="64" t="s">
         <v>251</v>
       </c>
-      <c r="D66" s="11" t="s">
+      <c r="D66" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E66" s="65">
         <v>2743.33</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F66" s="65">
         <v>2650</v>
       </c>
-      <c r="G66" s="13">
+      <c r="G66" s="65">
         <v>2609.4899999999998</v>
       </c>
-      <c r="H66" s="13">
+      <c r="H66" s="65">
         <v>2568.98</v>
       </c>
-      <c r="I66" s="13">
+      <c r="I66" s="65">
         <v>2528.48</v>
       </c>
-      <c r="J66" s="13">
+      <c r="J66" s="65">
         <v>2487.9699999999998</v>
       </c>
-      <c r="K66" s="13">
+      <c r="K66" s="65">
         <v>2447.46</v>
       </c>
-      <c r="L66" s="13">
+      <c r="L66" s="65">
         <v>2406.9499999999998</v>
       </c>
-      <c r="M66" s="13">
+      <c r="M66" s="65">
         <v>2366.44</v>
       </c>
-      <c r="N66" s="13">
+      <c r="N66" s="65">
         <v>2325.94</v>
       </c>
-      <c r="O66" s="13">
+      <c r="O66" s="65">
         <v>2285.4299999999998</v>
       </c>
-      <c r="P66" s="13">
+      <c r="P66" s="65">
         <v>2221.98</v>
       </c>
-      <c r="Q66" s="13">
+      <c r="Q66" s="65">
         <v>2158.5300000000002</v>
       </c>
-      <c r="R66" s="13">
+      <c r="R66" s="65">
         <v>2095.08</v>
       </c>
-      <c r="S66" s="13">
+      <c r="S66" s="65">
         <v>2031.63</v>
       </c>
-      <c r="T66" s="13">
+      <c r="T66" s="65">
         <v>1968.18</v>
       </c>
-      <c r="U66" s="13">
+      <c r="U66" s="65">
         <v>1904.73</v>
       </c>
-      <c r="V66" s="13">
+      <c r="V66" s="65">
         <v>1841.28</v>
       </c>
-      <c r="W66" s="13">
+      <c r="W66" s="65">
         <v>1777.83</v>
       </c>
-      <c r="X66" s="13">
+      <c r="X66" s="65">
         <v>1714.38</v>
       </c>
-      <c r="Y66" s="13">
+      <c r="Y66" s="65">
         <v>1650.93</v>
       </c>
-      <c r="Z66" s="13">
+      <c r="Z66" s="65">
         <v>1587.48</v>
       </c>
-      <c r="AA66" s="13">
+      <c r="AA66" s="65">
         <v>1524.03</v>
       </c>
-      <c r="AB66" s="13">
+      <c r="AB66" s="65">
         <v>1460.58</v>
       </c>
-      <c r="AC66" s="13">
+      <c r="AC66" s="65">
         <v>1397.13</v>
       </c>
-      <c r="AD66" s="13">
+      <c r="AD66" s="65">
         <v>1333.68</v>
       </c>
-      <c r="AE66" s="13">
+      <c r="AE66" s="65">
         <v>1270.23</v>
       </c>
-      <c r="AF66" s="13">
+      <c r="AF66" s="65">
         <v>1206.78</v>
       </c>
-      <c r="AG66" s="13">
+      <c r="AG66" s="65">
         <v>1143.33</v>
       </c>
-      <c r="AH66" s="13">
+      <c r="AH66" s="65">
         <v>1079.8800000000001</v>
       </c>
-      <c r="AI66" s="13">
+      <c r="AI66" s="65">
         <v>1016.43</v>
       </c>
     </row>
@@ -26188,7 +27415,7 @@
         <v>20</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>251</v>
@@ -26295,7 +27522,7 @@
         <v>21</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>251</v>
@@ -26402,7 +27629,7 @@
         <v>19</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C71" s="11" t="s">
         <v>251</v>
@@ -26509,7 +27736,7 @@
         <v>25</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>251</v>
@@ -26616,7 +27843,7 @@
         <v>25</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C73" s="11" t="s">
         <v>251</v>
@@ -26718,38 +27945,219 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="74" spans="1:35">
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
-      <c r="J74" s="11"/>
-      <c r="K74" s="11"/>
-      <c r="L74" s="11"/>
-      <c r="M74" s="11"/>
-      <c r="N74" s="11"/>
-      <c r="O74" s="11"/>
-      <c r="P74" s="11"/>
-      <c r="Q74" s="11"/>
-      <c r="R74" s="11"/>
-      <c r="S74" s="11"/>
-      <c r="T74" s="11"/>
-      <c r="U74" s="11"/>
-      <c r="V74" s="11"/>
-      <c r="W74" s="11"/>
-      <c r="X74" s="11"/>
-      <c r="Y74" s="11"/>
-      <c r="Z74" s="11"/>
-      <c r="AA74" s="11"/>
-      <c r="AB74" s="11"/>
-      <c r="AC74" s="11"/>
-      <c r="AD74" s="11"/>
-      <c r="AE74" s="11"/>
-      <c r="AF74" s="11"/>
-      <c r="AG74" s="11"/>
-      <c r="AH74" s="11"/>
-      <c r="AI74" s="11"/>
+    <row r="74" spans="1:35" s="64" customFormat="1">
+      <c r="A74" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="C74" s="64" t="s">
+        <v>251</v>
+      </c>
+      <c r="D74" s="64" t="s">
+        <v>457</v>
+      </c>
+      <c r="E74" s="65">
+        <v>0</v>
+      </c>
+      <c r="F74" s="65">
+        <v>0</v>
+      </c>
+      <c r="G74" s="65">
+        <v>0</v>
+      </c>
+      <c r="H74" s="65">
+        <v>0</v>
+      </c>
+      <c r="I74" s="65">
+        <v>0</v>
+      </c>
+      <c r="J74" s="65">
+        <v>0</v>
+      </c>
+      <c r="K74" s="65">
+        <v>0</v>
+      </c>
+      <c r="L74" s="65">
+        <v>0</v>
+      </c>
+      <c r="M74" s="65">
+        <v>0</v>
+      </c>
+      <c r="N74" s="65">
+        <v>0</v>
+      </c>
+      <c r="O74" s="65">
+        <v>0</v>
+      </c>
+      <c r="P74" s="65">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="65">
+        <v>0</v>
+      </c>
+      <c r="R74" s="65">
+        <v>0</v>
+      </c>
+      <c r="S74" s="65">
+        <v>0</v>
+      </c>
+      <c r="T74" s="65">
+        <v>0</v>
+      </c>
+      <c r="U74" s="65">
+        <v>0</v>
+      </c>
+      <c r="V74" s="65">
+        <v>0</v>
+      </c>
+      <c r="W74" s="65">
+        <v>0</v>
+      </c>
+      <c r="X74" s="65">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="65">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="65">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="65">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="65">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="65">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="65">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="65">
+        <v>0</v>
+      </c>
+      <c r="AG74" s="65">
+        <v>0</v>
+      </c>
+      <c r="AH74" s="65">
+        <v>0</v>
+      </c>
+      <c r="AI74" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:35" s="64" customFormat="1">
+      <c r="A75" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" s="64" t="s">
+        <v>454</v>
+      </c>
+      <c r="C75" s="64" t="s">
+        <v>251</v>
+      </c>
+      <c r="D75" s="64" t="s">
+        <v>455</v>
+      </c>
+      <c r="E75" s="65">
+        <v>0</v>
+      </c>
+      <c r="F75" s="65">
+        <v>0</v>
+      </c>
+      <c r="G75" s="65">
+        <v>0</v>
+      </c>
+      <c r="H75" s="65">
+        <v>0</v>
+      </c>
+      <c r="I75" s="65">
+        <v>0</v>
+      </c>
+      <c r="J75" s="65">
+        <v>0</v>
+      </c>
+      <c r="K75" s="65">
+        <v>0</v>
+      </c>
+      <c r="L75" s="65">
+        <v>0</v>
+      </c>
+      <c r="M75" s="65">
+        <v>0</v>
+      </c>
+      <c r="N75" s="65">
+        <v>0</v>
+      </c>
+      <c r="O75" s="65">
+        <v>0</v>
+      </c>
+      <c r="P75" s="65">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="65">
+        <v>0</v>
+      </c>
+      <c r="R75" s="65">
+        <v>0</v>
+      </c>
+      <c r="S75" s="65">
+        <v>0</v>
+      </c>
+      <c r="T75" s="65">
+        <v>0</v>
+      </c>
+      <c r="U75" s="65">
+        <v>0</v>
+      </c>
+      <c r="V75" s="65">
+        <v>0</v>
+      </c>
+      <c r="W75" s="65">
+        <v>0</v>
+      </c>
+      <c r="X75" s="65">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="65">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="65">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="65">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="65">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="65">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="65">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="65">
+        <v>0</v>
+      </c>
+      <c r="AG75" s="65">
+        <v>0</v>
+      </c>
+      <c r="AH75" s="65">
+        <v>0</v>
+      </c>
+      <c r="AI75" s="65">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AI73">
@@ -26761,13 +28169,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD5D24F-D6D8-45F0-9B18-7F7BBE5186DB}">
-  <dimension ref="A1:AI94"/>
+  <dimension ref="A1:AI96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N59" sqref="N59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -27540,7 +28948,7 @@
         <v>252</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E8" s="13">
         <v>150.85</v>
@@ -27647,7 +29055,7 @@
         <v>252</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E9" s="13">
         <v>150.85</v>
@@ -27748,13 +29156,13 @@
         <v>25</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>252</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E10" s="13">
         <v>31.29034381894752</v>
@@ -27855,13 +29263,13 @@
         <v>25</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>252</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E11" s="13">
         <v>24.71</v>
@@ -27968,7 +29376,7 @@
         <v>252</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E12" s="13">
         <v>28</v>
@@ -28075,7 +29483,7 @@
         <v>252</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E13" s="13">
         <v>21.43</v>
@@ -28182,7 +29590,7 @@
         <v>252</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E14" s="13">
         <v>21</v>
@@ -28289,7 +29697,7 @@
         <v>252</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E15" s="13">
         <v>145.96</v>
@@ -29139,7 +30547,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>252</v>
@@ -29460,7 +30868,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>252</v>
@@ -29674,7 +31082,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>252</v>
@@ -29781,7 +31189,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>252</v>
@@ -31386,7 +32794,7 @@
         <v>25</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>252</v>
@@ -31493,7 +32901,7 @@
         <v>25</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>252</v>
@@ -32558,324 +33966,324 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:35">
-      <c r="A55" s="11" t="s">
+    <row r="55" spans="1:35" s="64" customFormat="1">
+      <c r="A55" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="B55" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="C55" s="11" t="s">
+      <c r="B55" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="C55" s="64" t="s">
         <v>252</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E55" s="65">
         <v>19</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F55" s="65">
         <v>18</v>
       </c>
-      <c r="G55" s="13">
+      <c r="G55" s="65">
         <v>17</v>
       </c>
-      <c r="H55" s="13">
+      <c r="H55" s="65">
         <v>16</v>
       </c>
-      <c r="I55" s="13">
+      <c r="I55" s="65">
         <v>15</v>
       </c>
-      <c r="J55" s="13">
+      <c r="J55" s="65">
         <v>14</v>
       </c>
-      <c r="K55" s="13">
+      <c r="K55" s="65">
         <v>13</v>
       </c>
-      <c r="L55" s="13">
+      <c r="L55" s="65">
         <v>12</v>
       </c>
-      <c r="M55" s="13">
+      <c r="M55" s="65">
         <v>11</v>
       </c>
-      <c r="N55" s="13">
+      <c r="N55" s="65">
         <v>11</v>
       </c>
-      <c r="O55" s="13">
+      <c r="O55" s="65">
         <v>10</v>
       </c>
-      <c r="P55" s="13">
+      <c r="P55" s="65">
         <v>10</v>
       </c>
-      <c r="Q55" s="13">
+      <c r="Q55" s="65">
         <v>9</v>
       </c>
-      <c r="R55" s="13">
+      <c r="R55" s="65">
         <v>9</v>
       </c>
-      <c r="S55" s="13">
+      <c r="S55" s="65">
         <v>9</v>
       </c>
-      <c r="T55" s="13">
+      <c r="T55" s="65">
         <v>9</v>
       </c>
-      <c r="U55" s="13">
+      <c r="U55" s="65">
         <v>9</v>
       </c>
-      <c r="V55" s="13">
+      <c r="V55" s="65">
         <v>9</v>
       </c>
-      <c r="W55" s="13">
+      <c r="W55" s="65">
         <v>9</v>
       </c>
-      <c r="X55" s="13">
+      <c r="X55" s="65">
         <v>9</v>
       </c>
-      <c r="Y55" s="13">
+      <c r="Y55" s="65">
         <v>9</v>
       </c>
-      <c r="Z55" s="13">
+      <c r="Z55" s="65">
         <v>9</v>
       </c>
-      <c r="AA55" s="13">
+      <c r="AA55" s="65">
         <v>9</v>
       </c>
-      <c r="AB55" s="13">
+      <c r="AB55" s="65">
         <v>9</v>
       </c>
-      <c r="AC55" s="13">
+      <c r="AC55" s="65">
         <v>8</v>
       </c>
-      <c r="AD55" s="13">
+      <c r="AD55" s="65">
         <v>8</v>
       </c>
-      <c r="AE55" s="13">
+      <c r="AE55" s="65">
         <v>8</v>
       </c>
-      <c r="AF55" s="13">
+      <c r="AF55" s="65">
         <v>8</v>
       </c>
-      <c r="AG55" s="13">
+      <c r="AG55" s="65">
         <v>8</v>
       </c>
-      <c r="AH55" s="13">
+      <c r="AH55" s="65">
         <v>8</v>
       </c>
-      <c r="AI55" s="13">
+      <c r="AI55" s="65">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:35">
-      <c r="A56" s="11" t="s">
+    <row r="56" spans="1:35" s="64" customFormat="1">
+      <c r="A56" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="B56" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="C56" s="11" t="s">
+      <c r="B56" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="C56" s="64" t="s">
         <v>252</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E56" s="65">
         <v>19</v>
       </c>
-      <c r="F56" s="13">
+      <c r="F56" s="65">
         <v>18</v>
       </c>
-      <c r="G56" s="13">
+      <c r="G56" s="65">
         <v>17</v>
       </c>
-      <c r="H56" s="13">
+      <c r="H56" s="65">
         <v>17</v>
       </c>
-      <c r="I56" s="13">
+      <c r="I56" s="65">
         <v>16</v>
       </c>
-      <c r="J56" s="13">
+      <c r="J56" s="65">
         <v>15</v>
       </c>
-      <c r="K56" s="13">
+      <c r="K56" s="65">
         <v>14</v>
       </c>
-      <c r="L56" s="13">
+      <c r="L56" s="65">
         <v>14</v>
       </c>
-      <c r="M56" s="13">
+      <c r="M56" s="65">
         <v>13</v>
       </c>
-      <c r="N56" s="13">
+      <c r="N56" s="65">
         <v>12</v>
       </c>
-      <c r="O56" s="13">
+      <c r="O56" s="65">
         <v>12</v>
       </c>
-      <c r="P56" s="13">
+      <c r="P56" s="65">
         <v>12</v>
       </c>
-      <c r="Q56" s="13">
+      <c r="Q56" s="65">
         <v>11</v>
       </c>
-      <c r="R56" s="13">
+      <c r="R56" s="65">
         <v>11</v>
       </c>
-      <c r="S56" s="13">
+      <c r="S56" s="65">
         <v>11</v>
       </c>
-      <c r="T56" s="13">
+      <c r="T56" s="65">
         <v>11</v>
       </c>
-      <c r="U56" s="13">
+      <c r="U56" s="65">
         <v>11</v>
       </c>
-      <c r="V56" s="13">
+      <c r="V56" s="65">
         <v>11</v>
       </c>
-      <c r="W56" s="13">
+      <c r="W56" s="65">
         <v>11</v>
       </c>
-      <c r="X56" s="13">
+      <c r="X56" s="65">
         <v>11</v>
       </c>
-      <c r="Y56" s="13">
+      <c r="Y56" s="65">
         <v>11</v>
       </c>
-      <c r="Z56" s="13">
+      <c r="Z56" s="65">
         <v>11</v>
       </c>
-      <c r="AA56" s="13">
+      <c r="AA56" s="65">
         <v>10</v>
       </c>
-      <c r="AB56" s="13">
+      <c r="AB56" s="65">
         <v>10</v>
       </c>
-      <c r="AC56" s="13">
+      <c r="AC56" s="65">
         <v>10</v>
       </c>
-      <c r="AD56" s="13">
+      <c r="AD56" s="65">
         <v>10</v>
       </c>
-      <c r="AE56" s="13">
+      <c r="AE56" s="65">
         <v>10</v>
       </c>
-      <c r="AF56" s="13">
+      <c r="AF56" s="65">
         <v>10</v>
       </c>
-      <c r="AG56" s="13">
+      <c r="AG56" s="65">
         <v>10</v>
       </c>
-      <c r="AH56" s="13">
+      <c r="AH56" s="65">
         <v>10</v>
       </c>
-      <c r="AI56" s="13">
+      <c r="AI56" s="65">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:35">
-      <c r="A57" s="11" t="s">
+    <row r="57" spans="1:35" s="64" customFormat="1">
+      <c r="A57" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B57" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="C57" s="11" t="s">
+      <c r="B57" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="C57" s="64" t="s">
         <v>252</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E57" s="65">
         <v>19</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F57" s="65">
         <v>18</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G57" s="65">
         <v>18</v>
       </c>
-      <c r="H57" s="13">
+      <c r="H57" s="65">
         <v>18</v>
       </c>
-      <c r="I57" s="13">
+      <c r="I57" s="65">
         <v>18</v>
       </c>
-      <c r="J57" s="13">
+      <c r="J57" s="65">
         <v>17</v>
       </c>
-      <c r="K57" s="13">
+      <c r="K57" s="65">
         <v>17</v>
       </c>
-      <c r="L57" s="13">
+      <c r="L57" s="65">
         <v>17</v>
       </c>
-      <c r="M57" s="13">
+      <c r="M57" s="65">
         <v>17</v>
       </c>
-      <c r="N57" s="13">
+      <c r="N57" s="65">
         <v>17</v>
       </c>
-      <c r="O57" s="13">
+      <c r="O57" s="65">
         <v>17</v>
       </c>
-      <c r="P57" s="13">
+      <c r="P57" s="65">
         <v>17</v>
       </c>
-      <c r="Q57" s="13">
+      <c r="Q57" s="65">
         <v>16</v>
       </c>
-      <c r="R57" s="13">
+      <c r="R57" s="65">
         <v>16</v>
       </c>
-      <c r="S57" s="13">
+      <c r="S57" s="65">
         <v>16</v>
       </c>
-      <c r="T57" s="13">
+      <c r="T57" s="65">
         <v>16</v>
       </c>
-      <c r="U57" s="13">
+      <c r="U57" s="65">
         <v>15</v>
       </c>
-      <c r="V57" s="13">
+      <c r="V57" s="65">
         <v>15</v>
       </c>
-      <c r="W57" s="13">
+      <c r="W57" s="65">
         <v>15</v>
       </c>
-      <c r="X57" s="13">
+      <c r="X57" s="65">
         <v>15</v>
       </c>
-      <c r="Y57" s="13">
+      <c r="Y57" s="65">
         <v>14</v>
       </c>
-      <c r="Z57" s="13">
+      <c r="Z57" s="65">
         <v>14</v>
       </c>
-      <c r="AA57" s="13">
+      <c r="AA57" s="65">
         <v>14</v>
       </c>
-      <c r="AB57" s="13">
+      <c r="AB57" s="65">
         <v>13</v>
       </c>
-      <c r="AC57" s="13">
+      <c r="AC57" s="65">
         <v>13</v>
       </c>
-      <c r="AD57" s="13">
+      <c r="AD57" s="65">
         <v>13</v>
       </c>
-      <c r="AE57" s="13">
+      <c r="AE57" s="65">
         <v>13</v>
       </c>
-      <c r="AF57" s="13">
+      <c r="AF57" s="65">
         <v>12</v>
       </c>
-      <c r="AG57" s="13">
+      <c r="AG57" s="65">
         <v>12</v>
       </c>
-      <c r="AH57" s="13">
+      <c r="AH57" s="65">
         <v>12</v>
       </c>
-      <c r="AI57" s="13">
+      <c r="AI57" s="65">
         <v>12</v>
       </c>
     </row>
@@ -32884,7 +34292,7 @@
         <v>20</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>252</v>
@@ -32991,7 +34399,7 @@
         <v>21</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>252</v>
@@ -33098,7 +34506,7 @@
         <v>19</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>252</v>
@@ -35666,7 +37074,7 @@
         <v>20</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>252</v>
@@ -35773,7 +37181,7 @@
         <v>21</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C85" s="11" t="s">
         <v>252</v>
@@ -35880,7 +37288,7 @@
         <v>19</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>252</v>
@@ -35982,324 +37390,324 @@
         <v>95.230812187130837</v>
       </c>
     </row>
-    <row r="87" spans="1:35">
-      <c r="A87" s="11" t="s">
+    <row r="87" spans="1:35" s="64" customFormat="1">
+      <c r="A87" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="B87" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="C87" s="11" t="s">
+      <c r="B87" s="64" t="s">
+        <v>453</v>
+      </c>
+      <c r="C87" s="64" t="s">
         <v>252</v>
       </c>
-      <c r="D87" s="11" t="s">
+      <c r="D87" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="E87" s="13">
+      <c r="E87" s="65">
         <v>29</v>
       </c>
-      <c r="F87" s="13">
+      <c r="F87" s="65">
         <v>29</v>
       </c>
-      <c r="G87" s="13">
+      <c r="G87" s="65">
         <v>27</v>
       </c>
-      <c r="H87" s="13">
+      <c r="H87" s="65">
         <v>25</v>
       </c>
-      <c r="I87" s="13">
+      <c r="I87" s="65">
         <v>23</v>
       </c>
-      <c r="J87" s="13">
+      <c r="J87" s="65">
         <v>21</v>
       </c>
-      <c r="K87" s="13">
+      <c r="K87" s="65">
         <v>19</v>
       </c>
-      <c r="L87" s="13">
+      <c r="L87" s="65">
         <v>17</v>
       </c>
-      <c r="M87" s="13">
+      <c r="M87" s="65">
         <v>15</v>
       </c>
-      <c r="N87" s="13">
+      <c r="N87" s="65">
         <v>13</v>
       </c>
-      <c r="O87" s="13">
+      <c r="O87" s="65">
         <v>11</v>
       </c>
-      <c r="P87" s="13">
+      <c r="P87" s="65">
         <v>11</v>
       </c>
-      <c r="Q87" s="13">
+      <c r="Q87" s="65">
         <v>11</v>
       </c>
-      <c r="R87" s="13">
+      <c r="R87" s="65">
         <v>11</v>
       </c>
-      <c r="S87" s="13">
+      <c r="S87" s="65">
         <v>11</v>
       </c>
-      <c r="T87" s="13">
+      <c r="T87" s="65">
         <v>11</v>
       </c>
-      <c r="U87" s="13">
+      <c r="U87" s="65">
         <v>10</v>
       </c>
-      <c r="V87" s="13">
+      <c r="V87" s="65">
         <v>10</v>
       </c>
-      <c r="W87" s="13">
+      <c r="W87" s="65">
         <v>10</v>
       </c>
-      <c r="X87" s="13">
+      <c r="X87" s="65">
         <v>10</v>
       </c>
-      <c r="Y87" s="13">
+      <c r="Y87" s="65">
         <v>10</v>
       </c>
-      <c r="Z87" s="13">
+      <c r="Z87" s="65">
         <v>10</v>
       </c>
-      <c r="AA87" s="13">
+      <c r="AA87" s="65">
         <v>10</v>
       </c>
-      <c r="AB87" s="13">
+      <c r="AB87" s="65">
         <v>10</v>
       </c>
-      <c r="AC87" s="13">
+      <c r="AC87" s="65">
         <v>9</v>
       </c>
-      <c r="AD87" s="13">
+      <c r="AD87" s="65">
         <v>9</v>
       </c>
-      <c r="AE87" s="13">
+      <c r="AE87" s="65">
         <v>9</v>
       </c>
-      <c r="AF87" s="13">
+      <c r="AF87" s="65">
         <v>9</v>
       </c>
-      <c r="AG87" s="13">
+      <c r="AG87" s="65">
         <v>9</v>
       </c>
-      <c r="AH87" s="13">
+      <c r="AH87" s="65">
         <v>9</v>
       </c>
-      <c r="AI87" s="13">
+      <c r="AI87" s="65">
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:35">
-      <c r="A88" s="11" t="s">
+    <row r="88" spans="1:35" s="64" customFormat="1">
+      <c r="A88" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="B88" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="C88" s="11" t="s">
+      <c r="B88" s="64" t="s">
+        <v>453</v>
+      </c>
+      <c r="C88" s="64" t="s">
         <v>252</v>
       </c>
-      <c r="D88" s="11" t="s">
+      <c r="D88" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="E88" s="13">
+      <c r="E88" s="65">
         <v>29</v>
       </c>
-      <c r="F88" s="13">
+      <c r="F88" s="65">
         <v>29</v>
       </c>
-      <c r="G88" s="13">
+      <c r="G88" s="65">
         <v>27</v>
       </c>
-      <c r="H88" s="13">
+      <c r="H88" s="65">
         <v>25</v>
       </c>
-      <c r="I88" s="13">
+      <c r="I88" s="65">
         <v>24</v>
       </c>
-      <c r="J88" s="13">
+      <c r="J88" s="65">
         <v>22</v>
       </c>
-      <c r="K88" s="13">
+      <c r="K88" s="65">
         <v>20</v>
       </c>
-      <c r="L88" s="13">
+      <c r="L88" s="65">
         <v>18</v>
       </c>
-      <c r="M88" s="13">
+      <c r="M88" s="65">
         <v>17</v>
       </c>
-      <c r="N88" s="13">
+      <c r="N88" s="65">
         <v>15</v>
       </c>
-      <c r="O88" s="13">
+      <c r="O88" s="65">
         <v>13</v>
       </c>
-      <c r="P88" s="13">
+      <c r="P88" s="65">
         <v>13</v>
       </c>
-      <c r="Q88" s="13">
+      <c r="Q88" s="65">
         <v>13</v>
       </c>
-      <c r="R88" s="13">
+      <c r="R88" s="65">
         <v>13</v>
       </c>
-      <c r="S88" s="13">
+      <c r="S88" s="65">
         <v>13</v>
       </c>
-      <c r="T88" s="13">
+      <c r="T88" s="65">
         <v>13</v>
       </c>
-      <c r="U88" s="13">
+      <c r="U88" s="65">
         <v>13</v>
       </c>
-      <c r="V88" s="13">
+      <c r="V88" s="65">
         <v>13</v>
       </c>
-      <c r="W88" s="13">
+      <c r="W88" s="65">
         <v>12</v>
       </c>
-      <c r="X88" s="13">
+      <c r="X88" s="65">
         <v>12</v>
       </c>
-      <c r="Y88" s="13">
+      <c r="Y88" s="65">
         <v>12</v>
       </c>
-      <c r="Z88" s="13">
+      <c r="Z88" s="65">
         <v>12</v>
       </c>
-      <c r="AA88" s="13">
+      <c r="AA88" s="65">
         <v>12</v>
       </c>
-      <c r="AB88" s="13">
+      <c r="AB88" s="65">
         <v>12</v>
       </c>
-      <c r="AC88" s="13">
+      <c r="AC88" s="65">
         <v>12</v>
       </c>
-      <c r="AD88" s="13">
+      <c r="AD88" s="65">
         <v>12</v>
       </c>
-      <c r="AE88" s="13">
+      <c r="AE88" s="65">
         <v>12</v>
       </c>
-      <c r="AF88" s="13">
+      <c r="AF88" s="65">
         <v>11</v>
       </c>
-      <c r="AG88" s="13">
+      <c r="AG88" s="65">
         <v>11</v>
       </c>
-      <c r="AH88" s="13">
+      <c r="AH88" s="65">
         <v>11</v>
       </c>
-      <c r="AI88" s="13">
+      <c r="AI88" s="65">
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:35">
-      <c r="A89" s="11" t="s">
+    <row r="89" spans="1:35" s="64" customFormat="1">
+      <c r="A89" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B89" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="C89" s="11" t="s">
+      <c r="B89" s="64" t="s">
+        <v>453</v>
+      </c>
+      <c r="C89" s="64" t="s">
         <v>252</v>
       </c>
-      <c r="D89" s="11" t="s">
+      <c r="D89" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="E89" s="13">
+      <c r="E89" s="65">
         <v>29</v>
       </c>
-      <c r="F89" s="13">
+      <c r="F89" s="65">
         <v>29</v>
       </c>
-      <c r="G89" s="13">
+      <c r="G89" s="65">
         <v>29</v>
       </c>
-      <c r="H89" s="13">
+      <c r="H89" s="65">
         <v>28</v>
       </c>
-      <c r="I89" s="13">
+      <c r="I89" s="65">
         <v>28</v>
       </c>
-      <c r="J89" s="13">
+      <c r="J89" s="65">
         <v>27</v>
       </c>
-      <c r="K89" s="13">
+      <c r="K89" s="65">
         <v>27</v>
       </c>
-      <c r="L89" s="13">
+      <c r="L89" s="65">
         <v>27</v>
       </c>
-      <c r="M89" s="13">
+      <c r="M89" s="65">
         <v>26</v>
       </c>
-      <c r="N89" s="13">
+      <c r="N89" s="65">
         <v>26</v>
       </c>
-      <c r="O89" s="13">
+      <c r="O89" s="65">
         <v>25</v>
       </c>
-      <c r="P89" s="13">
+      <c r="P89" s="65">
         <v>25</v>
       </c>
-      <c r="Q89" s="13">
+      <c r="Q89" s="65">
         <v>24</v>
       </c>
-      <c r="R89" s="13">
+      <c r="R89" s="65">
         <v>24</v>
       </c>
-      <c r="S89" s="13">
+      <c r="S89" s="65">
         <v>23</v>
       </c>
-      <c r="T89" s="13">
+      <c r="T89" s="65">
         <v>22</v>
       </c>
-      <c r="U89" s="13">
+      <c r="U89" s="65">
         <v>22</v>
       </c>
-      <c r="V89" s="13">
+      <c r="V89" s="65">
         <v>21</v>
       </c>
-      <c r="W89" s="13">
+      <c r="W89" s="65">
         <v>21</v>
       </c>
-      <c r="X89" s="13">
+      <c r="X89" s="65">
         <v>20</v>
       </c>
-      <c r="Y89" s="13">
+      <c r="Y89" s="65">
         <v>19</v>
       </c>
-      <c r="Z89" s="13">
+      <c r="Z89" s="65">
         <v>19</v>
       </c>
-      <c r="AA89" s="13">
+      <c r="AA89" s="65">
         <v>18</v>
       </c>
-      <c r="AB89" s="13">
+      <c r="AB89" s="65">
         <v>18</v>
       </c>
-      <c r="AC89" s="13">
+      <c r="AC89" s="65">
         <v>17</v>
       </c>
-      <c r="AD89" s="13">
+      <c r="AD89" s="65">
         <v>16</v>
       </c>
-      <c r="AE89" s="13">
+      <c r="AE89" s="65">
         <v>16</v>
       </c>
-      <c r="AF89" s="13">
+      <c r="AF89" s="65">
         <v>15</v>
       </c>
-      <c r="AG89" s="13">
+      <c r="AG89" s="65">
         <v>14</v>
       </c>
-      <c r="AH89" s="13">
+      <c r="AH89" s="65">
         <v>14</v>
       </c>
-      <c r="AI89" s="13">
+      <c r="AI89" s="65">
         <v>13</v>
       </c>
     </row>
@@ -36308,7 +37716,7 @@
         <v>20</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C90" s="11" t="s">
         <v>252</v>
@@ -36415,7 +37823,7 @@
         <v>21</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C91" s="11" t="s">
         <v>252</v>
@@ -36522,7 +37930,7 @@
         <v>19</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C92" s="11" t="s">
         <v>252</v>
@@ -36629,13 +38037,13 @@
         <v>25</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C93" s="11" t="s">
         <v>252</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E93" s="13">
         <v>64</v>
@@ -36736,7 +38144,7 @@
         <v>25</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C94" s="11" t="s">
         <v>252</v>
@@ -36836,6 +38244,220 @@
       </c>
       <c r="AI94" s="13">
         <v>17.82</v>
+      </c>
+    </row>
+    <row r="95" spans="1:35" s="64" customFormat="1">
+      <c r="A95" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="B95" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="C95" s="64" t="s">
+        <v>252</v>
+      </c>
+      <c r="D95" s="64" t="s">
+        <v>457</v>
+      </c>
+      <c r="E95" s="65">
+        <v>0</v>
+      </c>
+      <c r="F95" s="65">
+        <v>0</v>
+      </c>
+      <c r="G95" s="65">
+        <v>0</v>
+      </c>
+      <c r="H95" s="65">
+        <v>0</v>
+      </c>
+      <c r="I95" s="65">
+        <v>0</v>
+      </c>
+      <c r="J95" s="65">
+        <v>0</v>
+      </c>
+      <c r="K95" s="65">
+        <v>0</v>
+      </c>
+      <c r="L95" s="65">
+        <v>0</v>
+      </c>
+      <c r="M95" s="65">
+        <v>0</v>
+      </c>
+      <c r="N95" s="65">
+        <v>0</v>
+      </c>
+      <c r="O95" s="65">
+        <v>0</v>
+      </c>
+      <c r="P95" s="65">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="65">
+        <v>0</v>
+      </c>
+      <c r="R95" s="65">
+        <v>0</v>
+      </c>
+      <c r="S95" s="65">
+        <v>0</v>
+      </c>
+      <c r="T95" s="65">
+        <v>0</v>
+      </c>
+      <c r="U95" s="65">
+        <v>0</v>
+      </c>
+      <c r="V95" s="65">
+        <v>0</v>
+      </c>
+      <c r="W95" s="65">
+        <v>0</v>
+      </c>
+      <c r="X95" s="65">
+        <v>0</v>
+      </c>
+      <c r="Y95" s="65">
+        <v>0</v>
+      </c>
+      <c r="Z95" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA95" s="65">
+        <v>0</v>
+      </c>
+      <c r="AB95" s="65">
+        <v>0</v>
+      </c>
+      <c r="AC95" s="65">
+        <v>0</v>
+      </c>
+      <c r="AD95" s="65">
+        <v>0</v>
+      </c>
+      <c r="AE95" s="65">
+        <v>0</v>
+      </c>
+      <c r="AF95" s="65">
+        <v>0</v>
+      </c>
+      <c r="AG95" s="65">
+        <v>0</v>
+      </c>
+      <c r="AH95" s="65">
+        <v>0</v>
+      </c>
+      <c r="AI95" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:35" s="64" customFormat="1">
+      <c r="A96" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="B96" s="64" t="s">
+        <v>454</v>
+      </c>
+      <c r="C96" s="64" t="s">
+        <v>252</v>
+      </c>
+      <c r="D96" s="64" t="s">
+        <v>455</v>
+      </c>
+      <c r="E96" s="65">
+        <v>0</v>
+      </c>
+      <c r="F96" s="65">
+        <v>0</v>
+      </c>
+      <c r="G96" s="65">
+        <v>0</v>
+      </c>
+      <c r="H96" s="65">
+        <v>0</v>
+      </c>
+      <c r="I96" s="65">
+        <v>0</v>
+      </c>
+      <c r="J96" s="65">
+        <v>0</v>
+      </c>
+      <c r="K96" s="65">
+        <v>0</v>
+      </c>
+      <c r="L96" s="65">
+        <v>0</v>
+      </c>
+      <c r="M96" s="65">
+        <v>0</v>
+      </c>
+      <c r="N96" s="65">
+        <v>0</v>
+      </c>
+      <c r="O96" s="65">
+        <v>0</v>
+      </c>
+      <c r="P96" s="65">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="65">
+        <v>0</v>
+      </c>
+      <c r="R96" s="65">
+        <v>0</v>
+      </c>
+      <c r="S96" s="65">
+        <v>0</v>
+      </c>
+      <c r="T96" s="65">
+        <v>0</v>
+      </c>
+      <c r="U96" s="65">
+        <v>0</v>
+      </c>
+      <c r="V96" s="65">
+        <v>0</v>
+      </c>
+      <c r="W96" s="65">
+        <v>0</v>
+      </c>
+      <c r="X96" s="65">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="65">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="65">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="65">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="65">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="65">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="65">
+        <v>0</v>
+      </c>
+      <c r="AF96" s="65">
+        <v>0</v>
+      </c>
+      <c r="AG96" s="65">
+        <v>0</v>
+      </c>
+      <c r="AH96" s="65">
+        <v>0</v>
+      </c>
+      <c r="AI96" s="65">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -36845,13 +38467,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F64963-0CDD-4BE6-B0AC-E6FD0D7CCBEC}">
-  <dimension ref="A1:AJ94"/>
+  <dimension ref="A1:AJ96"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AH95" sqref="AH95:AI96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.95" customHeight="1"/>
@@ -36879,7 +38501,7 @@
         <v>233</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F1" s="24">
         <v>2020</v>
@@ -36986,7 +38608,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E2" s="11">
         <v>1</v>
@@ -37096,7 +38718,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E3" s="11">
         <v>1</v>
@@ -37206,7 +38828,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E4" s="11">
         <v>1</v>
@@ -37316,7 +38938,7 @@
         <v>24</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E5" s="11">
         <v>1</v>
@@ -37426,7 +39048,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E6" s="11">
         <v>1</v>
@@ -37536,7 +39158,7 @@
         <v>24</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E7" s="11">
         <v>1</v>
@@ -37646,7 +39268,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E8" s="11">
         <v>1</v>
@@ -37756,7 +39378,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E9" s="11">
         <v>1</v>
@@ -37860,13 +39482,13 @@
         <v>25</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E10" s="11">
         <v>1</v>
@@ -37970,13 +39592,13 @@
         <v>25</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E11" s="11">
         <v>1</v>
@@ -38086,7 +39708,7 @@
         <v>24</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E12" s="11">
         <v>1</v>
@@ -38196,7 +39818,7 @@
         <v>24</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E13" s="11">
         <v>1</v>
@@ -38306,7 +39928,7 @@
         <v>24</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E14" s="11">
         <v>1</v>
@@ -38416,7 +40038,7 @@
         <v>24</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E15" s="11">
         <v>1</v>
@@ -38526,7 +40148,7 @@
         <v>24</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E16" s="11">
         <v>1</v>
@@ -38636,7 +40258,7 @@
         <v>24</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E17" s="11">
         <v>1</v>
@@ -38746,7 +40368,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E18" s="11">
         <v>1</v>
@@ -38856,7 +40478,7 @@
         <v>24</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E19" s="11">
         <v>1</v>
@@ -38966,7 +40588,7 @@
         <v>24</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E20" s="11">
         <v>1</v>
@@ -39076,7 +40698,7 @@
         <v>24</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E21" s="11">
         <v>1</v>
@@ -39186,7 +40808,7 @@
         <v>24</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E22" s="11">
         <v>1</v>
@@ -39290,7 +40912,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>261</v>
@@ -39547,7 +41169,7 @@
         <v>262</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E25" s="11">
         <v>0</v>
@@ -39651,13 +41273,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>262</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E26" s="11">
         <v>0</v>
@@ -39767,7 +41389,7 @@
         <v>262</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E27" s="11">
         <v>0</v>
@@ -39871,13 +41493,13 @@
         <v>25</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>262</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E28" s="11">
         <v>0</v>
@@ -39981,13 +41603,13 @@
         <v>25</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>262</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E29" s="11">
         <v>0</v>
@@ -41631,7 +43253,7 @@
         <v>25</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>24</v>
@@ -41741,7 +43363,7 @@
         <v>25</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>24</v>
@@ -42841,7 +44463,7 @@
         <v>20</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>316</v>
+        <v>452</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>24</v>
@@ -42951,7 +44573,7 @@
         <v>21</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>316</v>
+        <v>452</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>24</v>
@@ -43061,7 +44683,7 @@
         <v>19</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>316</v>
+        <v>452</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>24</v>
@@ -43171,7 +44793,7 @@
         <v>20</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>24</v>
@@ -43281,7 +44903,7 @@
         <v>21</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>24</v>
@@ -43391,7 +45013,7 @@
         <v>19</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>24</v>
@@ -46031,7 +47653,7 @@
         <v>20</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>24</v>
@@ -46141,7 +47763,7 @@
         <v>21</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C85" s="11" t="s">
         <v>24</v>
@@ -46251,7 +47873,7 @@
         <v>19</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>24</v>
@@ -46361,7 +47983,7 @@
         <v>20</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>302</v>
+        <v>453</v>
       </c>
       <c r="C87" s="11" t="s">
         <v>24</v>
@@ -46471,7 +48093,7 @@
         <v>21</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>302</v>
+        <v>453</v>
       </c>
       <c r="C88" s="11" t="s">
         <v>24</v>
@@ -46581,7 +48203,7 @@
         <v>19</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>302</v>
+        <v>453</v>
       </c>
       <c r="C89" s="11" t="s">
         <v>24</v>
@@ -46691,7 +48313,7 @@
         <v>20</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C90" s="11" t="s">
         <v>24</v>
@@ -46801,7 +48423,7 @@
         <v>21</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C91" s="11" t="s">
         <v>24</v>
@@ -46911,7 +48533,7 @@
         <v>19</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C92" s="11" t="s">
         <v>24</v>
@@ -47021,7 +48643,7 @@
         <v>25</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C93" s="11" t="s">
         <v>24</v>
@@ -47131,7 +48753,7 @@
         <v>25</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C94" s="11" t="s">
         <v>24</v>
@@ -47234,480 +48856,232 @@
       </c>
       <c r="AJ94" s="13">
         <v>0.51300000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:36" s="64" customFormat="1" ht="12">
+      <c r="A95" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="B95" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="C95" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D95" s="64" t="s">
+        <v>457</v>
+      </c>
+      <c r="E95" s="11">
+        <v>1</v>
+      </c>
+      <c r="F95" s="65">
+        <v>0</v>
+      </c>
+      <c r="G95" s="65">
+        <v>0</v>
+      </c>
+      <c r="H95" s="65">
+        <v>0</v>
+      </c>
+      <c r="I95" s="65">
+        <v>0</v>
+      </c>
+      <c r="J95" s="65">
+        <v>0</v>
+      </c>
+      <c r="K95" s="65">
+        <v>0</v>
+      </c>
+      <c r="L95" s="65">
+        <v>0</v>
+      </c>
+      <c r="M95" s="65">
+        <v>0</v>
+      </c>
+      <c r="N95" s="65">
+        <v>0</v>
+      </c>
+      <c r="O95" s="65">
+        <v>0</v>
+      </c>
+      <c r="P95" s="65">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="65">
+        <v>0</v>
+      </c>
+      <c r="R95" s="65">
+        <v>0</v>
+      </c>
+      <c r="S95" s="65">
+        <v>0</v>
+      </c>
+      <c r="T95" s="65">
+        <v>0</v>
+      </c>
+      <c r="U95" s="65">
+        <v>0</v>
+      </c>
+      <c r="V95" s="65">
+        <v>0</v>
+      </c>
+      <c r="W95" s="65">
+        <v>0</v>
+      </c>
+      <c r="X95" s="65">
+        <v>0</v>
+      </c>
+      <c r="Y95" s="65">
+        <v>0</v>
+      </c>
+      <c r="Z95" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA95" s="65">
+        <v>0</v>
+      </c>
+      <c r="AB95" s="65">
+        <v>0</v>
+      </c>
+      <c r="AC95" s="65">
+        <v>0</v>
+      </c>
+      <c r="AD95" s="65">
+        <v>0</v>
+      </c>
+      <c r="AE95" s="65">
+        <v>0</v>
+      </c>
+      <c r="AF95" s="65">
+        <v>0</v>
+      </c>
+      <c r="AG95" s="65">
+        <v>0</v>
+      </c>
+      <c r="AH95" s="65">
+        <v>0</v>
+      </c>
+      <c r="AI95" s="65">
+        <v>0</v>
+      </c>
+      <c r="AJ95" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:36" s="64" customFormat="1" ht="12">
+      <c r="A96" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="B96" s="64" t="s">
+        <v>454</v>
+      </c>
+      <c r="C96" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D96" s="64" t="s">
+        <v>455</v>
+      </c>
+      <c r="E96" s="11">
+        <v>1</v>
+      </c>
+      <c r="F96" s="65">
+        <v>0</v>
+      </c>
+      <c r="G96" s="65">
+        <v>0</v>
+      </c>
+      <c r="H96" s="65">
+        <v>0</v>
+      </c>
+      <c r="I96" s="65">
+        <v>0</v>
+      </c>
+      <c r="J96" s="65">
+        <v>0</v>
+      </c>
+      <c r="K96" s="65">
+        <v>0</v>
+      </c>
+      <c r="L96" s="65">
+        <v>0</v>
+      </c>
+      <c r="M96" s="65">
+        <v>0</v>
+      </c>
+      <c r="N96" s="65">
+        <v>0</v>
+      </c>
+      <c r="O96" s="65">
+        <v>0</v>
+      </c>
+      <c r="P96" s="65">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="65">
+        <v>0</v>
+      </c>
+      <c r="R96" s="65">
+        <v>0</v>
+      </c>
+      <c r="S96" s="65">
+        <v>0</v>
+      </c>
+      <c r="T96" s="65">
+        <v>0</v>
+      </c>
+      <c r="U96" s="65">
+        <v>0</v>
+      </c>
+      <c r="V96" s="65">
+        <v>0</v>
+      </c>
+      <c r="W96" s="65">
+        <v>0</v>
+      </c>
+      <c r="X96" s="65">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="65">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="65">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="65">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="65">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="65">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="65">
+        <v>0</v>
+      </c>
+      <c r="AF96" s="65">
+        <v>0</v>
+      </c>
+      <c r="AG96" s="65">
+        <v>0</v>
+      </c>
+      <c r="AH96" s="65">
+        <v>0</v>
+      </c>
+      <c r="AI96" s="65">
+        <v>0</v>
+      </c>
+      <c r="AJ96" s="65">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465044A0-2557-4FC4-8230-2D5F5E941F36}">
-  <dimension ref="A1:D32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="114.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>470.41987407206682</v>
-      </c>
-      <c r="C2">
-        <v>2020</v>
-      </c>
-      <c r="D2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>492.49369125190071</v>
-      </c>
-      <c r="C3">
-        <v>2021</v>
-      </c>
-      <c r="D3" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>506.79303599314784</v>
-      </c>
-      <c r="C4">
-        <v>2022</v>
-      </c>
-      <c r="D4" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>521.09238073439485</v>
-      </c>
-      <c r="C5">
-        <v>2023</v>
-      </c>
-      <c r="D5" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>523.69800230395879</v>
-      </c>
-      <c r="C6">
-        <v>2024</v>
-      </c>
-      <c r="D6" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>523.76510825853404</v>
-      </c>
-      <c r="C7">
-        <v>2025</v>
-      </c>
-      <c r="D7" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>524.71936561258849</v>
-      </c>
-      <c r="C8">
-        <v>2026</v>
-      </c>
-      <c r="D8" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>526.70364893607541</v>
-      </c>
-      <c r="C9">
-        <v>2027</v>
-      </c>
-      <c r="D9" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>530.24958453579848</v>
-      </c>
-      <c r="C10">
-        <v>2028</v>
-      </c>
-      <c r="D10" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>534.23411183863504</v>
-      </c>
-      <c r="C11">
-        <v>2029</v>
-      </c>
-      <c r="D11" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>538.34157772491983</v>
-      </c>
-      <c r="C12">
-        <v>2030</v>
-      </c>
-      <c r="D12" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>543.87254377295756</v>
-      </c>
-      <c r="C13">
-        <v>2031</v>
-      </c>
-      <c r="D13" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>549.88861882595381</v>
-      </c>
-      <c r="C14">
-        <v>2032</v>
-      </c>
-      <c r="D14" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>555.55249145069251</v>
-      </c>
-      <c r="C15">
-        <v>2033</v>
-      </c>
-      <c r="D15" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16">
-        <v>561.55859851043624</v>
-      </c>
-      <c r="C16">
-        <v>2034</v>
-      </c>
-      <c r="D16" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17">
-        <v>567.85045471008698</v>
-      </c>
-      <c r="C17">
-        <v>2035</v>
-      </c>
-      <c r="D17" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18">
-        <v>574.4978360024129</v>
-      </c>
-      <c r="C18">
-        <v>2036</v>
-      </c>
-      <c r="D18" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19">
-        <v>581.42099844139318</v>
-      </c>
-      <c r="C19">
-        <v>2037</v>
-      </c>
-      <c r="D19" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20">
-        <v>586.56477389497468</v>
-      </c>
-      <c r="C20">
-        <v>2038</v>
-      </c>
-      <c r="D20" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21">
-        <v>591.76975282714352</v>
-      </c>
-      <c r="C21">
-        <v>2039</v>
-      </c>
-      <c r="D21" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22">
-        <v>597.03498893502967</v>
-      </c>
-      <c r="C22">
-        <v>2040</v>
-      </c>
-      <c r="D22" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23">
-        <v>602.35878669035446</v>
-      </c>
-      <c r="C23">
-        <v>2041</v>
-      </c>
-      <c r="D23" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24">
-        <v>607.74091709192919</v>
-      </c>
-      <c r="C24">
-        <v>2042</v>
-      </c>
-      <c r="D24" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25">
-        <v>613.18761377048213</v>
-      </c>
-      <c r="C25">
-        <v>2043</v>
-      </c>
-      <c r="D25" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26">
-        <v>618.69167491139069</v>
-      </c>
-      <c r="C26">
-        <v>2044</v>
-      </c>
-      <c r="D26" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27">
-        <v>624.26415018360922</v>
-      </c>
-      <c r="C27">
-        <v>2045</v>
-      </c>
-      <c r="D27" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28">
-        <v>629.9185244668131</v>
-      </c>
-      <c r="C28">
-        <v>2046</v>
-      </c>
-      <c r="D28" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29">
-        <v>635.60094139744581</v>
-      </c>
-      <c r="C29">
-        <v>2047</v>
-      </c>
-      <c r="D29" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30">
-        <v>641.36758777302384</v>
-      </c>
-      <c r="C30">
-        <v>2048</v>
-      </c>
-      <c r="D30" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31">
-        <v>647.17566943422003</v>
-      </c>
-      <c r="C31">
-        <v>2049</v>
-      </c>
-      <c r="D31" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32">
-        <v>653.04333205952389</v>
-      </c>
-      <c r="C32">
-        <v>2050</v>
-      </c>
-      <c r="D32" t="s">
-        <v>431</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/CreateDB_NC/InputData/ExcelUserData/UserDataPart1.xlsx
+++ b/CreateDB_NC/InputData/ExcelUserData/UserDataPart1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateDB_NC\InputData\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A6D202-B68D-4E97-939C-B926D520E607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D754A5-371B-4CDE-8910-A96A33987D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="935" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="935" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="technologies" sheetId="1" r:id="rId1"/>
@@ -3726,7 +3726,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
+      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4798,7 +4798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F3BFE1-3002-4175-B18A-F0D552E5CBB3}">
   <dimension ref="A1:AG74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -11486,7 +11486,7 @@
   <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N63" sqref="N63"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14120,8 +14120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C343DE-8FD7-43B0-8B91-52EA75A17858}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14311,7 +14311,7 @@
         <v>2022</v>
       </c>
       <c r="D8" s="2">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="E8" t="s">
         <v>459</v>
@@ -14334,7 +14334,7 @@
         <v>2022</v>
       </c>
       <c r="D9" s="2">
-        <v>1</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E9" t="s">
         <v>459</v>
@@ -14357,7 +14357,7 @@
         <v>2022</v>
       </c>
       <c r="D10" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
         <v>459</v>
@@ -14380,7 +14380,7 @@
         <v>2022</v>
       </c>
       <c r="D11" s="2">
-        <v>1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E11" t="s">
         <v>459</v>
@@ -14403,7 +14403,7 @@
         <v>2022</v>
       </c>
       <c r="D12" s="2">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="E12" t="s">
         <v>459</v>
@@ -14426,7 +14426,7 @@
         <v>2022</v>
       </c>
       <c r="D13" s="2">
-        <v>1</v>
+        <v>19.5</v>
       </c>
       <c r="E13" t="s">
         <v>459</v>
@@ -14449,7 +14449,7 @@
         <v>2022</v>
       </c>
       <c r="D14" s="2">
-        <v>1</v>
+        <v>1E-4</v>
       </c>
       <c r="E14" t="s">
         <v>459</v>
@@ -14472,7 +14472,7 @@
         <v>2022</v>
       </c>
       <c r="D15" s="2">
-        <v>1</v>
+        <v>1E-4</v>
       </c>
       <c r="E15" t="s">
         <v>459</v>
@@ -14495,7 +14495,7 @@
         <v>2022</v>
       </c>
       <c r="D16" s="2">
-        <v>1</v>
+        <v>1E-4</v>
       </c>
       <c r="E16" t="s">
         <v>459</v>
@@ -14518,7 +14518,7 @@
         <v>2022</v>
       </c>
       <c r="D17" s="2">
-        <v>1</v>
+        <v>1E-4</v>
       </c>
       <c r="E17" t="s">
         <v>459</v>
@@ -14541,7 +14541,7 @@
         <v>2022</v>
       </c>
       <c r="D18" s="2">
-        <v>1</v>
+        <v>1E-4</v>
       </c>
       <c r="E18" t="s">
         <v>459</v>
@@ -14564,7 +14564,7 @@
         <v>2022</v>
       </c>
       <c r="D19" s="2">
-        <v>1</v>
+        <v>1E-4</v>
       </c>
       <c r="E19" t="s">
         <v>459</v>
@@ -14748,7 +14748,7 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A43" sqref="A43:D43"/>
     </sheetView>
   </sheetViews>
@@ -15484,8 +15484,8 @@
   <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="1" sqref="A12:A13 A3"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27387,7 +27387,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B89" sqref="B76:B89"/>
+      <selection pane="bottomLeft" activeCell="B67" sqref="B67:G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -37026,7 +37026,7 @@
   <dimension ref="A1:AI110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B97" sqref="B97:B110"/>
     </sheetView>
   </sheetViews>

--- a/CreateDB_NC/InputData/ExcelUserData/UserDataPart1.xlsx
+++ b/CreateDB_NC/InputData/ExcelUserData/UserDataPart1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateDB_NC\InputData\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88ACC8C9-51DD-4C0F-9B2C-CB088DB51D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9169B5A7-5DA3-4D24-B43A-8A31166B8303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="935" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="935" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="technologies" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3597" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3598" uniqueCount="548">
   <si>
     <t>tech</t>
   </si>
@@ -1701,6 +1701,12 @@
   </si>
   <si>
     <t>Read Supplementary File. (estiamted from EIA data)</t>
+  </si>
+  <si>
+    <t>ConstructionTime</t>
+  </si>
+  <si>
+    <t>Regional Energy Deployment System (ReEDS) Model Documentation: Version 2020 - All ConstructionTimes From ATB23</t>
   </si>
 </sst>
 </file>
@@ -15907,8 +15913,8 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51:A52"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A1:A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16654,22 +16660,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C008AD2-9FC6-4B50-8E5B-D9A0AF2799B1}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="73.42578125" customWidth="1"/>
-    <col min="5" max="5" width="112.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="73.42578125" customWidth="1"/>
+    <col min="6" max="6" width="112.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16680,13 +16687,16 @@
         <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>256</v>
       </c>
@@ -16696,14 +16706,17 @@
       <c r="C2">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
         <v>306</v>
       </c>
-      <c r="E2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>257</v>
       </c>
@@ -16713,14 +16726,17 @@
       <c r="C3">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
         <v>311</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="12" t="s">
         <v>255</v>
       </c>
@@ -16730,14 +16746,17 @@
       <c r="C4">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
         <v>307</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>258</v>
       </c>
@@ -16747,14 +16766,17 @@
       <c r="C5">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
         <v>310</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>259</v>
       </c>
@@ -16764,14 +16786,17 @@
       <c r="C6">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
         <v>309</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>260</v>
       </c>
@@ -16781,14 +16806,17 @@
       <c r="C7">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
         <v>308</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>261</v>
       </c>
@@ -16798,14 +16826,17 @@
       <c r="C8">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
         <v>312</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>262</v>
       </c>
@@ -16815,14 +16846,17 @@
       <c r="C9">
         <v>20</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
         <v>313</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>304</v>
       </c>
@@ -16832,14 +16866,17 @@
       <c r="C10">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
         <v>334</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>305</v>
       </c>
@@ -16849,14 +16886,17 @@
       <c r="C11">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
         <v>335</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>263</v>
       </c>
@@ -16866,14 +16906,17 @@
       <c r="C12">
         <v>20</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
         <v>314</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>264</v>
       </c>
@@ -16883,14 +16926,17 @@
       <c r="C13">
         <v>20</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
         <v>315</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>265</v>
       </c>
@@ -16900,14 +16946,17 @@
       <c r="C14">
         <v>20</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
         <v>316</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13.5" customHeight="1">
+    <row r="15" spans="1:6" ht="13.5" customHeight="1">
       <c r="A15" t="s">
         <v>266</v>
       </c>
@@ -16917,14 +16966,17 @@
       <c r="C15">
         <v>20</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
         <v>317</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.25" customHeight="1">
+    <row r="16" spans="1:6" ht="14.25" customHeight="1">
       <c r="A16" t="s">
         <v>267</v>
       </c>
@@ -16934,14 +16986,17 @@
       <c r="C16">
         <v>20</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
         <v>318</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="13.5" customHeight="1">
+    <row r="17" spans="1:6" ht="13.5" customHeight="1">
       <c r="A17" t="s">
         <v>268</v>
       </c>
@@ -16951,14 +17006,17 @@
       <c r="C17">
         <v>20</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
         <v>319</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="13.5" customHeight="1">
+    <row r="18" spans="1:6" ht="13.5" customHeight="1">
       <c r="A18" t="s">
         <v>269</v>
       </c>
@@ -16968,14 +17026,17 @@
       <c r="C18">
         <v>20</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
         <v>320</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="13.5" customHeight="1">
+    <row r="19" spans="1:6" ht="13.5" customHeight="1">
       <c r="A19" t="s">
         <v>270</v>
       </c>
@@ -16985,14 +17046,17 @@
       <c r="C19">
         <v>20</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
         <v>321</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="13.5" customHeight="1">
+    <row r="20" spans="1:6" ht="13.5" customHeight="1">
       <c r="A20" t="s">
         <v>271</v>
       </c>
@@ -17002,14 +17066,17 @@
       <c r="C20">
         <v>20</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
         <v>322</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>272</v>
       </c>
@@ -17019,14 +17086,17 @@
       <c r="C21">
         <v>20</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
         <v>323</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>273</v>
       </c>
@@ -17036,14 +17106,17 @@
       <c r="C22">
         <v>20</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
         <v>324</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>288</v>
       </c>
@@ -17053,14 +17126,17 @@
       <c r="C23">
         <v>15</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
         <v>336</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>287</v>
       </c>
@@ -17070,14 +17146,17 @@
       <c r="C24">
         <v>15</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
         <v>337</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>290</v>
       </c>
@@ -17087,14 +17166,17 @@
       <c r="C25">
         <v>15</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
         <v>338</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>289</v>
       </c>
@@ -17104,14 +17186,17 @@
       <c r="C26">
         <v>15</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
         <v>339</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>300</v>
       </c>
@@ -17121,14 +17206,17 @@
       <c r="C27">
         <v>20</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
         <v>325</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>301</v>
       </c>
@@ -17138,14 +17226,17 @@
       <c r="C28">
         <v>20</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
         <v>340</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>284</v>
       </c>
@@ -17155,14 +17246,17 @@
       <c r="C29">
         <v>20</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
         <v>341</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1">
+    <row r="30" spans="1:6" ht="15" customHeight="1">
       <c r="A30" t="s">
         <v>285</v>
       </c>
@@ -17172,14 +17266,17 @@
       <c r="C30">
         <v>20</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
         <v>342</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1">
+    <row r="31" spans="1:6" ht="15" customHeight="1">
       <c r="A31" t="s">
         <v>286</v>
       </c>
@@ -17189,14 +17286,17 @@
       <c r="C31">
         <v>20</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
         <v>343</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1">
+    <row r="32" spans="1:6" ht="15" customHeight="1">
       <c r="A32" t="s">
         <v>280</v>
       </c>
@@ -17206,14 +17306,17 @@
       <c r="C32">
         <v>20</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
         <v>344</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>282</v>
       </c>
@@ -17223,14 +17326,17 @@
       <c r="C33">
         <v>20</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
         <v>345</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>278</v>
       </c>
@@ -17240,14 +17346,17 @@
       <c r="C34">
         <v>20</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
         <v>346</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>277</v>
       </c>
@@ -17257,14 +17366,17 @@
       <c r="C35">
         <v>20</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
         <v>347</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>281</v>
       </c>
@@ -17274,14 +17386,17 @@
       <c r="C36">
         <v>20</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
         <v>348</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>283</v>
       </c>
@@ -17291,14 +17406,17 @@
       <c r="C37">
         <v>20</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
         <v>349</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>279</v>
       </c>
@@ -17308,14 +17426,17 @@
       <c r="C38">
         <v>20</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
         <v>350</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>291</v>
       </c>
@@ -17325,14 +17446,17 @@
       <c r="C39">
         <v>20</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39">
+        <v>6</v>
+      </c>
+      <c r="E39" t="s">
         <v>351</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>292</v>
       </c>
@@ -17342,14 +17466,17 @@
       <c r="C40">
         <v>20</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
         <v>352</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6">
       <c r="A41" s="46" t="s">
         <v>442</v>
       </c>
@@ -17359,14 +17486,17 @@
       <c r="C41">
         <v>20</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
         <v>353</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:6">
       <c r="A42" s="46" t="s">
         <v>443</v>
       </c>
@@ -17376,14 +17506,17 @@
       <c r="C42">
         <v>20</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
         <v>354</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>293</v>
       </c>
@@ -17393,14 +17526,17 @@
       <c r="C43">
         <v>20</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
         <v>355</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>294</v>
       </c>
@@ -17410,14 +17546,17 @@
       <c r="C44">
         <v>20</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
         <v>356</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>295</v>
       </c>
@@ -17427,14 +17566,17 @@
       <c r="C45">
         <v>20</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
         <v>357</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>302</v>
       </c>
@@ -17444,14 +17586,17 @@
       <c r="C46">
         <v>20</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
         <v>358</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>303</v>
       </c>
@@ -17461,14 +17606,17 @@
       <c r="C47">
         <v>20</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47" t="s">
         <v>359</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>299</v>
       </c>
@@ -17478,11 +17626,14 @@
       <c r="C48">
         <v>20</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>276</v>
       </c>
@@ -17492,14 +17643,17 @@
       <c r="C49">
         <v>20</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
         <v>326</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>254</v>
       </c>
@@ -17509,11 +17663,14 @@
       <c r="C50">
         <v>20</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>296</v>
       </c>
@@ -17523,11 +17680,14 @@
       <c r="C51">
         <v>20</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>244</v>
       </c>
@@ -17537,11 +17697,14 @@
       <c r="C52">
         <v>20</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>298</v>
       </c>
@@ -17551,11 +17714,14 @@
       <c r="C53">
         <v>20</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>297</v>
       </c>
@@ -17565,11 +17731,14 @@
       <c r="C54">
         <v>20</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>274</v>
       </c>
@@ -17579,14 +17748,17 @@
       <c r="C55">
         <v>20</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
         <v>332</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>275</v>
       </c>
@@ -17596,14 +17768,17 @@
       <c r="C56">
         <v>20</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
         <v>333</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:6">
       <c r="A57" s="46" t="s">
         <v>440</v>
       </c>
@@ -17613,11 +17788,14 @@
       <c r="C57">
         <v>20</v>
       </c>
-      <c r="D57" s="46" t="s">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" s="46" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:6">
       <c r="A58" s="67" t="s">
         <v>507</v>
       </c>
@@ -17627,11 +17805,14 @@
       <c r="C58">
         <v>20</v>
       </c>
-      <c r="D58" s="67" t="s">
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" s="67" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:6">
       <c r="A59" s="67" t="s">
         <v>508</v>
       </c>
@@ -17641,11 +17822,14 @@
       <c r="C59">
         <v>20</v>
       </c>
-      <c r="D59" s="67" t="s">
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" s="67" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:6">
       <c r="A60" s="67" t="s">
         <v>469</v>
       </c>
@@ -17655,11 +17839,14 @@
       <c r="C60">
         <v>20</v>
       </c>
-      <c r="D60" s="67" t="s">
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" s="67" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:6">
       <c r="A61" s="67" t="s">
         <v>470</v>
       </c>
@@ -17669,11 +17856,14 @@
       <c r="C61">
         <v>20</v>
       </c>
-      <c r="D61" s="67" t="s">
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" s="67" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:6">
       <c r="A62" s="67" t="s">
         <v>471</v>
       </c>
@@ -17683,11 +17873,14 @@
       <c r="C62">
         <v>20</v>
       </c>
-      <c r="D62" s="67" t="s">
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" s="67" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:6">
       <c r="A63" s="67" t="s">
         <v>509</v>
       </c>
@@ -17697,11 +17890,14 @@
       <c r="C63">
         <v>20</v>
       </c>
-      <c r="D63" s="67" t="s">
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" s="67" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:6">
       <c r="A64" s="67" t="s">
         <v>472</v>
       </c>
@@ -17711,11 +17907,14 @@
       <c r="C64">
         <v>20</v>
       </c>
-      <c r="D64" s="67" t="s">
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" s="67" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:5">
       <c r="A65" s="46" t="s">
         <v>510</v>
       </c>
@@ -17725,11 +17924,14 @@
       <c r="C65">
         <v>20</v>
       </c>
-      <c r="D65" s="46" t="s">
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65" s="46" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:5">
       <c r="A66" s="46" t="s">
         <v>511</v>
       </c>
@@ -17739,11 +17941,14 @@
       <c r="C66">
         <v>20</v>
       </c>
-      <c r="D66" s="46" t="s">
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66" s="46" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:5">
       <c r="A67" s="46" t="s">
         <v>473</v>
       </c>
@@ -17753,11 +17958,14 @@
       <c r="C67">
         <v>20</v>
       </c>
-      <c r="D67" s="46" t="s">
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67" s="46" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:5">
       <c r="A68" s="46" t="s">
         <v>474</v>
       </c>
@@ -17767,11 +17975,14 @@
       <c r="C68">
         <v>20</v>
       </c>
-      <c r="D68" s="46" t="s">
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68" s="46" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:5">
       <c r="A69" s="46" t="s">
         <v>475</v>
       </c>
@@ -17781,11 +17992,14 @@
       <c r="C69">
         <v>20</v>
       </c>
-      <c r="D69" s="46" t="s">
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69" s="46" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:5">
       <c r="A70" s="46" t="s">
         <v>512</v>
       </c>
@@ -17795,11 +18009,14 @@
       <c r="C70">
         <v>20</v>
       </c>
-      <c r="D70" s="46" t="s">
+      <c r="D70">
+        <v>5</v>
+      </c>
+      <c r="E70" s="46" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:5">
       <c r="A71" s="46" t="s">
         <v>476</v>
       </c>
@@ -17809,11 +18026,14 @@
       <c r="C71">
         <v>20</v>
       </c>
-      <c r="D71" s="46" t="s">
+      <c r="D71">
+        <v>5</v>
+      </c>
+      <c r="E71" s="46" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>532</v>
       </c>
@@ -17823,11 +18043,14 @@
       <c r="C72">
         <v>20</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>533</v>
       </c>
@@ -17837,7 +18060,10 @@
       <c r="C73">
         <v>1</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73" t="s">
         <v>536</v>
       </c>
     </row>
@@ -50225,7 +50451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F64963-0CDD-4BE6-B0AC-E6FD0D7CCBEC}">
   <dimension ref="A1:AJ111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L26" sqref="L26"/>
     </sheetView>
